--- a/react/udemy_react_django.xlsx
+++ b/react/udemy_react_django.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toyohide/Desktop/hideyuki/react/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toyohide/Desktop/hideyuki/MY_STUDY/react/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A2E09B-16EE-6540-8AA4-B81654800A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B997FA8B-3C69-A345-B630-51163F7507D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1280" windowWidth="26440" windowHeight="11780" xr2:uid="{651D86AD-9F96-734E-BED0-B73284E3A4E4}"/>
+    <workbookView xWindow="400" yWindow="4540" windowWidth="26440" windowHeight="11780" xr2:uid="{651D86AD-9F96-734E-BED0-B73284E3A4E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="164">
   <si>
     <t>toyohide@toyohidenoMacBook-Pro ~ % cd /Users/toyohide/Desktop/hideyuki/react/002 </t>
   </si>
@@ -78,13 +78,2322 @@
   </si>
   <si>
     <t>toyohide@toyohidenoMacBook-Pro backend % python3 manage.py runserver</t>
+  </si>
+  <si>
+    <t>backend/api/models.py</t>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> tkinter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CASCADE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> django.db </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> models</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> django.contrib.auth.models </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AbstractBaseUser, BaseUserManager, PermissionsMixin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> django.conf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> settings</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> upload_avatar_path(instance, filename):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ext = filename.split(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)[-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'/'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.join([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'avatars'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, str(instance.userProfile.id) + str(instance.nickName) + str(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>) + str(ext)])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> upload_post_path(instance, filename):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'/'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.join([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'posts'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, str(instance.userProfile.id) + str(instance.title) + str(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>) + str(ext)])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> UserManager(BaseUserManager):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> create_user(self, email, password=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>None</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> email:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>raise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ValueError(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'email is must'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">user = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.model(email=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.normalize_email(email))</t>
+    </r>
+  </si>
+  <si>
+    <t>user.set_password(password)</t>
+  </si>
+  <si>
+    <r>
+      <t>user.save(using=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>._db)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> user</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> create_superuser(self, email, password):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">user = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.create_user(email, password)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">user.is_staff = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>True</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">user.is_superuser = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>True</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> User(AbstractBaseUser, PermissionsMixin):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>email = models.EmailField(max_length=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, unique=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>is_active = models.BooleanField(default=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>is_staff = models.BooleanField(default=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>objects = UserManager()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USERNAME_FIELD = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'email'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> __str__(self):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.email</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Profile(models.Model):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>nickname = models.CharField(max_length=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>userProfile = models.OneToOneField(</t>
+  </si>
+  <si>
+    <r>
+      <t>settings.AUTH_USER_MODEL, related_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'userProfile'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>on_delete=models.CASCADE</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <r>
+      <t>created_on = models.DateTimeField(auto_now_add=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>img = models.ImageField(blank=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, null=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, upload_to=upload_avatar_path)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.nickname</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Post(models.Model):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>title = models.CharField(max_length=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>userPost = models.ForeignKey(</t>
+  </si>
+  <si>
+    <r>
+      <t>settings.AUTH_USER_MODEL, related_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'userPost'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>img = models.ImageField(blank=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, null=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, upload_to=upload_post_path)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>liked = models.ManyToManyField(settings.AUTH_USER_MODEL, related_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'liked'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, blank=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.title</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Comment(models.Model):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>text = models.CharField(max_length=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>userComment = models.ForeignKey(</t>
+  </si>
+  <si>
+    <r>
+      <t>settings.AUTH_USER_MODEL, related_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'userComment'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>on_delete=CASCADE</t>
+  </si>
+  <si>
+    <t>post = models.ForeignKey(Post, on_delete=models.CASCADE)</t>
+  </si>
+  <si>
+    <r>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.text</t>
+    </r>
+  </si>
+  <si>
+    <t>backend/api_insta/settings.py</t>
+  </si>
+  <si>
+    <t>"""</t>
+  </si>
+  <si>
+    <t>Django settings for api_insta project.</t>
+  </si>
+  <si>
+    <t>Generated by 'django-admin startproject' using Django 4.0.6.</t>
+  </si>
+  <si>
+    <t>For more information on this file, see</t>
+  </si>
+  <si>
+    <t>https://docs.djangoproject.com/en/4.0/topics/settings/</t>
+  </si>
+  <si>
+    <t>For the full list of settings and their values, see</t>
+  </si>
+  <si>
+    <t>https://docs.djangoproject.com/en/4.0/ref/settings/</t>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> os</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pathlib </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Path</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> datetime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> timedelta</t>
+    </r>
+  </si>
+  <si>
+    <t># Build paths inside the project like this: BASE_DIR / 'subdir'.</t>
+  </si>
+  <si>
+    <t>BASE_DIR = Path(__file__).resolve().parent.parent</t>
+  </si>
+  <si>
+    <t># Quick-start development settings - unsuitable for production</t>
+  </si>
+  <si>
+    <t># See https://docs.djangoproject.com/en/4.0/howto/deployment/checklist/</t>
+  </si>
+  <si>
+    <t># SECURITY WARNING: keep the secret key used in production secret!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SECRET_KEY = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'django-insecure-)1t=f#7y8vp)ll8m6m*6zuk+m4b_w#mvw&amp;-=gy%f*rj=f#*-x+'</t>
+    </r>
+  </si>
+  <si>
+    <t># SECURITY WARNING: don't run with debug turned on in production!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DEBUG = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>True</t>
+    </r>
+  </si>
+  <si>
+    <t>ALLOWED_HOSTS = []</t>
+  </si>
+  <si>
+    <t># Application definition</t>
+  </si>
+  <si>
+    <t>INSTALLED_APPS = [</t>
+  </si>
+  <si>
+    <r>
+      <t>'django.contrib.admin'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'django.contrib.auth'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'django.contrib.contenttypes'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'django.contrib.sessions'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'django.contrib.messages'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'django.contrib.staticfiles'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'rest_framework'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'djoser'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'api.apps.ApiConfig'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'corsheaders'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>MIDDLEWARE = [</t>
+  </si>
+  <si>
+    <r>
+      <t>'django.middleware.security.SecurityMiddleware'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'django.contrib.sessions.middleware.SessionMiddleware'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'django.middleware.common.CommonMiddleware'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'django.middleware.csrf.CsrfViewMiddleware'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'django.contrib.auth.middleware.AuthenticationMiddleware'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'django.contrib.messages.middleware.MessageMiddleware'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'django.middleware.clickjacking.XFrameOptionsMiddleware'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'corsheaders.middleware.CorsMiddleware'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>CORS_ORIGIN_WHITELIST = [</t>
+  </si>
+  <si>
+    <t>"http://localhost:3000"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ROOT_URLCONF = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'api_insta.urls'</t>
+    </r>
+  </si>
+  <si>
+    <t>TEMPLATES = [</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <r>
+      <t>'BACKEND'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'django.template.backends.django.DjangoTemplates'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'DIRS'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>: [],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'APP_DIRS'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'OPTIONS'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'context_processors'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'django.template.context_processors.debug'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'django.template.context_processors.request'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'django.contrib.auth.context_processors.auth'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'django.contrib.messages.context_processors.messages'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>],</t>
+  </si>
+  <si>
+    <t>},</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WSGI_APPLICATION = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'api_insta.wsgi.application'</t>
+    </r>
+  </si>
+  <si>
+    <t>REST_FRAMEWORK = {</t>
+  </si>
+  <si>
+    <r>
+      <t>'DEFAULT_PERMISSION_CLASSES'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+  </si>
+  <si>
+    <t>'rest_framework.permissions.IsAuthenticated'</t>
+  </si>
+  <si>
+    <r>
+      <t>'DEFAULT_AUTHENTICATION_CLASSES'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+  </si>
+  <si>
+    <t>'rest_framework_simplejwt.authentication.JWTAuthentication'</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>SIMPLE_JWT = {</t>
+  </si>
+  <si>
+    <r>
+      <t>'AUTH_HEADER_TYPES'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>: (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'JWT'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'ACCESS_TOKEN_LIFETIME'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>: timedelta(minutes=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t># Database</t>
+  </si>
+  <si>
+    <t># https://docs.djangoproject.com/en/4.0/ref/settings/#databases</t>
+  </si>
+  <si>
+    <t>DATABASES = {</t>
+  </si>
+  <si>
+    <r>
+      <t>'default'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'ENGINE'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'django.db.backends.sqlite3'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'NAME'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: BASE_DIR / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'db.sqlite3'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t># Password validation</t>
+  </si>
+  <si>
+    <t># https://docs.djangoproject.com/en/4.0/ref/settings/#auth-password-validators</t>
+  </si>
+  <si>
+    <t>AUTH_PASSWORD_VALIDATORS = [</t>
+  </si>
+  <si>
+    <r>
+      <t>'NAME'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'django.contrib.auth.password_validation.UserAttributeSimilarityValidator'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'NAME'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'django.contrib.auth.password_validation.MinimumLengthValidator'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'NAME'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'django.contrib.auth.password_validation.CommonPasswordValidator'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'NAME'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'django.contrib.auth.password_validation.NumericPasswordValidator'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t># Internationalization</t>
+  </si>
+  <si>
+    <t># https://docs.djangoproject.com/en/4.0/topics/i18n/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LANGUAGE_CODE = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'en-us'</t>
+    </r>
+  </si>
+  <si>
+    <t># TIME_ZONE = 'UTC'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TIME_ZONE = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Asia/Tokyo'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE_I18N = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>True</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE_TZ = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>True</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AUTH_USER_MODEL = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'api.User'</t>
+    </r>
+  </si>
+  <si>
+    <t># Static files (CSS, JavaScript, Images)</t>
+  </si>
+  <si>
+    <t># https://docs.djangoproject.com/en/4.0/howto/static-files/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">STATIC_URL = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'static/'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MEDIA_ROOT = os.path.join(BASE_DIR, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'media'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MEDIA_URL = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'/media/'</t>
+    </r>
+  </si>
+  <si>
+    <t># Default primary key field type</t>
+  </si>
+  <si>
+    <t># https://docs.djangoproject.com/en/4.0/ref/settings/#default-auto-field</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DEFAULT_AUTO_FIELD = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'django.db.models.BigAutoField'</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,6 +2421,36 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFA31515"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF098658"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -127,12 +2466,92 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -141,7 +2560,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -158,6 +2577,63 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -787,13 +3263,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916DC249-BF26-2844-8537-B1D1BD42E174}">
-  <dimension ref="A6:Q146"/>
+  <dimension ref="A6:X415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B405" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C149" sqref="C149"/>
+      <selection pane="bottomRight" activeCell="C418" sqref="C418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="20"/>
@@ -1340,10 +3816,6544 @@
     <row r="144" spans="3:14">
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="3:3">
+    <row r="145" spans="3:24">
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="3:3" s="3" customFormat="1"/>
+    <row r="146" spans="3:24" s="3" customFormat="1"/>
+    <row r="149" spans="3:24" ht="21" thickBot="1">
+      <c r="C149" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="3:24">
+      <c r="C150" s="6"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="7"/>
+      <c r="J150" s="7"/>
+      <c r="K150" s="7"/>
+      <c r="L150" s="7"/>
+      <c r="M150" s="7"/>
+      <c r="N150" s="7"/>
+      <c r="O150" s="7"/>
+      <c r="P150" s="7"/>
+      <c r="Q150" s="7"/>
+      <c r="R150" s="7"/>
+      <c r="S150" s="7"/>
+      <c r="T150" s="7"/>
+      <c r="U150" s="7"/>
+      <c r="V150" s="7"/>
+      <c r="W150" s="7"/>
+      <c r="X150" s="8"/>
+    </row>
+    <row r="151" spans="3:24">
+      <c r="C151" s="9"/>
+      <c r="D151" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="11"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="11"/>
+      <c r="L151" s="11"/>
+      <c r="M151" s="11"/>
+      <c r="N151" s="11"/>
+      <c r="O151" s="11"/>
+      <c r="P151" s="11"/>
+      <c r="Q151" s="11"/>
+      <c r="R151" s="11"/>
+      <c r="S151" s="11"/>
+      <c r="T151" s="11"/>
+      <c r="U151" s="11"/>
+      <c r="V151" s="11"/>
+      <c r="W151" s="11"/>
+      <c r="X151" s="12"/>
+    </row>
+    <row r="152" spans="3:24">
+      <c r="C152" s="9"/>
+      <c r="D152" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="11"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="11"/>
+      <c r="L152" s="11"/>
+      <c r="M152" s="11"/>
+      <c r="N152" s="11"/>
+      <c r="O152" s="11"/>
+      <c r="P152" s="11"/>
+      <c r="Q152" s="11"/>
+      <c r="R152" s="11"/>
+      <c r="S152" s="11"/>
+      <c r="T152" s="11"/>
+      <c r="U152" s="11"/>
+      <c r="V152" s="11"/>
+      <c r="W152" s="11"/>
+      <c r="X152" s="12"/>
+    </row>
+    <row r="153" spans="3:24">
+      <c r="C153" s="9"/>
+      <c r="D153" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="11"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="11"/>
+      <c r="L153" s="11"/>
+      <c r="M153" s="11"/>
+      <c r="N153" s="11"/>
+      <c r="O153" s="11"/>
+      <c r="P153" s="11"/>
+      <c r="Q153" s="11"/>
+      <c r="R153" s="11"/>
+      <c r="S153" s="11"/>
+      <c r="T153" s="11"/>
+      <c r="U153" s="11"/>
+      <c r="V153" s="11"/>
+      <c r="W153" s="11"/>
+      <c r="X153" s="12"/>
+    </row>
+    <row r="154" spans="3:24">
+      <c r="C154" s="9"/>
+      <c r="D154" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="11"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="11"/>
+      <c r="L154" s="11"/>
+      <c r="M154" s="11"/>
+      <c r="N154" s="11"/>
+      <c r="O154" s="11"/>
+      <c r="P154" s="11"/>
+      <c r="Q154" s="11"/>
+      <c r="R154" s="11"/>
+      <c r="S154" s="11"/>
+      <c r="T154" s="11"/>
+      <c r="U154" s="11"/>
+      <c r="V154" s="11"/>
+      <c r="W154" s="11"/>
+      <c r="X154" s="12"/>
+    </row>
+    <row r="155" spans="3:24">
+      <c r="C155" s="9"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="11"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="11"/>
+      <c r="L155" s="11"/>
+      <c r="M155" s="11"/>
+      <c r="N155" s="11"/>
+      <c r="O155" s="11"/>
+      <c r="P155" s="11"/>
+      <c r="Q155" s="11"/>
+      <c r="R155" s="11"/>
+      <c r="S155" s="11"/>
+      <c r="T155" s="11"/>
+      <c r="U155" s="11"/>
+      <c r="V155" s="11"/>
+      <c r="W155" s="11"/>
+      <c r="X155" s="12"/>
+    </row>
+    <row r="156" spans="3:24">
+      <c r="C156" s="9"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="11"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="11"/>
+      <c r="L156" s="11"/>
+      <c r="M156" s="11"/>
+      <c r="N156" s="11"/>
+      <c r="O156" s="11"/>
+      <c r="P156" s="11"/>
+      <c r="Q156" s="11"/>
+      <c r="R156" s="11"/>
+      <c r="S156" s="11"/>
+      <c r="T156" s="11"/>
+      <c r="U156" s="11"/>
+      <c r="V156" s="11"/>
+      <c r="W156" s="11"/>
+      <c r="X156" s="12"/>
+    </row>
+    <row r="157" spans="3:24">
+      <c r="C157" s="9"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="11"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="11"/>
+      <c r="L157" s="11"/>
+      <c r="M157" s="11"/>
+      <c r="N157" s="11"/>
+      <c r="O157" s="11"/>
+      <c r="P157" s="11"/>
+      <c r="Q157" s="11"/>
+      <c r="R157" s="11"/>
+      <c r="S157" s="11"/>
+      <c r="T157" s="11"/>
+      <c r="U157" s="11"/>
+      <c r="V157" s="11"/>
+      <c r="W157" s="11"/>
+      <c r="X157" s="12"/>
+    </row>
+    <row r="158" spans="3:24">
+      <c r="C158" s="9"/>
+      <c r="D158" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="11"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="11"/>
+      <c r="L158" s="11"/>
+      <c r="M158" s="11"/>
+      <c r="N158" s="11"/>
+      <c r="O158" s="11"/>
+      <c r="P158" s="11"/>
+      <c r="Q158" s="11"/>
+      <c r="R158" s="11"/>
+      <c r="S158" s="11"/>
+      <c r="T158" s="11"/>
+      <c r="U158" s="11"/>
+      <c r="V158" s="11"/>
+      <c r="W158" s="11"/>
+      <c r="X158" s="12"/>
+    </row>
+    <row r="159" spans="3:24">
+      <c r="C159" s="9"/>
+      <c r="D159" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="11"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="11"/>
+      <c r="L159" s="11"/>
+      <c r="M159" s="11"/>
+      <c r="N159" s="11"/>
+      <c r="O159" s="11"/>
+      <c r="P159" s="11"/>
+      <c r="Q159" s="11"/>
+      <c r="R159" s="11"/>
+      <c r="S159" s="11"/>
+      <c r="T159" s="11"/>
+      <c r="U159" s="11"/>
+      <c r="V159" s="11"/>
+      <c r="W159" s="11"/>
+      <c r="X159" s="12"/>
+    </row>
+    <row r="160" spans="3:24">
+      <c r="C160" s="9"/>
+      <c r="D160" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+      <c r="I160" s="11"/>
+      <c r="J160" s="11"/>
+      <c r="K160" s="11"/>
+      <c r="L160" s="11"/>
+      <c r="M160" s="11"/>
+      <c r="N160" s="11"/>
+      <c r="O160" s="11"/>
+      <c r="P160" s="11"/>
+      <c r="Q160" s="11"/>
+      <c r="R160" s="11"/>
+      <c r="S160" s="11"/>
+      <c r="T160" s="11"/>
+      <c r="U160" s="11"/>
+      <c r="V160" s="11"/>
+      <c r="W160" s="11"/>
+      <c r="X160" s="12"/>
+    </row>
+    <row r="161" spans="3:24">
+      <c r="C161" s="9"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="11"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="11"/>
+      <c r="L161" s="11"/>
+      <c r="M161" s="11"/>
+      <c r="N161" s="11"/>
+      <c r="O161" s="11"/>
+      <c r="P161" s="11"/>
+      <c r="Q161" s="11"/>
+      <c r="R161" s="11"/>
+      <c r="S161" s="11"/>
+      <c r="T161" s="11"/>
+      <c r="U161" s="11"/>
+      <c r="V161" s="11"/>
+      <c r="W161" s="11"/>
+      <c r="X161" s="12"/>
+    </row>
+    <row r="162" spans="3:24">
+      <c r="C162" s="9"/>
+      <c r="D162" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="11"/>
+      <c r="I162" s="11"/>
+      <c r="J162" s="11"/>
+      <c r="K162" s="11"/>
+      <c r="L162" s="11"/>
+      <c r="M162" s="11"/>
+      <c r="N162" s="11"/>
+      <c r="O162" s="11"/>
+      <c r="P162" s="11"/>
+      <c r="Q162" s="11"/>
+      <c r="R162" s="11"/>
+      <c r="S162" s="11"/>
+      <c r="T162" s="11"/>
+      <c r="U162" s="11"/>
+      <c r="V162" s="11"/>
+      <c r="W162" s="11"/>
+      <c r="X162" s="12"/>
+    </row>
+    <row r="163" spans="3:24">
+      <c r="C163" s="9"/>
+      <c r="D163" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="11"/>
+      <c r="I163" s="11"/>
+      <c r="J163" s="11"/>
+      <c r="K163" s="11"/>
+      <c r="L163" s="11"/>
+      <c r="M163" s="11"/>
+      <c r="N163" s="11"/>
+      <c r="O163" s="11"/>
+      <c r="P163" s="11"/>
+      <c r="Q163" s="11"/>
+      <c r="R163" s="11"/>
+      <c r="S163" s="11"/>
+      <c r="T163" s="11"/>
+      <c r="U163" s="11"/>
+      <c r="V163" s="11"/>
+      <c r="W163" s="11"/>
+      <c r="X163" s="12"/>
+    </row>
+    <row r="164" spans="3:24">
+      <c r="C164" s="9"/>
+      <c r="D164" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E164" s="11"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="11"/>
+      <c r="H164" s="11"/>
+      <c r="I164" s="11"/>
+      <c r="J164" s="11"/>
+      <c r="K164" s="11"/>
+      <c r="L164" s="11"/>
+      <c r="M164" s="11"/>
+      <c r="N164" s="11"/>
+      <c r="O164" s="11"/>
+      <c r="P164" s="11"/>
+      <c r="Q164" s="11"/>
+      <c r="R164" s="11"/>
+      <c r="S164" s="11"/>
+      <c r="T164" s="11"/>
+      <c r="U164" s="11"/>
+      <c r="V164" s="11"/>
+      <c r="W164" s="11"/>
+      <c r="X164" s="12"/>
+    </row>
+    <row r="165" spans="3:24">
+      <c r="C165" s="9"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="11"/>
+      <c r="I165" s="11"/>
+      <c r="J165" s="11"/>
+      <c r="K165" s="11"/>
+      <c r="L165" s="11"/>
+      <c r="M165" s="11"/>
+      <c r="N165" s="11"/>
+      <c r="O165" s="11"/>
+      <c r="P165" s="11"/>
+      <c r="Q165" s="11"/>
+      <c r="R165" s="11"/>
+      <c r="S165" s="11"/>
+      <c r="T165" s="11"/>
+      <c r="U165" s="11"/>
+      <c r="V165" s="11"/>
+      <c r="W165" s="11"/>
+      <c r="X165" s="12"/>
+    </row>
+    <row r="166" spans="3:24">
+      <c r="C166" s="9"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="11"/>
+      <c r="G166" s="11"/>
+      <c r="H166" s="11"/>
+      <c r="I166" s="11"/>
+      <c r="J166" s="11"/>
+      <c r="K166" s="11"/>
+      <c r="L166" s="11"/>
+      <c r="M166" s="11"/>
+      <c r="N166" s="11"/>
+      <c r="O166" s="11"/>
+      <c r="P166" s="11"/>
+      <c r="Q166" s="11"/>
+      <c r="R166" s="11"/>
+      <c r="S166" s="11"/>
+      <c r="T166" s="11"/>
+      <c r="U166" s="11"/>
+      <c r="V166" s="11"/>
+      <c r="W166" s="11"/>
+      <c r="X166" s="12"/>
+    </row>
+    <row r="167" spans="3:24">
+      <c r="C167" s="9"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
+      <c r="F167" s="11"/>
+      <c r="G167" s="11"/>
+      <c r="H167" s="11"/>
+      <c r="I167" s="11"/>
+      <c r="J167" s="11"/>
+      <c r="K167" s="11"/>
+      <c r="L167" s="11"/>
+      <c r="M167" s="11"/>
+      <c r="N167" s="11"/>
+      <c r="O167" s="11"/>
+      <c r="P167" s="11"/>
+      <c r="Q167" s="11"/>
+      <c r="R167" s="11"/>
+      <c r="S167" s="11"/>
+      <c r="T167" s="11"/>
+      <c r="U167" s="11"/>
+      <c r="V167" s="11"/>
+      <c r="W167" s="11"/>
+      <c r="X167" s="12"/>
+    </row>
+    <row r="168" spans="3:24">
+      <c r="C168" s="9"/>
+      <c r="D168" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11"/>
+      <c r="G168" s="11"/>
+      <c r="H168" s="11"/>
+      <c r="I168" s="11"/>
+      <c r="J168" s="11"/>
+      <c r="K168" s="11"/>
+      <c r="L168" s="11"/>
+      <c r="M168" s="11"/>
+      <c r="N168" s="11"/>
+      <c r="O168" s="11"/>
+      <c r="P168" s="11"/>
+      <c r="Q168" s="11"/>
+      <c r="R168" s="11"/>
+      <c r="S168" s="11"/>
+      <c r="T168" s="11"/>
+      <c r="U168" s="11"/>
+      <c r="V168" s="11"/>
+      <c r="W168" s="11"/>
+      <c r="X168" s="12"/>
+    </row>
+    <row r="169" spans="3:24">
+      <c r="C169" s="9"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="11"/>
+      <c r="J169" s="11"/>
+      <c r="K169" s="11"/>
+      <c r="L169" s="11"/>
+      <c r="M169" s="11"/>
+      <c r="N169" s="11"/>
+      <c r="O169" s="11"/>
+      <c r="P169" s="11"/>
+      <c r="Q169" s="11"/>
+      <c r="R169" s="11"/>
+      <c r="S169" s="11"/>
+      <c r="T169" s="11"/>
+      <c r="U169" s="11"/>
+      <c r="V169" s="11"/>
+      <c r="W169" s="11"/>
+      <c r="X169" s="12"/>
+    </row>
+    <row r="170" spans="3:24">
+      <c r="C170" s="9"/>
+      <c r="D170" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E170" s="11"/>
+      <c r="F170" s="11"/>
+      <c r="G170" s="11"/>
+      <c r="H170" s="11"/>
+      <c r="I170" s="11"/>
+      <c r="J170" s="11"/>
+      <c r="K170" s="11"/>
+      <c r="L170" s="11"/>
+      <c r="M170" s="11"/>
+      <c r="N170" s="11"/>
+      <c r="O170" s="11"/>
+      <c r="P170" s="11"/>
+      <c r="Q170" s="11"/>
+      <c r="R170" s="11"/>
+      <c r="S170" s="11"/>
+      <c r="T170" s="11"/>
+      <c r="U170" s="11"/>
+      <c r="V170" s="11"/>
+      <c r="W170" s="11"/>
+      <c r="X170" s="12"/>
+    </row>
+    <row r="171" spans="3:24">
+      <c r="C171" s="9"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11"/>
+      <c r="G171" s="11"/>
+      <c r="H171" s="11"/>
+      <c r="I171" s="11"/>
+      <c r="J171" s="11"/>
+      <c r="K171" s="11"/>
+      <c r="L171" s="11"/>
+      <c r="M171" s="11"/>
+      <c r="N171" s="11"/>
+      <c r="O171" s="11"/>
+      <c r="P171" s="11"/>
+      <c r="Q171" s="11"/>
+      <c r="R171" s="11"/>
+      <c r="S171" s="11"/>
+      <c r="T171" s="11"/>
+      <c r="U171" s="11"/>
+      <c r="V171" s="11"/>
+      <c r="W171" s="11"/>
+      <c r="X171" s="12"/>
+    </row>
+    <row r="172" spans="3:24">
+      <c r="C172" s="9"/>
+      <c r="D172" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
+      <c r="G172" s="11"/>
+      <c r="H172" s="11"/>
+      <c r="I172" s="11"/>
+      <c r="J172" s="11"/>
+      <c r="K172" s="11"/>
+      <c r="L172" s="11"/>
+      <c r="M172" s="11"/>
+      <c r="N172" s="11"/>
+      <c r="O172" s="11"/>
+      <c r="P172" s="11"/>
+      <c r="Q172" s="11"/>
+      <c r="R172" s="11"/>
+      <c r="S172" s="11"/>
+      <c r="T172" s="11"/>
+      <c r="U172" s="11"/>
+      <c r="V172" s="11"/>
+      <c r="W172" s="11"/>
+      <c r="X172" s="12"/>
+    </row>
+    <row r="173" spans="3:24">
+      <c r="C173" s="9"/>
+      <c r="D173" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="11"/>
+      <c r="I173" s="11"/>
+      <c r="J173" s="11"/>
+      <c r="K173" s="11"/>
+      <c r="L173" s="11"/>
+      <c r="M173" s="11"/>
+      <c r="N173" s="11"/>
+      <c r="O173" s="11"/>
+      <c r="P173" s="11"/>
+      <c r="Q173" s="11"/>
+      <c r="R173" s="11"/>
+      <c r="S173" s="11"/>
+      <c r="T173" s="11"/>
+      <c r="U173" s="11"/>
+      <c r="V173" s="11"/>
+      <c r="W173" s="11"/>
+      <c r="X173" s="12"/>
+    </row>
+    <row r="174" spans="3:24">
+      <c r="C174" s="9"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="11"/>
+      <c r="H174" s="11"/>
+      <c r="I174" s="11"/>
+      <c r="J174" s="11"/>
+      <c r="K174" s="11"/>
+      <c r="L174" s="11"/>
+      <c r="M174" s="11"/>
+      <c r="N174" s="11"/>
+      <c r="O174" s="11"/>
+      <c r="P174" s="11"/>
+      <c r="Q174" s="11"/>
+      <c r="R174" s="11"/>
+      <c r="S174" s="11"/>
+      <c r="T174" s="11"/>
+      <c r="U174" s="11"/>
+      <c r="V174" s="11"/>
+      <c r="W174" s="11"/>
+      <c r="X174" s="12"/>
+    </row>
+    <row r="175" spans="3:24">
+      <c r="C175" s="9"/>
+      <c r="D175" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E175" s="11"/>
+      <c r="F175" s="11"/>
+      <c r="G175" s="11"/>
+      <c r="H175" s="11"/>
+      <c r="I175" s="11"/>
+      <c r="J175" s="11"/>
+      <c r="K175" s="11"/>
+      <c r="L175" s="11"/>
+      <c r="M175" s="11"/>
+      <c r="N175" s="11"/>
+      <c r="O175" s="11"/>
+      <c r="P175" s="11"/>
+      <c r="Q175" s="11"/>
+      <c r="R175" s="11"/>
+      <c r="S175" s="11"/>
+      <c r="T175" s="11"/>
+      <c r="U175" s="11"/>
+      <c r="V175" s="11"/>
+      <c r="W175" s="11"/>
+      <c r="X175" s="12"/>
+    </row>
+    <row r="176" spans="3:24">
+      <c r="C176" s="9"/>
+      <c r="D176" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E176" s="11"/>
+      <c r="F176" s="11"/>
+      <c r="G176" s="11"/>
+      <c r="H176" s="11"/>
+      <c r="I176" s="11"/>
+      <c r="J176" s="11"/>
+      <c r="K176" s="11"/>
+      <c r="L176" s="11"/>
+      <c r="M176" s="11"/>
+      <c r="N176" s="11"/>
+      <c r="O176" s="11"/>
+      <c r="P176" s="11"/>
+      <c r="Q176" s="11"/>
+      <c r="R176" s="11"/>
+      <c r="S176" s="11"/>
+      <c r="T176" s="11"/>
+      <c r="U176" s="11"/>
+      <c r="V176" s="11"/>
+      <c r="W176" s="11"/>
+      <c r="X176" s="12"/>
+    </row>
+    <row r="177" spans="3:24">
+      <c r="C177" s="9"/>
+      <c r="D177" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="11"/>
+      <c r="H177" s="11"/>
+      <c r="I177" s="11"/>
+      <c r="J177" s="11"/>
+      <c r="K177" s="11"/>
+      <c r="L177" s="11"/>
+      <c r="M177" s="11"/>
+      <c r="N177" s="11"/>
+      <c r="O177" s="11"/>
+      <c r="P177" s="11"/>
+      <c r="Q177" s="11"/>
+      <c r="R177" s="11"/>
+      <c r="S177" s="11"/>
+      <c r="T177" s="11"/>
+      <c r="U177" s="11"/>
+      <c r="V177" s="11"/>
+      <c r="W177" s="11"/>
+      <c r="X177" s="12"/>
+    </row>
+    <row r="178" spans="3:24">
+      <c r="C178" s="9"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="11"/>
+      <c r="G178" s="11"/>
+      <c r="H178" s="11"/>
+      <c r="I178" s="11"/>
+      <c r="J178" s="11"/>
+      <c r="K178" s="11"/>
+      <c r="L178" s="11"/>
+      <c r="M178" s="11"/>
+      <c r="N178" s="11"/>
+      <c r="O178" s="11"/>
+      <c r="P178" s="11"/>
+      <c r="Q178" s="11"/>
+      <c r="R178" s="11"/>
+      <c r="S178" s="11"/>
+      <c r="T178" s="11"/>
+      <c r="U178" s="11"/>
+      <c r="V178" s="11"/>
+      <c r="W178" s="11"/>
+      <c r="X178" s="12"/>
+    </row>
+    <row r="179" spans="3:24">
+      <c r="C179" s="9"/>
+      <c r="D179" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E179" s="11"/>
+      <c r="F179" s="11"/>
+      <c r="G179" s="11"/>
+      <c r="H179" s="11"/>
+      <c r="I179" s="11"/>
+      <c r="J179" s="11"/>
+      <c r="K179" s="11"/>
+      <c r="L179" s="11"/>
+      <c r="M179" s="11"/>
+      <c r="N179" s="11"/>
+      <c r="O179" s="11"/>
+      <c r="P179" s="11"/>
+      <c r="Q179" s="11"/>
+      <c r="R179" s="11"/>
+      <c r="S179" s="11"/>
+      <c r="T179" s="11"/>
+      <c r="U179" s="11"/>
+      <c r="V179" s="11"/>
+      <c r="W179" s="11"/>
+      <c r="X179" s="12"/>
+    </row>
+    <row r="180" spans="3:24">
+      <c r="C180" s="9"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="11"/>
+      <c r="G180" s="11"/>
+      <c r="H180" s="11"/>
+      <c r="I180" s="11"/>
+      <c r="J180" s="11"/>
+      <c r="K180" s="11"/>
+      <c r="L180" s="11"/>
+      <c r="M180" s="11"/>
+      <c r="N180" s="11"/>
+      <c r="O180" s="11"/>
+      <c r="P180" s="11"/>
+      <c r="Q180" s="11"/>
+      <c r="R180" s="11"/>
+      <c r="S180" s="11"/>
+      <c r="T180" s="11"/>
+      <c r="U180" s="11"/>
+      <c r="V180" s="11"/>
+      <c r="W180" s="11"/>
+      <c r="X180" s="12"/>
+    </row>
+    <row r="181" spans="3:24">
+      <c r="C181" s="9"/>
+      <c r="D181" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E181" s="11"/>
+      <c r="F181" s="11"/>
+      <c r="G181" s="11"/>
+      <c r="H181" s="11"/>
+      <c r="I181" s="11"/>
+      <c r="J181" s="11"/>
+      <c r="K181" s="11"/>
+      <c r="L181" s="11"/>
+      <c r="M181" s="11"/>
+      <c r="N181" s="11"/>
+      <c r="O181" s="11"/>
+      <c r="P181" s="11"/>
+      <c r="Q181" s="11"/>
+      <c r="R181" s="11"/>
+      <c r="S181" s="11"/>
+      <c r="T181" s="11"/>
+      <c r="U181" s="11"/>
+      <c r="V181" s="11"/>
+      <c r="W181" s="11"/>
+      <c r="X181" s="12"/>
+    </row>
+    <row r="182" spans="3:24">
+      <c r="C182" s="9"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11"/>
+      <c r="F182" s="11"/>
+      <c r="G182" s="11"/>
+      <c r="H182" s="11"/>
+      <c r="I182" s="11"/>
+      <c r="J182" s="11"/>
+      <c r="K182" s="11"/>
+      <c r="L182" s="11"/>
+      <c r="M182" s="11"/>
+      <c r="N182" s="11"/>
+      <c r="O182" s="11"/>
+      <c r="P182" s="11"/>
+      <c r="Q182" s="11"/>
+      <c r="R182" s="11"/>
+      <c r="S182" s="11"/>
+      <c r="T182" s="11"/>
+      <c r="U182" s="11"/>
+      <c r="V182" s="11"/>
+      <c r="W182" s="11"/>
+      <c r="X182" s="12"/>
+    </row>
+    <row r="183" spans="3:24">
+      <c r="C183" s="9"/>
+      <c r="D183" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E183" s="11"/>
+      <c r="F183" s="11"/>
+      <c r="G183" s="11"/>
+      <c r="H183" s="11"/>
+      <c r="I183" s="11"/>
+      <c r="J183" s="11"/>
+      <c r="K183" s="11"/>
+      <c r="L183" s="11"/>
+      <c r="M183" s="11"/>
+      <c r="N183" s="11"/>
+      <c r="O183" s="11"/>
+      <c r="P183" s="11"/>
+      <c r="Q183" s="11"/>
+      <c r="R183" s="11"/>
+      <c r="S183" s="11"/>
+      <c r="T183" s="11"/>
+      <c r="U183" s="11"/>
+      <c r="V183" s="11"/>
+      <c r="W183" s="11"/>
+      <c r="X183" s="12"/>
+    </row>
+    <row r="184" spans="3:24">
+      <c r="C184" s="9"/>
+      <c r="D184" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E184" s="11"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="11"/>
+      <c r="H184" s="11"/>
+      <c r="I184" s="11"/>
+      <c r="J184" s="11"/>
+      <c r="K184" s="11"/>
+      <c r="L184" s="11"/>
+      <c r="M184" s="11"/>
+      <c r="N184" s="11"/>
+      <c r="O184" s="11"/>
+      <c r="P184" s="11"/>
+      <c r="Q184" s="11"/>
+      <c r="R184" s="11"/>
+      <c r="S184" s="11"/>
+      <c r="T184" s="11"/>
+      <c r="U184" s="11"/>
+      <c r="V184" s="11"/>
+      <c r="W184" s="11"/>
+      <c r="X184" s="12"/>
+    </row>
+    <row r="185" spans="3:24">
+      <c r="C185" s="9"/>
+      <c r="D185" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E185" s="11"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="11"/>
+      <c r="H185" s="11"/>
+      <c r="I185" s="11"/>
+      <c r="J185" s="11"/>
+      <c r="K185" s="11"/>
+      <c r="L185" s="11"/>
+      <c r="M185" s="11"/>
+      <c r="N185" s="11"/>
+      <c r="O185" s="11"/>
+      <c r="P185" s="11"/>
+      <c r="Q185" s="11"/>
+      <c r="R185" s="11"/>
+      <c r="S185" s="11"/>
+      <c r="T185" s="11"/>
+      <c r="U185" s="11"/>
+      <c r="V185" s="11"/>
+      <c r="W185" s="11"/>
+      <c r="X185" s="12"/>
+    </row>
+    <row r="186" spans="3:24">
+      <c r="C186" s="9"/>
+      <c r="D186" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E186" s="11"/>
+      <c r="F186" s="11"/>
+      <c r="G186" s="11"/>
+      <c r="H186" s="11"/>
+      <c r="I186" s="11"/>
+      <c r="J186" s="11"/>
+      <c r="K186" s="11"/>
+      <c r="L186" s="11"/>
+      <c r="M186" s="11"/>
+      <c r="N186" s="11"/>
+      <c r="O186" s="11"/>
+      <c r="P186" s="11"/>
+      <c r="Q186" s="11"/>
+      <c r="R186" s="11"/>
+      <c r="S186" s="11"/>
+      <c r="T186" s="11"/>
+      <c r="U186" s="11"/>
+      <c r="V186" s="11"/>
+      <c r="W186" s="11"/>
+      <c r="X186" s="12"/>
+    </row>
+    <row r="187" spans="3:24">
+      <c r="C187" s="9"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="11"/>
+      <c r="G187" s="11"/>
+      <c r="H187" s="11"/>
+      <c r="I187" s="11"/>
+      <c r="J187" s="11"/>
+      <c r="K187" s="11"/>
+      <c r="L187" s="11"/>
+      <c r="M187" s="11"/>
+      <c r="N187" s="11"/>
+      <c r="O187" s="11"/>
+      <c r="P187" s="11"/>
+      <c r="Q187" s="11"/>
+      <c r="R187" s="11"/>
+      <c r="S187" s="11"/>
+      <c r="T187" s="11"/>
+      <c r="U187" s="11"/>
+      <c r="V187" s="11"/>
+      <c r="W187" s="11"/>
+      <c r="X187" s="12"/>
+    </row>
+    <row r="188" spans="3:24">
+      <c r="C188" s="9"/>
+      <c r="D188" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11"/>
+      <c r="G188" s="11"/>
+      <c r="H188" s="11"/>
+      <c r="I188" s="11"/>
+      <c r="J188" s="11"/>
+      <c r="K188" s="11"/>
+      <c r="L188" s="11"/>
+      <c r="M188" s="11"/>
+      <c r="N188" s="11"/>
+      <c r="O188" s="11"/>
+      <c r="P188" s="11"/>
+      <c r="Q188" s="11"/>
+      <c r="R188" s="11"/>
+      <c r="S188" s="11"/>
+      <c r="T188" s="11"/>
+      <c r="U188" s="11"/>
+      <c r="V188" s="11"/>
+      <c r="W188" s="11"/>
+      <c r="X188" s="12"/>
+    </row>
+    <row r="189" spans="3:24">
+      <c r="C189" s="9"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11"/>
+      <c r="F189" s="11"/>
+      <c r="G189" s="11"/>
+      <c r="H189" s="11"/>
+      <c r="I189" s="11"/>
+      <c r="J189" s="11"/>
+      <c r="K189" s="11"/>
+      <c r="L189" s="11"/>
+      <c r="M189" s="11"/>
+      <c r="N189" s="11"/>
+      <c r="O189" s="11"/>
+      <c r="P189" s="11"/>
+      <c r="Q189" s="11"/>
+      <c r="R189" s="11"/>
+      <c r="S189" s="11"/>
+      <c r="T189" s="11"/>
+      <c r="U189" s="11"/>
+      <c r="V189" s="11"/>
+      <c r="W189" s="11"/>
+      <c r="X189" s="12"/>
+    </row>
+    <row r="190" spans="3:24">
+      <c r="C190" s="9"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11"/>
+      <c r="F190" s="11"/>
+      <c r="G190" s="11"/>
+      <c r="H190" s="11"/>
+      <c r="I190" s="11"/>
+      <c r="J190" s="11"/>
+      <c r="K190" s="11"/>
+      <c r="L190" s="11"/>
+      <c r="M190" s="11"/>
+      <c r="N190" s="11"/>
+      <c r="O190" s="11"/>
+      <c r="P190" s="11"/>
+      <c r="Q190" s="11"/>
+      <c r="R190" s="11"/>
+      <c r="S190" s="11"/>
+      <c r="T190" s="11"/>
+      <c r="U190" s="11"/>
+      <c r="V190" s="11"/>
+      <c r="W190" s="11"/>
+      <c r="X190" s="12"/>
+    </row>
+    <row r="191" spans="3:24">
+      <c r="C191" s="9"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="11"/>
+      <c r="F191" s="11"/>
+      <c r="G191" s="11"/>
+      <c r="H191" s="11"/>
+      <c r="I191" s="11"/>
+      <c r="J191" s="11"/>
+      <c r="K191" s="11"/>
+      <c r="L191" s="11"/>
+      <c r="M191" s="11"/>
+      <c r="N191" s="11"/>
+      <c r="O191" s="11"/>
+      <c r="P191" s="11"/>
+      <c r="Q191" s="11"/>
+      <c r="R191" s="11"/>
+      <c r="S191" s="11"/>
+      <c r="T191" s="11"/>
+      <c r="U191" s="11"/>
+      <c r="V191" s="11"/>
+      <c r="W191" s="11"/>
+      <c r="X191" s="12"/>
+    </row>
+    <row r="192" spans="3:24">
+      <c r="C192" s="9"/>
+      <c r="D192" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E192" s="11"/>
+      <c r="F192" s="11"/>
+      <c r="G192" s="11"/>
+      <c r="H192" s="11"/>
+      <c r="I192" s="11"/>
+      <c r="J192" s="11"/>
+      <c r="K192" s="11"/>
+      <c r="L192" s="11"/>
+      <c r="M192" s="11"/>
+      <c r="N192" s="11"/>
+      <c r="O192" s="11"/>
+      <c r="P192" s="11"/>
+      <c r="Q192" s="11"/>
+      <c r="R192" s="11"/>
+      <c r="S192" s="11"/>
+      <c r="T192" s="11"/>
+      <c r="U192" s="11"/>
+      <c r="V192" s="11"/>
+      <c r="W192" s="11"/>
+      <c r="X192" s="12"/>
+    </row>
+    <row r="193" spans="3:24">
+      <c r="C193" s="9"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="11"/>
+      <c r="F193" s="11"/>
+      <c r="G193" s="11"/>
+      <c r="H193" s="11"/>
+      <c r="I193" s="11"/>
+      <c r="J193" s="11"/>
+      <c r="K193" s="11"/>
+      <c r="L193" s="11"/>
+      <c r="M193" s="11"/>
+      <c r="N193" s="11"/>
+      <c r="O193" s="11"/>
+      <c r="P193" s="11"/>
+      <c r="Q193" s="11"/>
+      <c r="R193" s="11"/>
+      <c r="S193" s="11"/>
+      <c r="T193" s="11"/>
+      <c r="U193" s="11"/>
+      <c r="V193" s="11"/>
+      <c r="W193" s="11"/>
+      <c r="X193" s="12"/>
+    </row>
+    <row r="194" spans="3:24">
+      <c r="C194" s="9"/>
+      <c r="D194" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E194" s="11"/>
+      <c r="F194" s="11"/>
+      <c r="G194" s="11"/>
+      <c r="H194" s="11"/>
+      <c r="I194" s="11"/>
+      <c r="J194" s="11"/>
+      <c r="K194" s="11"/>
+      <c r="L194" s="11"/>
+      <c r="M194" s="11"/>
+      <c r="N194" s="11"/>
+      <c r="O194" s="11"/>
+      <c r="P194" s="11"/>
+      <c r="Q194" s="11"/>
+      <c r="R194" s="11"/>
+      <c r="S194" s="11"/>
+      <c r="T194" s="11"/>
+      <c r="U194" s="11"/>
+      <c r="V194" s="11"/>
+      <c r="W194" s="11"/>
+      <c r="X194" s="12"/>
+    </row>
+    <row r="195" spans="3:24">
+      <c r="C195" s="9"/>
+      <c r="D195" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E195" s="11"/>
+      <c r="F195" s="11"/>
+      <c r="G195" s="11"/>
+      <c r="H195" s="11"/>
+      <c r="I195" s="11"/>
+      <c r="J195" s="11"/>
+      <c r="K195" s="11"/>
+      <c r="L195" s="11"/>
+      <c r="M195" s="11"/>
+      <c r="N195" s="11"/>
+      <c r="O195" s="11"/>
+      <c r="P195" s="11"/>
+      <c r="Q195" s="11"/>
+      <c r="R195" s="11"/>
+      <c r="S195" s="11"/>
+      <c r="T195" s="11"/>
+      <c r="U195" s="11"/>
+      <c r="V195" s="11"/>
+      <c r="W195" s="11"/>
+      <c r="X195" s="12"/>
+    </row>
+    <row r="196" spans="3:24">
+      <c r="C196" s="9"/>
+      <c r="D196" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E196" s="11"/>
+      <c r="F196" s="11"/>
+      <c r="G196" s="11"/>
+      <c r="H196" s="11"/>
+      <c r="I196" s="11"/>
+      <c r="J196" s="11"/>
+      <c r="K196" s="11"/>
+      <c r="L196" s="11"/>
+      <c r="M196" s="11"/>
+      <c r="N196" s="11"/>
+      <c r="O196" s="11"/>
+      <c r="P196" s="11"/>
+      <c r="Q196" s="11"/>
+      <c r="R196" s="11"/>
+      <c r="S196" s="11"/>
+      <c r="T196" s="11"/>
+      <c r="U196" s="11"/>
+      <c r="V196" s="11"/>
+      <c r="W196" s="11"/>
+      <c r="X196" s="12"/>
+    </row>
+    <row r="197" spans="3:24">
+      <c r="C197" s="9"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="11"/>
+      <c r="F197" s="11"/>
+      <c r="G197" s="11"/>
+      <c r="H197" s="11"/>
+      <c r="I197" s="11"/>
+      <c r="J197" s="11"/>
+      <c r="K197" s="11"/>
+      <c r="L197" s="11"/>
+      <c r="M197" s="11"/>
+      <c r="N197" s="11"/>
+      <c r="O197" s="11"/>
+      <c r="P197" s="11"/>
+      <c r="Q197" s="11"/>
+      <c r="R197" s="11"/>
+      <c r="S197" s="11"/>
+      <c r="T197" s="11"/>
+      <c r="U197" s="11"/>
+      <c r="V197" s="11"/>
+      <c r="W197" s="11"/>
+      <c r="X197" s="12"/>
+    </row>
+    <row r="198" spans="3:24">
+      <c r="C198" s="9"/>
+      <c r="D198" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E198" s="11"/>
+      <c r="F198" s="11"/>
+      <c r="G198" s="11"/>
+      <c r="H198" s="11"/>
+      <c r="I198" s="11"/>
+      <c r="J198" s="11"/>
+      <c r="K198" s="11"/>
+      <c r="L198" s="11"/>
+      <c r="M198" s="11"/>
+      <c r="N198" s="11"/>
+      <c r="O198" s="11"/>
+      <c r="P198" s="11"/>
+      <c r="Q198" s="11"/>
+      <c r="R198" s="11"/>
+      <c r="S198" s="11"/>
+      <c r="T198" s="11"/>
+      <c r="U198" s="11"/>
+      <c r="V198" s="11"/>
+      <c r="W198" s="11"/>
+      <c r="X198" s="12"/>
+    </row>
+    <row r="199" spans="3:24">
+      <c r="C199" s="9"/>
+      <c r="D199" s="11"/>
+      <c r="E199" s="11"/>
+      <c r="F199" s="11"/>
+      <c r="G199" s="11"/>
+      <c r="H199" s="11"/>
+      <c r="I199" s="11"/>
+      <c r="J199" s="11"/>
+      <c r="K199" s="11"/>
+      <c r="L199" s="11"/>
+      <c r="M199" s="11"/>
+      <c r="N199" s="11"/>
+      <c r="O199" s="11"/>
+      <c r="P199" s="11"/>
+      <c r="Q199" s="11"/>
+      <c r="R199" s="11"/>
+      <c r="S199" s="11"/>
+      <c r="T199" s="11"/>
+      <c r="U199" s="11"/>
+      <c r="V199" s="11"/>
+      <c r="W199" s="11"/>
+      <c r="X199" s="12"/>
+    </row>
+    <row r="200" spans="3:24">
+      <c r="C200" s="9"/>
+      <c r="D200" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E200" s="11"/>
+      <c r="F200" s="11"/>
+      <c r="G200" s="11"/>
+      <c r="H200" s="11"/>
+      <c r="I200" s="11"/>
+      <c r="J200" s="11"/>
+      <c r="K200" s="11"/>
+      <c r="L200" s="11"/>
+      <c r="M200" s="11"/>
+      <c r="N200" s="11"/>
+      <c r="O200" s="11"/>
+      <c r="P200" s="11"/>
+      <c r="Q200" s="11"/>
+      <c r="R200" s="11"/>
+      <c r="S200" s="11"/>
+      <c r="T200" s="11"/>
+      <c r="U200" s="11"/>
+      <c r="V200" s="11"/>
+      <c r="W200" s="11"/>
+      <c r="X200" s="12"/>
+    </row>
+    <row r="201" spans="3:24">
+      <c r="C201" s="9"/>
+      <c r="D201" s="11"/>
+      <c r="E201" s="11"/>
+      <c r="F201" s="11"/>
+      <c r="G201" s="11"/>
+      <c r="H201" s="11"/>
+      <c r="I201" s="11"/>
+      <c r="J201" s="11"/>
+      <c r="K201" s="11"/>
+      <c r="L201" s="11"/>
+      <c r="M201" s="11"/>
+      <c r="N201" s="11"/>
+      <c r="O201" s="11"/>
+      <c r="P201" s="11"/>
+      <c r="Q201" s="11"/>
+      <c r="R201" s="11"/>
+      <c r="S201" s="11"/>
+      <c r="T201" s="11"/>
+      <c r="U201" s="11"/>
+      <c r="V201" s="11"/>
+      <c r="W201" s="11"/>
+      <c r="X201" s="12"/>
+    </row>
+    <row r="202" spans="3:24">
+      <c r="C202" s="9"/>
+      <c r="D202" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E202" s="11"/>
+      <c r="F202" s="11"/>
+      <c r="G202" s="11"/>
+      <c r="H202" s="11"/>
+      <c r="I202" s="11"/>
+      <c r="J202" s="11"/>
+      <c r="K202" s="11"/>
+      <c r="L202" s="11"/>
+      <c r="M202" s="11"/>
+      <c r="N202" s="11"/>
+      <c r="O202" s="11"/>
+      <c r="P202" s="11"/>
+      <c r="Q202" s="11"/>
+      <c r="R202" s="11"/>
+      <c r="S202" s="11"/>
+      <c r="T202" s="11"/>
+      <c r="U202" s="11"/>
+      <c r="V202" s="11"/>
+      <c r="W202" s="11"/>
+      <c r="X202" s="12"/>
+    </row>
+    <row r="203" spans="3:24">
+      <c r="C203" s="9"/>
+      <c r="D203" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E203" s="11"/>
+      <c r="F203" s="11"/>
+      <c r="G203" s="11"/>
+      <c r="H203" s="11"/>
+      <c r="I203" s="11"/>
+      <c r="J203" s="11"/>
+      <c r="K203" s="11"/>
+      <c r="L203" s="11"/>
+      <c r="M203" s="11"/>
+      <c r="N203" s="11"/>
+      <c r="O203" s="11"/>
+      <c r="P203" s="11"/>
+      <c r="Q203" s="11"/>
+      <c r="R203" s="11"/>
+      <c r="S203" s="11"/>
+      <c r="T203" s="11"/>
+      <c r="U203" s="11"/>
+      <c r="V203" s="11"/>
+      <c r="W203" s="11"/>
+      <c r="X203" s="12"/>
+    </row>
+    <row r="204" spans="3:24">
+      <c r="C204" s="9"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="11"/>
+      <c r="F204" s="11"/>
+      <c r="G204" s="11"/>
+      <c r="H204" s="11"/>
+      <c r="I204" s="11"/>
+      <c r="J204" s="11"/>
+      <c r="K204" s="11"/>
+      <c r="L204" s="11"/>
+      <c r="M204" s="11"/>
+      <c r="N204" s="11"/>
+      <c r="O204" s="11"/>
+      <c r="P204" s="11"/>
+      <c r="Q204" s="11"/>
+      <c r="R204" s="11"/>
+      <c r="S204" s="11"/>
+      <c r="T204" s="11"/>
+      <c r="U204" s="11"/>
+      <c r="V204" s="11"/>
+      <c r="W204" s="11"/>
+      <c r="X204" s="12"/>
+    </row>
+    <row r="205" spans="3:24">
+      <c r="C205" s="9"/>
+      <c r="D205" s="11"/>
+      <c r="E205" s="11"/>
+      <c r="F205" s="11"/>
+      <c r="G205" s="11"/>
+      <c r="H205" s="11"/>
+      <c r="I205" s="11"/>
+      <c r="J205" s="11"/>
+      <c r="K205" s="11"/>
+      <c r="L205" s="11"/>
+      <c r="M205" s="11"/>
+      <c r="N205" s="11"/>
+      <c r="O205" s="11"/>
+      <c r="P205" s="11"/>
+      <c r="Q205" s="11"/>
+      <c r="R205" s="11"/>
+      <c r="S205" s="11"/>
+      <c r="T205" s="11"/>
+      <c r="U205" s="11"/>
+      <c r="V205" s="11"/>
+      <c r="W205" s="11"/>
+      <c r="X205" s="12"/>
+    </row>
+    <row r="206" spans="3:24">
+      <c r="C206" s="9"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="11"/>
+      <c r="F206" s="11"/>
+      <c r="G206" s="11"/>
+      <c r="H206" s="11"/>
+      <c r="I206" s="11"/>
+      <c r="J206" s="11"/>
+      <c r="K206" s="11"/>
+      <c r="L206" s="11"/>
+      <c r="M206" s="11"/>
+      <c r="N206" s="11"/>
+      <c r="O206" s="11"/>
+      <c r="P206" s="11"/>
+      <c r="Q206" s="11"/>
+      <c r="R206" s="11"/>
+      <c r="S206" s="11"/>
+      <c r="T206" s="11"/>
+      <c r="U206" s="11"/>
+      <c r="V206" s="11"/>
+      <c r="W206" s="11"/>
+      <c r="X206" s="12"/>
+    </row>
+    <row r="207" spans="3:24">
+      <c r="C207" s="9"/>
+      <c r="D207" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E207" s="11"/>
+      <c r="F207" s="11"/>
+      <c r="G207" s="11"/>
+      <c r="H207" s="11"/>
+      <c r="I207" s="11"/>
+      <c r="J207" s="11"/>
+      <c r="K207" s="11"/>
+      <c r="L207" s="11"/>
+      <c r="M207" s="11"/>
+      <c r="N207" s="11"/>
+      <c r="O207" s="11"/>
+      <c r="P207" s="11"/>
+      <c r="Q207" s="11"/>
+      <c r="R207" s="11"/>
+      <c r="S207" s="11"/>
+      <c r="T207" s="11"/>
+      <c r="U207" s="11"/>
+      <c r="V207" s="11"/>
+      <c r="W207" s="11"/>
+      <c r="X207" s="12"/>
+    </row>
+    <row r="208" spans="3:24">
+      <c r="C208" s="9"/>
+      <c r="D208" s="11"/>
+      <c r="E208" s="11"/>
+      <c r="F208" s="11"/>
+      <c r="G208" s="11"/>
+      <c r="H208" s="11"/>
+      <c r="I208" s="11"/>
+      <c r="J208" s="11"/>
+      <c r="K208" s="11"/>
+      <c r="L208" s="11"/>
+      <c r="M208" s="11"/>
+      <c r="N208" s="11"/>
+      <c r="O208" s="11"/>
+      <c r="P208" s="11"/>
+      <c r="Q208" s="11"/>
+      <c r="R208" s="11"/>
+      <c r="S208" s="11"/>
+      <c r="T208" s="11"/>
+      <c r="U208" s="11"/>
+      <c r="V208" s="11"/>
+      <c r="W208" s="11"/>
+      <c r="X208" s="12"/>
+    </row>
+    <row r="209" spans="3:24">
+      <c r="C209" s="9"/>
+      <c r="D209" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E209" s="11"/>
+      <c r="F209" s="11"/>
+      <c r="G209" s="11"/>
+      <c r="H209" s="11"/>
+      <c r="I209" s="11"/>
+      <c r="J209" s="11"/>
+      <c r="K209" s="11"/>
+      <c r="L209" s="11"/>
+      <c r="M209" s="11"/>
+      <c r="N209" s="11"/>
+      <c r="O209" s="11"/>
+      <c r="P209" s="11"/>
+      <c r="Q209" s="11"/>
+      <c r="R209" s="11"/>
+      <c r="S209" s="11"/>
+      <c r="T209" s="11"/>
+      <c r="U209" s="11"/>
+      <c r="V209" s="11"/>
+      <c r="W209" s="11"/>
+      <c r="X209" s="12"/>
+    </row>
+    <row r="210" spans="3:24">
+      <c r="C210" s="9"/>
+      <c r="D210" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E210" s="11"/>
+      <c r="F210" s="11"/>
+      <c r="G210" s="11"/>
+      <c r="H210" s="11"/>
+      <c r="I210" s="11"/>
+      <c r="J210" s="11"/>
+      <c r="K210" s="11"/>
+      <c r="L210" s="11"/>
+      <c r="M210" s="11"/>
+      <c r="N210" s="11"/>
+      <c r="O210" s="11"/>
+      <c r="P210" s="11"/>
+      <c r="Q210" s="11"/>
+      <c r="R210" s="11"/>
+      <c r="S210" s="11"/>
+      <c r="T210" s="11"/>
+      <c r="U210" s="11"/>
+      <c r="V210" s="11"/>
+      <c r="W210" s="11"/>
+      <c r="X210" s="12"/>
+    </row>
+    <row r="211" spans="3:24">
+      <c r="C211" s="9"/>
+      <c r="D211" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E211" s="11"/>
+      <c r="F211" s="11"/>
+      <c r="G211" s="11"/>
+      <c r="H211" s="11"/>
+      <c r="I211" s="11"/>
+      <c r="J211" s="11"/>
+      <c r="K211" s="11"/>
+      <c r="L211" s="11"/>
+      <c r="M211" s="11"/>
+      <c r="N211" s="11"/>
+      <c r="O211" s="11"/>
+      <c r="P211" s="11"/>
+      <c r="Q211" s="11"/>
+      <c r="R211" s="11"/>
+      <c r="S211" s="11"/>
+      <c r="T211" s="11"/>
+      <c r="U211" s="11"/>
+      <c r="V211" s="11"/>
+      <c r="W211" s="11"/>
+      <c r="X211" s="12"/>
+    </row>
+    <row r="212" spans="3:24">
+      <c r="C212" s="9"/>
+      <c r="D212" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E212" s="11"/>
+      <c r="F212" s="11"/>
+      <c r="G212" s="11"/>
+      <c r="H212" s="11"/>
+      <c r="I212" s="11"/>
+      <c r="J212" s="11"/>
+      <c r="K212" s="11"/>
+      <c r="L212" s="11"/>
+      <c r="M212" s="11"/>
+      <c r="N212" s="11"/>
+      <c r="O212" s="11"/>
+      <c r="P212" s="11"/>
+      <c r="Q212" s="11"/>
+      <c r="R212" s="11"/>
+      <c r="S212" s="11"/>
+      <c r="T212" s="11"/>
+      <c r="U212" s="11"/>
+      <c r="V212" s="11"/>
+      <c r="W212" s="11"/>
+      <c r="X212" s="12"/>
+    </row>
+    <row r="213" spans="3:24">
+      <c r="C213" s="9"/>
+      <c r="D213" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E213" s="11"/>
+      <c r="F213" s="11"/>
+      <c r="G213" s="11"/>
+      <c r="H213" s="11"/>
+      <c r="I213" s="11"/>
+      <c r="J213" s="11"/>
+      <c r="K213" s="11"/>
+      <c r="L213" s="11"/>
+      <c r="M213" s="11"/>
+      <c r="N213" s="11"/>
+      <c r="O213" s="11"/>
+      <c r="P213" s="11"/>
+      <c r="Q213" s="11"/>
+      <c r="R213" s="11"/>
+      <c r="S213" s="11"/>
+      <c r="T213" s="11"/>
+      <c r="U213" s="11"/>
+      <c r="V213" s="11"/>
+      <c r="W213" s="11"/>
+      <c r="X213" s="12"/>
+    </row>
+    <row r="214" spans="3:24">
+      <c r="C214" s="9"/>
+      <c r="D214" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E214" s="11"/>
+      <c r="F214" s="11"/>
+      <c r="G214" s="11"/>
+      <c r="H214" s="11"/>
+      <c r="I214" s="11"/>
+      <c r="J214" s="11"/>
+      <c r="K214" s="11"/>
+      <c r="L214" s="11"/>
+      <c r="M214" s="11"/>
+      <c r="N214" s="11"/>
+      <c r="O214" s="11"/>
+      <c r="P214" s="11"/>
+      <c r="Q214" s="11"/>
+      <c r="R214" s="11"/>
+      <c r="S214" s="11"/>
+      <c r="T214" s="11"/>
+      <c r="U214" s="11"/>
+      <c r="V214" s="11"/>
+      <c r="W214" s="11"/>
+      <c r="X214" s="12"/>
+    </row>
+    <row r="215" spans="3:24">
+      <c r="C215" s="9"/>
+      <c r="D215" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E215" s="11"/>
+      <c r="F215" s="11"/>
+      <c r="G215" s="11"/>
+      <c r="H215" s="11"/>
+      <c r="I215" s="11"/>
+      <c r="J215" s="11"/>
+      <c r="K215" s="11"/>
+      <c r="L215" s="11"/>
+      <c r="M215" s="11"/>
+      <c r="N215" s="11"/>
+      <c r="O215" s="11"/>
+      <c r="P215" s="11"/>
+      <c r="Q215" s="11"/>
+      <c r="R215" s="11"/>
+      <c r="S215" s="11"/>
+      <c r="T215" s="11"/>
+      <c r="U215" s="11"/>
+      <c r="V215" s="11"/>
+      <c r="W215" s="11"/>
+      <c r="X215" s="12"/>
+    </row>
+    <row r="216" spans="3:24">
+      <c r="C216" s="9"/>
+      <c r="D216" s="11"/>
+      <c r="E216" s="11"/>
+      <c r="F216" s="11"/>
+      <c r="G216" s="11"/>
+      <c r="H216" s="11"/>
+      <c r="I216" s="11"/>
+      <c r="J216" s="11"/>
+      <c r="K216" s="11"/>
+      <c r="L216" s="11"/>
+      <c r="M216" s="11"/>
+      <c r="N216" s="11"/>
+      <c r="O216" s="11"/>
+      <c r="P216" s="11"/>
+      <c r="Q216" s="11"/>
+      <c r="R216" s="11"/>
+      <c r="S216" s="11"/>
+      <c r="T216" s="11"/>
+      <c r="U216" s="11"/>
+      <c r="V216" s="11"/>
+      <c r="W216" s="11"/>
+      <c r="X216" s="12"/>
+    </row>
+    <row r="217" spans="3:24">
+      <c r="C217" s="9"/>
+      <c r="D217" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E217" s="11"/>
+      <c r="F217" s="11"/>
+      <c r="G217" s="11"/>
+      <c r="H217" s="11"/>
+      <c r="I217" s="11"/>
+      <c r="J217" s="11"/>
+      <c r="K217" s="11"/>
+      <c r="L217" s="11"/>
+      <c r="M217" s="11"/>
+      <c r="N217" s="11"/>
+      <c r="O217" s="11"/>
+      <c r="P217" s="11"/>
+      <c r="Q217" s="11"/>
+      <c r="R217" s="11"/>
+      <c r="S217" s="11"/>
+      <c r="T217" s="11"/>
+      <c r="U217" s="11"/>
+      <c r="V217" s="11"/>
+      <c r="W217" s="11"/>
+      <c r="X217" s="12"/>
+    </row>
+    <row r="218" spans="3:24">
+      <c r="C218" s="9"/>
+      <c r="D218" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E218" s="11"/>
+      <c r="F218" s="11"/>
+      <c r="G218" s="11"/>
+      <c r="H218" s="11"/>
+      <c r="I218" s="11"/>
+      <c r="J218" s="11"/>
+      <c r="K218" s="11"/>
+      <c r="L218" s="11"/>
+      <c r="M218" s="11"/>
+      <c r="N218" s="11"/>
+      <c r="O218" s="11"/>
+      <c r="P218" s="11"/>
+      <c r="Q218" s="11"/>
+      <c r="R218" s="11"/>
+      <c r="S218" s="11"/>
+      <c r="T218" s="11"/>
+      <c r="U218" s="11"/>
+      <c r="V218" s="11"/>
+      <c r="W218" s="11"/>
+      <c r="X218" s="12"/>
+    </row>
+    <row r="219" spans="3:24">
+      <c r="C219" s="9"/>
+      <c r="D219" s="11"/>
+      <c r="E219" s="11"/>
+      <c r="F219" s="11"/>
+      <c r="G219" s="11"/>
+      <c r="H219" s="11"/>
+      <c r="I219" s="11"/>
+      <c r="J219" s="11"/>
+      <c r="K219" s="11"/>
+      <c r="L219" s="11"/>
+      <c r="M219" s="11"/>
+      <c r="N219" s="11"/>
+      <c r="O219" s="11"/>
+      <c r="P219" s="11"/>
+      <c r="Q219" s="11"/>
+      <c r="R219" s="11"/>
+      <c r="S219" s="11"/>
+      <c r="T219" s="11"/>
+      <c r="U219" s="11"/>
+      <c r="V219" s="11"/>
+      <c r="W219" s="11"/>
+      <c r="X219" s="12"/>
+    </row>
+    <row r="220" spans="3:24">
+      <c r="C220" s="9"/>
+      <c r="D220" s="11"/>
+      <c r="E220" s="11"/>
+      <c r="F220" s="11"/>
+      <c r="G220" s="11"/>
+      <c r="H220" s="11"/>
+      <c r="I220" s="11"/>
+      <c r="J220" s="11"/>
+      <c r="K220" s="11"/>
+      <c r="L220" s="11"/>
+      <c r="M220" s="11"/>
+      <c r="N220" s="11"/>
+      <c r="O220" s="11"/>
+      <c r="P220" s="11"/>
+      <c r="Q220" s="11"/>
+      <c r="R220" s="11"/>
+      <c r="S220" s="11"/>
+      <c r="T220" s="11"/>
+      <c r="U220" s="11"/>
+      <c r="V220" s="11"/>
+      <c r="W220" s="11"/>
+      <c r="X220" s="12"/>
+    </row>
+    <row r="221" spans="3:24">
+      <c r="C221" s="9"/>
+      <c r="D221" s="11"/>
+      <c r="E221" s="11"/>
+      <c r="F221" s="11"/>
+      <c r="G221" s="11"/>
+      <c r="H221" s="11"/>
+      <c r="I221" s="11"/>
+      <c r="J221" s="11"/>
+      <c r="K221" s="11"/>
+      <c r="L221" s="11"/>
+      <c r="M221" s="11"/>
+      <c r="N221" s="11"/>
+      <c r="O221" s="11"/>
+      <c r="P221" s="11"/>
+      <c r="Q221" s="11"/>
+      <c r="R221" s="11"/>
+      <c r="S221" s="11"/>
+      <c r="T221" s="11"/>
+      <c r="U221" s="11"/>
+      <c r="V221" s="11"/>
+      <c r="W221" s="11"/>
+      <c r="X221" s="12"/>
+    </row>
+    <row r="222" spans="3:24">
+      <c r="C222" s="9"/>
+      <c r="D222" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E222" s="11"/>
+      <c r="F222" s="11"/>
+      <c r="G222" s="11"/>
+      <c r="H222" s="11"/>
+      <c r="I222" s="11"/>
+      <c r="J222" s="11"/>
+      <c r="K222" s="11"/>
+      <c r="L222" s="11"/>
+      <c r="M222" s="11"/>
+      <c r="N222" s="11"/>
+      <c r="O222" s="11"/>
+      <c r="P222" s="11"/>
+      <c r="Q222" s="11"/>
+      <c r="R222" s="11"/>
+      <c r="S222" s="11"/>
+      <c r="T222" s="11"/>
+      <c r="U222" s="11"/>
+      <c r="V222" s="11"/>
+      <c r="W222" s="11"/>
+      <c r="X222" s="12"/>
+    </row>
+    <row r="223" spans="3:24">
+      <c r="C223" s="9"/>
+      <c r="D223" s="11"/>
+      <c r="E223" s="11"/>
+      <c r="F223" s="11"/>
+      <c r="G223" s="11"/>
+      <c r="H223" s="11"/>
+      <c r="I223" s="11"/>
+      <c r="J223" s="11"/>
+      <c r="K223" s="11"/>
+      <c r="L223" s="11"/>
+      <c r="M223" s="11"/>
+      <c r="N223" s="11"/>
+      <c r="O223" s="11"/>
+      <c r="P223" s="11"/>
+      <c r="Q223" s="11"/>
+      <c r="R223" s="11"/>
+      <c r="S223" s="11"/>
+      <c r="T223" s="11"/>
+      <c r="U223" s="11"/>
+      <c r="V223" s="11"/>
+      <c r="W223" s="11"/>
+      <c r="X223" s="12"/>
+    </row>
+    <row r="224" spans="3:24">
+      <c r="C224" s="9"/>
+      <c r="D224" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E224" s="11"/>
+      <c r="F224" s="11"/>
+      <c r="G224" s="11"/>
+      <c r="H224" s="11"/>
+      <c r="I224" s="11"/>
+      <c r="J224" s="11"/>
+      <c r="K224" s="11"/>
+      <c r="L224" s="11"/>
+      <c r="M224" s="11"/>
+      <c r="N224" s="11"/>
+      <c r="O224" s="11"/>
+      <c r="P224" s="11"/>
+      <c r="Q224" s="11"/>
+      <c r="R224" s="11"/>
+      <c r="S224" s="11"/>
+      <c r="T224" s="11"/>
+      <c r="U224" s="11"/>
+      <c r="V224" s="11"/>
+      <c r="W224" s="11"/>
+      <c r="X224" s="12"/>
+    </row>
+    <row r="225" spans="3:24">
+      <c r="C225" s="9"/>
+      <c r="D225" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E225" s="11"/>
+      <c r="F225" s="11"/>
+      <c r="G225" s="11"/>
+      <c r="H225" s="11"/>
+      <c r="I225" s="11"/>
+      <c r="J225" s="11"/>
+      <c r="K225" s="11"/>
+      <c r="L225" s="11"/>
+      <c r="M225" s="11"/>
+      <c r="N225" s="11"/>
+      <c r="O225" s="11"/>
+      <c r="P225" s="11"/>
+      <c r="Q225" s="11"/>
+      <c r="R225" s="11"/>
+      <c r="S225" s="11"/>
+      <c r="T225" s="11"/>
+      <c r="U225" s="11"/>
+      <c r="V225" s="11"/>
+      <c r="W225" s="11"/>
+      <c r="X225" s="12"/>
+    </row>
+    <row r="226" spans="3:24">
+      <c r="C226" s="9"/>
+      <c r="D226" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E226" s="11"/>
+      <c r="F226" s="11"/>
+      <c r="G226" s="11"/>
+      <c r="H226" s="11"/>
+      <c r="I226" s="11"/>
+      <c r="J226" s="11"/>
+      <c r="K226" s="11"/>
+      <c r="L226" s="11"/>
+      <c r="M226" s="11"/>
+      <c r="N226" s="11"/>
+      <c r="O226" s="11"/>
+      <c r="P226" s="11"/>
+      <c r="Q226" s="11"/>
+      <c r="R226" s="11"/>
+      <c r="S226" s="11"/>
+      <c r="T226" s="11"/>
+      <c r="U226" s="11"/>
+      <c r="V226" s="11"/>
+      <c r="W226" s="11"/>
+      <c r="X226" s="12"/>
+    </row>
+    <row r="227" spans="3:24">
+      <c r="C227" s="9"/>
+      <c r="D227" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E227" s="11"/>
+      <c r="F227" s="11"/>
+      <c r="G227" s="11"/>
+      <c r="H227" s="11"/>
+      <c r="I227" s="11"/>
+      <c r="J227" s="11"/>
+      <c r="K227" s="11"/>
+      <c r="L227" s="11"/>
+      <c r="M227" s="11"/>
+      <c r="N227" s="11"/>
+      <c r="O227" s="11"/>
+      <c r="P227" s="11"/>
+      <c r="Q227" s="11"/>
+      <c r="R227" s="11"/>
+      <c r="S227" s="11"/>
+      <c r="T227" s="11"/>
+      <c r="U227" s="11"/>
+      <c r="V227" s="11"/>
+      <c r="W227" s="11"/>
+      <c r="X227" s="12"/>
+    </row>
+    <row r="228" spans="3:24">
+      <c r="C228" s="9"/>
+      <c r="D228" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E228" s="11"/>
+      <c r="F228" s="11"/>
+      <c r="G228" s="11"/>
+      <c r="H228" s="11"/>
+      <c r="I228" s="11"/>
+      <c r="J228" s="11"/>
+      <c r="K228" s="11"/>
+      <c r="L228" s="11"/>
+      <c r="M228" s="11"/>
+      <c r="N228" s="11"/>
+      <c r="O228" s="11"/>
+      <c r="P228" s="11"/>
+      <c r="Q228" s="11"/>
+      <c r="R228" s="11"/>
+      <c r="S228" s="11"/>
+      <c r="T228" s="11"/>
+      <c r="U228" s="11"/>
+      <c r="V228" s="11"/>
+      <c r="W228" s="11"/>
+      <c r="X228" s="12"/>
+    </row>
+    <row r="229" spans="3:24">
+      <c r="C229" s="9"/>
+      <c r="D229" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E229" s="11"/>
+      <c r="F229" s="11"/>
+      <c r="G229" s="11"/>
+      <c r="H229" s="11"/>
+      <c r="I229" s="11"/>
+      <c r="J229" s="11"/>
+      <c r="K229" s="11"/>
+      <c r="L229" s="11"/>
+      <c r="M229" s="11"/>
+      <c r="N229" s="11"/>
+      <c r="O229" s="11"/>
+      <c r="P229" s="11"/>
+      <c r="Q229" s="11"/>
+      <c r="R229" s="11"/>
+      <c r="S229" s="11"/>
+      <c r="T229" s="11"/>
+      <c r="U229" s="11"/>
+      <c r="V229" s="11"/>
+      <c r="W229" s="11"/>
+      <c r="X229" s="12"/>
+    </row>
+    <row r="230" spans="3:24">
+      <c r="C230" s="9"/>
+      <c r="D230" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E230" s="11"/>
+      <c r="F230" s="11"/>
+      <c r="G230" s="11"/>
+      <c r="H230" s="11"/>
+      <c r="I230" s="11"/>
+      <c r="J230" s="11"/>
+      <c r="K230" s="11"/>
+      <c r="L230" s="11"/>
+      <c r="M230" s="11"/>
+      <c r="N230" s="11"/>
+      <c r="O230" s="11"/>
+      <c r="P230" s="11"/>
+      <c r="Q230" s="11"/>
+      <c r="R230" s="11"/>
+      <c r="S230" s="11"/>
+      <c r="T230" s="11"/>
+      <c r="U230" s="11"/>
+      <c r="V230" s="11"/>
+      <c r="W230" s="11"/>
+      <c r="X230" s="12"/>
+    </row>
+    <row r="231" spans="3:24">
+      <c r="C231" s="9"/>
+      <c r="D231" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E231" s="11"/>
+      <c r="F231" s="11"/>
+      <c r="G231" s="11"/>
+      <c r="H231" s="11"/>
+      <c r="I231" s="11"/>
+      <c r="J231" s="11"/>
+      <c r="K231" s="11"/>
+      <c r="L231" s="11"/>
+      <c r="M231" s="11"/>
+      <c r="N231" s="11"/>
+      <c r="O231" s="11"/>
+      <c r="P231" s="11"/>
+      <c r="Q231" s="11"/>
+      <c r="R231" s="11"/>
+      <c r="S231" s="11"/>
+      <c r="T231" s="11"/>
+      <c r="U231" s="11"/>
+      <c r="V231" s="11"/>
+      <c r="W231" s="11"/>
+      <c r="X231" s="12"/>
+    </row>
+    <row r="232" spans="3:24">
+      <c r="C232" s="9"/>
+      <c r="D232" s="11"/>
+      <c r="E232" s="11"/>
+      <c r="F232" s="11"/>
+      <c r="G232" s="11"/>
+      <c r="H232" s="11"/>
+      <c r="I232" s="11"/>
+      <c r="J232" s="11"/>
+      <c r="K232" s="11"/>
+      <c r="L232" s="11"/>
+      <c r="M232" s="11"/>
+      <c r="N232" s="11"/>
+      <c r="O232" s="11"/>
+      <c r="P232" s="11"/>
+      <c r="Q232" s="11"/>
+      <c r="R232" s="11"/>
+      <c r="S232" s="11"/>
+      <c r="T232" s="11"/>
+      <c r="U232" s="11"/>
+      <c r="V232" s="11"/>
+      <c r="W232" s="11"/>
+      <c r="X232" s="12"/>
+    </row>
+    <row r="233" spans="3:24">
+      <c r="C233" s="9"/>
+      <c r="D233" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E233" s="11"/>
+      <c r="F233" s="11"/>
+      <c r="G233" s="11"/>
+      <c r="H233" s="11"/>
+      <c r="I233" s="11"/>
+      <c r="J233" s="11"/>
+      <c r="K233" s="11"/>
+      <c r="L233" s="11"/>
+      <c r="M233" s="11"/>
+      <c r="N233" s="11"/>
+      <c r="O233" s="11"/>
+      <c r="P233" s="11"/>
+      <c r="Q233" s="11"/>
+      <c r="R233" s="11"/>
+      <c r="S233" s="11"/>
+      <c r="T233" s="11"/>
+      <c r="U233" s="11"/>
+      <c r="V233" s="11"/>
+      <c r="W233" s="11"/>
+      <c r="X233" s="12"/>
+    </row>
+    <row r="234" spans="3:24">
+      <c r="C234" s="9"/>
+      <c r="D234" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E234" s="11"/>
+      <c r="F234" s="11"/>
+      <c r="G234" s="11"/>
+      <c r="H234" s="11"/>
+      <c r="I234" s="11"/>
+      <c r="J234" s="11"/>
+      <c r="K234" s="11"/>
+      <c r="L234" s="11"/>
+      <c r="M234" s="11"/>
+      <c r="N234" s="11"/>
+      <c r="O234" s="11"/>
+      <c r="P234" s="11"/>
+      <c r="Q234" s="11"/>
+      <c r="R234" s="11"/>
+      <c r="S234" s="11"/>
+      <c r="T234" s="11"/>
+      <c r="U234" s="11"/>
+      <c r="V234" s="11"/>
+      <c r="W234" s="11"/>
+      <c r="X234" s="12"/>
+    </row>
+    <row r="235" spans="3:24">
+      <c r="C235" s="9"/>
+      <c r="D235" s="11"/>
+      <c r="E235" s="11"/>
+      <c r="F235" s="11"/>
+      <c r="G235" s="11"/>
+      <c r="H235" s="11"/>
+      <c r="I235" s="11"/>
+      <c r="J235" s="11"/>
+      <c r="K235" s="11"/>
+      <c r="L235" s="11"/>
+      <c r="M235" s="11"/>
+      <c r="N235" s="11"/>
+      <c r="O235" s="11"/>
+      <c r="P235" s="11"/>
+      <c r="Q235" s="11"/>
+      <c r="R235" s="11"/>
+      <c r="S235" s="11"/>
+      <c r="T235" s="11"/>
+      <c r="U235" s="11"/>
+      <c r="V235" s="11"/>
+      <c r="W235" s="11"/>
+      <c r="X235" s="12"/>
+    </row>
+    <row r="236" spans="3:24">
+      <c r="C236" s="9"/>
+      <c r="D236" s="11"/>
+      <c r="E236" s="11"/>
+      <c r="F236" s="11"/>
+      <c r="G236" s="11"/>
+      <c r="H236" s="11"/>
+      <c r="I236" s="11"/>
+      <c r="J236" s="11"/>
+      <c r="K236" s="11"/>
+      <c r="L236" s="11"/>
+      <c r="M236" s="11"/>
+      <c r="N236" s="11"/>
+      <c r="O236" s="11"/>
+      <c r="P236" s="11"/>
+      <c r="Q236" s="11"/>
+      <c r="R236" s="11"/>
+      <c r="S236" s="11"/>
+      <c r="T236" s="11"/>
+      <c r="U236" s="11"/>
+      <c r="V236" s="11"/>
+      <c r="W236" s="11"/>
+      <c r="X236" s="12"/>
+    </row>
+    <row r="237" spans="3:24">
+      <c r="C237" s="9"/>
+      <c r="D237" s="11"/>
+      <c r="E237" s="11"/>
+      <c r="F237" s="11"/>
+      <c r="G237" s="11"/>
+      <c r="H237" s="11"/>
+      <c r="I237" s="11"/>
+      <c r="J237" s="11"/>
+      <c r="K237" s="11"/>
+      <c r="L237" s="11"/>
+      <c r="M237" s="11"/>
+      <c r="N237" s="11"/>
+      <c r="O237" s="11"/>
+      <c r="P237" s="11"/>
+      <c r="Q237" s="11"/>
+      <c r="R237" s="11"/>
+      <c r="S237" s="11"/>
+      <c r="T237" s="11"/>
+      <c r="U237" s="11"/>
+      <c r="V237" s="11"/>
+      <c r="W237" s="11"/>
+      <c r="X237" s="12"/>
+    </row>
+    <row r="238" spans="3:24">
+      <c r="C238" s="9"/>
+      <c r="D238" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E238" s="11"/>
+      <c r="F238" s="11"/>
+      <c r="G238" s="11"/>
+      <c r="H238" s="11"/>
+      <c r="I238" s="11"/>
+      <c r="J238" s="11"/>
+      <c r="K238" s="11"/>
+      <c r="L238" s="11"/>
+      <c r="M238" s="11"/>
+      <c r="N238" s="11"/>
+      <c r="O238" s="11"/>
+      <c r="P238" s="11"/>
+      <c r="Q238" s="11"/>
+      <c r="R238" s="11"/>
+      <c r="S238" s="11"/>
+      <c r="T238" s="11"/>
+      <c r="U238" s="11"/>
+      <c r="V238" s="11"/>
+      <c r="W238" s="11"/>
+      <c r="X238" s="12"/>
+    </row>
+    <row r="239" spans="3:24">
+      <c r="C239" s="9"/>
+      <c r="D239" s="11"/>
+      <c r="E239" s="11"/>
+      <c r="F239" s="11"/>
+      <c r="G239" s="11"/>
+      <c r="H239" s="11"/>
+      <c r="I239" s="11"/>
+      <c r="J239" s="11"/>
+      <c r="K239" s="11"/>
+      <c r="L239" s="11"/>
+      <c r="M239" s="11"/>
+      <c r="N239" s="11"/>
+      <c r="O239" s="11"/>
+      <c r="P239" s="11"/>
+      <c r="Q239" s="11"/>
+      <c r="R239" s="11"/>
+      <c r="S239" s="11"/>
+      <c r="T239" s="11"/>
+      <c r="U239" s="11"/>
+      <c r="V239" s="11"/>
+      <c r="W239" s="11"/>
+      <c r="X239" s="12"/>
+    </row>
+    <row r="240" spans="3:24">
+      <c r="C240" s="9"/>
+      <c r="D240" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E240" s="11"/>
+      <c r="F240" s="11"/>
+      <c r="G240" s="11"/>
+      <c r="H240" s="11"/>
+      <c r="I240" s="11"/>
+      <c r="J240" s="11"/>
+      <c r="K240" s="11"/>
+      <c r="L240" s="11"/>
+      <c r="M240" s="11"/>
+      <c r="N240" s="11"/>
+      <c r="O240" s="11"/>
+      <c r="P240" s="11"/>
+      <c r="Q240" s="11"/>
+      <c r="R240" s="11"/>
+      <c r="S240" s="11"/>
+      <c r="T240" s="11"/>
+      <c r="U240" s="11"/>
+      <c r="V240" s="11"/>
+      <c r="W240" s="11"/>
+      <c r="X240" s="12"/>
+    </row>
+    <row r="241" spans="3:24">
+      <c r="C241" s="9"/>
+      <c r="D241" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E241" s="11"/>
+      <c r="F241" s="11"/>
+      <c r="G241" s="11"/>
+      <c r="H241" s="11"/>
+      <c r="I241" s="11"/>
+      <c r="J241" s="11"/>
+      <c r="K241" s="11"/>
+      <c r="L241" s="11"/>
+      <c r="M241" s="11"/>
+      <c r="N241" s="11"/>
+      <c r="O241" s="11"/>
+      <c r="P241" s="11"/>
+      <c r="Q241" s="11"/>
+      <c r="R241" s="11"/>
+      <c r="S241" s="11"/>
+      <c r="T241" s="11"/>
+      <c r="U241" s="11"/>
+      <c r="V241" s="11"/>
+      <c r="W241" s="11"/>
+      <c r="X241" s="12"/>
+    </row>
+    <row r="242" spans="3:24">
+      <c r="C242" s="9"/>
+      <c r="D242" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E242" s="11"/>
+      <c r="F242" s="11"/>
+      <c r="G242" s="11"/>
+      <c r="H242" s="11"/>
+      <c r="I242" s="11"/>
+      <c r="J242" s="11"/>
+      <c r="K242" s="11"/>
+      <c r="L242" s="11"/>
+      <c r="M242" s="11"/>
+      <c r="N242" s="11"/>
+      <c r="O242" s="11"/>
+      <c r="P242" s="11"/>
+      <c r="Q242" s="11"/>
+      <c r="R242" s="11"/>
+      <c r="S242" s="11"/>
+      <c r="T242" s="11"/>
+      <c r="U242" s="11"/>
+      <c r="V242" s="11"/>
+      <c r="W242" s="11"/>
+      <c r="X242" s="12"/>
+    </row>
+    <row r="243" spans="3:24">
+      <c r="C243" s="9"/>
+      <c r="D243" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E243" s="11"/>
+      <c r="F243" s="11"/>
+      <c r="G243" s="11"/>
+      <c r="H243" s="11"/>
+      <c r="I243" s="11"/>
+      <c r="J243" s="11"/>
+      <c r="K243" s="11"/>
+      <c r="L243" s="11"/>
+      <c r="M243" s="11"/>
+      <c r="N243" s="11"/>
+      <c r="O243" s="11"/>
+      <c r="P243" s="11"/>
+      <c r="Q243" s="11"/>
+      <c r="R243" s="11"/>
+      <c r="S243" s="11"/>
+      <c r="T243" s="11"/>
+      <c r="U243" s="11"/>
+      <c r="V243" s="11"/>
+      <c r="W243" s="11"/>
+      <c r="X243" s="12"/>
+    </row>
+    <row r="244" spans="3:24">
+      <c r="C244" s="9"/>
+      <c r="D244" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E244" s="11"/>
+      <c r="F244" s="11"/>
+      <c r="G244" s="11"/>
+      <c r="H244" s="11"/>
+      <c r="I244" s="11"/>
+      <c r="J244" s="11"/>
+      <c r="K244" s="11"/>
+      <c r="L244" s="11"/>
+      <c r="M244" s="11"/>
+      <c r="N244" s="11"/>
+      <c r="O244" s="11"/>
+      <c r="P244" s="11"/>
+      <c r="Q244" s="11"/>
+      <c r="R244" s="11"/>
+      <c r="S244" s="11"/>
+      <c r="T244" s="11"/>
+      <c r="U244" s="11"/>
+      <c r="V244" s="11"/>
+      <c r="W244" s="11"/>
+      <c r="X244" s="12"/>
+    </row>
+    <row r="245" spans="3:24">
+      <c r="C245" s="9"/>
+      <c r="D245" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E245" s="11"/>
+      <c r="F245" s="11"/>
+      <c r="G245" s="11"/>
+      <c r="H245" s="11"/>
+      <c r="I245" s="11"/>
+      <c r="J245" s="11"/>
+      <c r="K245" s="11"/>
+      <c r="L245" s="11"/>
+      <c r="M245" s="11"/>
+      <c r="N245" s="11"/>
+      <c r="O245" s="11"/>
+      <c r="P245" s="11"/>
+      <c r="Q245" s="11"/>
+      <c r="R245" s="11"/>
+      <c r="S245" s="11"/>
+      <c r="T245" s="11"/>
+      <c r="U245" s="11"/>
+      <c r="V245" s="11"/>
+      <c r="W245" s="11"/>
+      <c r="X245" s="12"/>
+    </row>
+    <row r="246" spans="3:24">
+      <c r="C246" s="9"/>
+      <c r="D246" s="11"/>
+      <c r="E246" s="11"/>
+      <c r="F246" s="11"/>
+      <c r="G246" s="11"/>
+      <c r="H246" s="11"/>
+      <c r="I246" s="11"/>
+      <c r="J246" s="11"/>
+      <c r="K246" s="11"/>
+      <c r="L246" s="11"/>
+      <c r="M246" s="11"/>
+      <c r="N246" s="11"/>
+      <c r="O246" s="11"/>
+      <c r="P246" s="11"/>
+      <c r="Q246" s="11"/>
+      <c r="R246" s="11"/>
+      <c r="S246" s="11"/>
+      <c r="T246" s="11"/>
+      <c r="U246" s="11"/>
+      <c r="V246" s="11"/>
+      <c r="W246" s="11"/>
+      <c r="X246" s="12"/>
+    </row>
+    <row r="247" spans="3:24">
+      <c r="C247" s="9"/>
+      <c r="D247" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E247" s="11"/>
+      <c r="F247" s="11"/>
+      <c r="G247" s="11"/>
+      <c r="H247" s="11"/>
+      <c r="I247" s="11"/>
+      <c r="J247" s="11"/>
+      <c r="K247" s="11"/>
+      <c r="L247" s="11"/>
+      <c r="M247" s="11"/>
+      <c r="N247" s="11"/>
+      <c r="O247" s="11"/>
+      <c r="P247" s="11"/>
+      <c r="Q247" s="11"/>
+      <c r="R247" s="11"/>
+      <c r="S247" s="11"/>
+      <c r="T247" s="11"/>
+      <c r="U247" s="11"/>
+      <c r="V247" s="11"/>
+      <c r="W247" s="11"/>
+      <c r="X247" s="12"/>
+    </row>
+    <row r="248" spans="3:24">
+      <c r="C248" s="9"/>
+      <c r="D248" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E248" s="11"/>
+      <c r="F248" s="11"/>
+      <c r="G248" s="11"/>
+      <c r="H248" s="11"/>
+      <c r="I248" s="11"/>
+      <c r="J248" s="11"/>
+      <c r="K248" s="11"/>
+      <c r="L248" s="11"/>
+      <c r="M248" s="11"/>
+      <c r="N248" s="11"/>
+      <c r="O248" s="11"/>
+      <c r="P248" s="11"/>
+      <c r="Q248" s="11"/>
+      <c r="R248" s="11"/>
+      <c r="S248" s="11"/>
+      <c r="T248" s="11"/>
+      <c r="U248" s="11"/>
+      <c r="V248" s="11"/>
+      <c r="W248" s="11"/>
+      <c r="X248" s="12"/>
+    </row>
+    <row r="249" spans="3:24" ht="21" thickBot="1">
+      <c r="C249" s="14"/>
+      <c r="D249" s="15"/>
+      <c r="E249" s="15"/>
+      <c r="F249" s="15"/>
+      <c r="G249" s="15"/>
+      <c r="H249" s="15"/>
+      <c r="I249" s="15"/>
+      <c r="J249" s="15"/>
+      <c r="K249" s="15"/>
+      <c r="L249" s="15"/>
+      <c r="M249" s="15"/>
+      <c r="N249" s="15"/>
+      <c r="O249" s="15"/>
+      <c r="P249" s="15"/>
+      <c r="Q249" s="15"/>
+      <c r="R249" s="15"/>
+      <c r="S249" s="15"/>
+      <c r="T249" s="15"/>
+      <c r="U249" s="15"/>
+      <c r="V249" s="15"/>
+      <c r="W249" s="15"/>
+      <c r="X249" s="16"/>
+    </row>
+    <row r="252" spans="3:24" s="3" customFormat="1"/>
+    <row r="255" spans="3:24" ht="21" thickBot="1">
+      <c r="C255" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="256" spans="3:24">
+      <c r="C256" s="6"/>
+      <c r="D256" s="7"/>
+      <c r="E256" s="7"/>
+      <c r="F256" s="7"/>
+      <c r="G256" s="7"/>
+      <c r="H256" s="7"/>
+      <c r="I256" s="7"/>
+      <c r="J256" s="7"/>
+      <c r="K256" s="7"/>
+      <c r="L256" s="7"/>
+      <c r="M256" s="7"/>
+      <c r="N256" s="7"/>
+      <c r="O256" s="7"/>
+      <c r="P256" s="7"/>
+      <c r="Q256" s="7"/>
+      <c r="R256" s="7"/>
+      <c r="S256" s="7"/>
+      <c r="T256" s="7"/>
+      <c r="U256" s="7"/>
+      <c r="V256" s="7"/>
+      <c r="W256" s="7"/>
+      <c r="X256" s="8"/>
+    </row>
+    <row r="257" spans="3:24">
+      <c r="C257" s="9"/>
+      <c r="D257" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E257" s="11"/>
+      <c r="F257" s="11"/>
+      <c r="G257" s="11"/>
+      <c r="H257" s="11"/>
+      <c r="I257" s="11"/>
+      <c r="J257" s="11"/>
+      <c r="K257" s="11"/>
+      <c r="L257" s="11"/>
+      <c r="M257" s="11"/>
+      <c r="N257" s="11"/>
+      <c r="O257" s="11"/>
+      <c r="P257" s="11"/>
+      <c r="Q257" s="11"/>
+      <c r="R257" s="11"/>
+      <c r="S257" s="11"/>
+      <c r="T257" s="11"/>
+      <c r="U257" s="11"/>
+      <c r="V257" s="11"/>
+      <c r="W257" s="11"/>
+      <c r="X257" s="12"/>
+    </row>
+    <row r="258" spans="3:24">
+      <c r="C258" s="9"/>
+      <c r="D258" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E258" s="11"/>
+      <c r="F258" s="11"/>
+      <c r="G258" s="11"/>
+      <c r="H258" s="11"/>
+      <c r="I258" s="11"/>
+      <c r="J258" s="11"/>
+      <c r="K258" s="11"/>
+      <c r="L258" s="11"/>
+      <c r="M258" s="11"/>
+      <c r="N258" s="11"/>
+      <c r="O258" s="11"/>
+      <c r="P258" s="11"/>
+      <c r="Q258" s="11"/>
+      <c r="R258" s="11"/>
+      <c r="S258" s="11"/>
+      <c r="T258" s="11"/>
+      <c r="U258" s="11"/>
+      <c r="V258" s="11"/>
+      <c r="W258" s="11"/>
+      <c r="X258" s="12"/>
+    </row>
+    <row r="259" spans="3:24">
+      <c r="C259" s="9"/>
+      <c r="D259" s="11"/>
+      <c r="E259" s="11"/>
+      <c r="F259" s="11"/>
+      <c r="G259" s="11"/>
+      <c r="H259" s="11"/>
+      <c r="I259" s="11"/>
+      <c r="J259" s="11"/>
+      <c r="K259" s="11"/>
+      <c r="L259" s="11"/>
+      <c r="M259" s="11"/>
+      <c r="N259" s="11"/>
+      <c r="O259" s="11"/>
+      <c r="P259" s="11"/>
+      <c r="Q259" s="11"/>
+      <c r="R259" s="11"/>
+      <c r="S259" s="11"/>
+      <c r="T259" s="11"/>
+      <c r="U259" s="11"/>
+      <c r="V259" s="11"/>
+      <c r="W259" s="11"/>
+      <c r="X259" s="12"/>
+    </row>
+    <row r="260" spans="3:24">
+      <c r="C260" s="9"/>
+      <c r="D260" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E260" s="11"/>
+      <c r="F260" s="11"/>
+      <c r="G260" s="11"/>
+      <c r="H260" s="11"/>
+      <c r="I260" s="11"/>
+      <c r="J260" s="11"/>
+      <c r="K260" s="11"/>
+      <c r="L260" s="11"/>
+      <c r="M260" s="11"/>
+      <c r="N260" s="11"/>
+      <c r="O260" s="11"/>
+      <c r="P260" s="11"/>
+      <c r="Q260" s="11"/>
+      <c r="R260" s="11"/>
+      <c r="S260" s="11"/>
+      <c r="T260" s="11"/>
+      <c r="U260" s="11"/>
+      <c r="V260" s="11"/>
+      <c r="W260" s="11"/>
+      <c r="X260" s="12"/>
+    </row>
+    <row r="261" spans="3:24">
+      <c r="C261" s="9"/>
+      <c r="D261" s="11"/>
+      <c r="E261" s="11"/>
+      <c r="F261" s="11"/>
+      <c r="G261" s="11"/>
+      <c r="H261" s="11"/>
+      <c r="I261" s="11"/>
+      <c r="J261" s="11"/>
+      <c r="K261" s="11"/>
+      <c r="L261" s="11"/>
+      <c r="M261" s="11"/>
+      <c r="N261" s="11"/>
+      <c r="O261" s="11"/>
+      <c r="P261" s="11"/>
+      <c r="Q261" s="11"/>
+      <c r="R261" s="11"/>
+      <c r="S261" s="11"/>
+      <c r="T261" s="11"/>
+      <c r="U261" s="11"/>
+      <c r="V261" s="11"/>
+      <c r="W261" s="11"/>
+      <c r="X261" s="12"/>
+    </row>
+    <row r="262" spans="3:24">
+      <c r="C262" s="9"/>
+      <c r="D262" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E262" s="11"/>
+      <c r="F262" s="11"/>
+      <c r="G262" s="11"/>
+      <c r="H262" s="11"/>
+      <c r="I262" s="11"/>
+      <c r="J262" s="11"/>
+      <c r="K262" s="11"/>
+      <c r="L262" s="11"/>
+      <c r="M262" s="11"/>
+      <c r="N262" s="11"/>
+      <c r="O262" s="11"/>
+      <c r="P262" s="11"/>
+      <c r="Q262" s="11"/>
+      <c r="R262" s="11"/>
+      <c r="S262" s="11"/>
+      <c r="T262" s="11"/>
+      <c r="U262" s="11"/>
+      <c r="V262" s="11"/>
+      <c r="W262" s="11"/>
+      <c r="X262" s="12"/>
+    </row>
+    <row r="263" spans="3:24">
+      <c r="C263" s="9"/>
+      <c r="D263" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E263" s="11"/>
+      <c r="F263" s="11"/>
+      <c r="G263" s="11"/>
+      <c r="H263" s="11"/>
+      <c r="I263" s="11"/>
+      <c r="J263" s="11"/>
+      <c r="K263" s="11"/>
+      <c r="L263" s="11"/>
+      <c r="M263" s="11"/>
+      <c r="N263" s="11"/>
+      <c r="O263" s="11"/>
+      <c r="P263" s="11"/>
+      <c r="Q263" s="11"/>
+      <c r="R263" s="11"/>
+      <c r="S263" s="11"/>
+      <c r="T263" s="11"/>
+      <c r="U263" s="11"/>
+      <c r="V263" s="11"/>
+      <c r="W263" s="11"/>
+      <c r="X263" s="12"/>
+    </row>
+    <row r="264" spans="3:24">
+      <c r="C264" s="9"/>
+      <c r="D264" s="11"/>
+      <c r="E264" s="11"/>
+      <c r="F264" s="11"/>
+      <c r="G264" s="11"/>
+      <c r="H264" s="11"/>
+      <c r="I264" s="11"/>
+      <c r="J264" s="11"/>
+      <c r="K264" s="11"/>
+      <c r="L264" s="11"/>
+      <c r="M264" s="11"/>
+      <c r="N264" s="11"/>
+      <c r="O264" s="11"/>
+      <c r="P264" s="11"/>
+      <c r="Q264" s="11"/>
+      <c r="R264" s="11"/>
+      <c r="S264" s="11"/>
+      <c r="T264" s="11"/>
+      <c r="U264" s="11"/>
+      <c r="V264" s="11"/>
+      <c r="W264" s="11"/>
+      <c r="X264" s="12"/>
+    </row>
+    <row r="265" spans="3:24">
+      <c r="C265" s="9"/>
+      <c r="D265" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E265" s="11"/>
+      <c r="F265" s="11"/>
+      <c r="G265" s="11"/>
+      <c r="H265" s="11"/>
+      <c r="I265" s="11"/>
+      <c r="J265" s="11"/>
+      <c r="K265" s="11"/>
+      <c r="L265" s="11"/>
+      <c r="M265" s="11"/>
+      <c r="N265" s="11"/>
+      <c r="O265" s="11"/>
+      <c r="P265" s="11"/>
+      <c r="Q265" s="11"/>
+      <c r="R265" s="11"/>
+      <c r="S265" s="11"/>
+      <c r="T265" s="11"/>
+      <c r="U265" s="11"/>
+      <c r="V265" s="11"/>
+      <c r="W265" s="11"/>
+      <c r="X265" s="12"/>
+    </row>
+    <row r="266" spans="3:24">
+      <c r="C266" s="9"/>
+      <c r="D266" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E266" s="11"/>
+      <c r="F266" s="11"/>
+      <c r="G266" s="11"/>
+      <c r="H266" s="11"/>
+      <c r="I266" s="11"/>
+      <c r="J266" s="11"/>
+      <c r="K266" s="11"/>
+      <c r="L266" s="11"/>
+      <c r="M266" s="11"/>
+      <c r="N266" s="11"/>
+      <c r="O266" s="11"/>
+      <c r="P266" s="11"/>
+      <c r="Q266" s="11"/>
+      <c r="R266" s="11"/>
+      <c r="S266" s="11"/>
+      <c r="T266" s="11"/>
+      <c r="U266" s="11"/>
+      <c r="V266" s="11"/>
+      <c r="W266" s="11"/>
+      <c r="X266" s="12"/>
+    </row>
+    <row r="267" spans="3:24">
+      <c r="C267" s="9"/>
+      <c r="D267" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E267" s="11"/>
+      <c r="F267" s="11"/>
+      <c r="G267" s="11"/>
+      <c r="H267" s="11"/>
+      <c r="I267" s="11"/>
+      <c r="J267" s="11"/>
+      <c r="K267" s="11"/>
+      <c r="L267" s="11"/>
+      <c r="M267" s="11"/>
+      <c r="N267" s="11"/>
+      <c r="O267" s="11"/>
+      <c r="P267" s="11"/>
+      <c r="Q267" s="11"/>
+      <c r="R267" s="11"/>
+      <c r="S267" s="11"/>
+      <c r="T267" s="11"/>
+      <c r="U267" s="11"/>
+      <c r="V267" s="11"/>
+      <c r="W267" s="11"/>
+      <c r="X267" s="12"/>
+    </row>
+    <row r="268" spans="3:24">
+      <c r="C268" s="9"/>
+      <c r="D268" s="11"/>
+      <c r="E268" s="11"/>
+      <c r="F268" s="11"/>
+      <c r="G268" s="11"/>
+      <c r="H268" s="11"/>
+      <c r="I268" s="11"/>
+      <c r="J268" s="11"/>
+      <c r="K268" s="11"/>
+      <c r="L268" s="11"/>
+      <c r="M268" s="11"/>
+      <c r="N268" s="11"/>
+      <c r="O268" s="11"/>
+      <c r="P268" s="11"/>
+      <c r="Q268" s="11"/>
+      <c r="R268" s="11"/>
+      <c r="S268" s="11"/>
+      <c r="T268" s="11"/>
+      <c r="U268" s="11"/>
+      <c r="V268" s="11"/>
+      <c r="W268" s="11"/>
+      <c r="X268" s="12"/>
+    </row>
+    <row r="269" spans="3:24">
+      <c r="C269" s="19"/>
+      <c r="D269" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E269" s="21"/>
+      <c r="F269" s="21"/>
+      <c r="G269" s="21"/>
+      <c r="H269" s="11"/>
+      <c r="I269" s="11"/>
+      <c r="J269" s="11"/>
+      <c r="K269" s="11"/>
+      <c r="L269" s="11"/>
+      <c r="M269" s="11"/>
+      <c r="N269" s="11"/>
+      <c r="O269" s="11"/>
+      <c r="P269" s="11"/>
+      <c r="Q269" s="11"/>
+      <c r="R269" s="11"/>
+      <c r="S269" s="11"/>
+      <c r="T269" s="11"/>
+      <c r="U269" s="11"/>
+      <c r="V269" s="11"/>
+      <c r="W269" s="11"/>
+      <c r="X269" s="12"/>
+    </row>
+    <row r="270" spans="3:24">
+      <c r="C270" s="9"/>
+      <c r="D270" s="11"/>
+      <c r="E270" s="11"/>
+      <c r="F270" s="11"/>
+      <c r="G270" s="11"/>
+      <c r="H270" s="11"/>
+      <c r="I270" s="11"/>
+      <c r="J270" s="11"/>
+      <c r="K270" s="11"/>
+      <c r="L270" s="11"/>
+      <c r="M270" s="11"/>
+      <c r="N270" s="11"/>
+      <c r="O270" s="11"/>
+      <c r="P270" s="11"/>
+      <c r="Q270" s="11"/>
+      <c r="R270" s="11"/>
+      <c r="S270" s="11"/>
+      <c r="T270" s="11"/>
+      <c r="U270" s="11"/>
+      <c r="V270" s="11"/>
+      <c r="W270" s="11"/>
+      <c r="X270" s="12"/>
+    </row>
+    <row r="271" spans="3:24">
+      <c r="C271" s="9"/>
+      <c r="D271" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E271" s="11"/>
+      <c r="F271" s="11"/>
+      <c r="G271" s="11"/>
+      <c r="H271" s="11"/>
+      <c r="I271" s="11"/>
+      <c r="J271" s="11"/>
+      <c r="K271" s="11"/>
+      <c r="L271" s="11"/>
+      <c r="M271" s="11"/>
+      <c r="N271" s="11"/>
+      <c r="O271" s="11"/>
+      <c r="P271" s="11"/>
+      <c r="Q271" s="11"/>
+      <c r="R271" s="11"/>
+      <c r="S271" s="11"/>
+      <c r="T271" s="11"/>
+      <c r="U271" s="11"/>
+      <c r="V271" s="11"/>
+      <c r="W271" s="11"/>
+      <c r="X271" s="12"/>
+    </row>
+    <row r="272" spans="3:24">
+      <c r="C272" s="9"/>
+      <c r="D272" s="11"/>
+      <c r="E272" s="11"/>
+      <c r="F272" s="11"/>
+      <c r="G272" s="11"/>
+      <c r="H272" s="11"/>
+      <c r="I272" s="11"/>
+      <c r="J272" s="11"/>
+      <c r="K272" s="11"/>
+      <c r="L272" s="11"/>
+      <c r="M272" s="11"/>
+      <c r="N272" s="11"/>
+      <c r="O272" s="11"/>
+      <c r="P272" s="11"/>
+      <c r="Q272" s="11"/>
+      <c r="R272" s="11"/>
+      <c r="S272" s="11"/>
+      <c r="T272" s="11"/>
+      <c r="U272" s="11"/>
+      <c r="V272" s="11"/>
+      <c r="W272" s="11"/>
+      <c r="X272" s="12"/>
+    </row>
+    <row r="273" spans="3:24">
+      <c r="C273" s="19"/>
+      <c r="D273" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E273" s="21"/>
+      <c r="F273" s="21"/>
+      <c r="G273" s="21"/>
+      <c r="H273" s="21"/>
+      <c r="I273" s="21"/>
+      <c r="J273" s="11"/>
+      <c r="K273" s="11"/>
+      <c r="L273" s="11"/>
+      <c r="M273" s="11"/>
+      <c r="N273" s="11"/>
+      <c r="O273" s="11"/>
+      <c r="P273" s="11"/>
+      <c r="Q273" s="11"/>
+      <c r="R273" s="11"/>
+      <c r="S273" s="11"/>
+      <c r="T273" s="11"/>
+      <c r="U273" s="11"/>
+      <c r="V273" s="11"/>
+      <c r="W273" s="11"/>
+      <c r="X273" s="12"/>
+    </row>
+    <row r="274" spans="3:24">
+      <c r="C274" s="9"/>
+      <c r="D274" s="11"/>
+      <c r="E274" s="11"/>
+      <c r="F274" s="11"/>
+      <c r="G274" s="11"/>
+      <c r="H274" s="11"/>
+      <c r="I274" s="11"/>
+      <c r="J274" s="11"/>
+      <c r="K274" s="11"/>
+      <c r="L274" s="11"/>
+      <c r="M274" s="11"/>
+      <c r="N274" s="11"/>
+      <c r="O274" s="11"/>
+      <c r="P274" s="11"/>
+      <c r="Q274" s="11"/>
+      <c r="R274" s="11"/>
+      <c r="S274" s="11"/>
+      <c r="T274" s="11"/>
+      <c r="U274" s="11"/>
+      <c r="V274" s="11"/>
+      <c r="W274" s="11"/>
+      <c r="X274" s="12"/>
+    </row>
+    <row r="275" spans="3:24">
+      <c r="C275" s="9"/>
+      <c r="D275" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E275" s="11"/>
+      <c r="F275" s="11"/>
+      <c r="G275" s="11"/>
+      <c r="H275" s="11"/>
+      <c r="I275" s="11"/>
+      <c r="J275" s="11"/>
+      <c r="K275" s="11"/>
+      <c r="L275" s="11"/>
+      <c r="M275" s="11"/>
+      <c r="N275" s="11"/>
+      <c r="O275" s="11"/>
+      <c r="P275" s="11"/>
+      <c r="Q275" s="11"/>
+      <c r="R275" s="11"/>
+      <c r="S275" s="11"/>
+      <c r="T275" s="11"/>
+      <c r="U275" s="11"/>
+      <c r="V275" s="11"/>
+      <c r="W275" s="11"/>
+      <c r="X275" s="12"/>
+    </row>
+    <row r="276" spans="3:24">
+      <c r="C276" s="9"/>
+      <c r="D276" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E276" s="11"/>
+      <c r="F276" s="11"/>
+      <c r="G276" s="11"/>
+      <c r="H276" s="11"/>
+      <c r="I276" s="11"/>
+      <c r="J276" s="11"/>
+      <c r="K276" s="11"/>
+      <c r="L276" s="11"/>
+      <c r="M276" s="11"/>
+      <c r="N276" s="11"/>
+      <c r="O276" s="11"/>
+      <c r="P276" s="11"/>
+      <c r="Q276" s="11"/>
+      <c r="R276" s="11"/>
+      <c r="S276" s="11"/>
+      <c r="T276" s="11"/>
+      <c r="U276" s="11"/>
+      <c r="V276" s="11"/>
+      <c r="W276" s="11"/>
+      <c r="X276" s="12"/>
+    </row>
+    <row r="277" spans="3:24">
+      <c r="C277" s="9"/>
+      <c r="D277" s="11"/>
+      <c r="E277" s="11"/>
+      <c r="F277" s="11"/>
+      <c r="G277" s="11"/>
+      <c r="H277" s="11"/>
+      <c r="I277" s="11"/>
+      <c r="J277" s="11"/>
+      <c r="K277" s="11"/>
+      <c r="L277" s="11"/>
+      <c r="M277" s="11"/>
+      <c r="N277" s="11"/>
+      <c r="O277" s="11"/>
+      <c r="P277" s="11"/>
+      <c r="Q277" s="11"/>
+      <c r="R277" s="11"/>
+      <c r="S277" s="11"/>
+      <c r="T277" s="11"/>
+      <c r="U277" s="11"/>
+      <c r="V277" s="11"/>
+      <c r="W277" s="11"/>
+      <c r="X277" s="12"/>
+    </row>
+    <row r="278" spans="3:24">
+      <c r="C278" s="9"/>
+      <c r="D278" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E278" s="11"/>
+      <c r="F278" s="11"/>
+      <c r="G278" s="11"/>
+      <c r="H278" s="11"/>
+      <c r="I278" s="11"/>
+      <c r="J278" s="11"/>
+      <c r="K278" s="11"/>
+      <c r="L278" s="11"/>
+      <c r="M278" s="11"/>
+      <c r="N278" s="11"/>
+      <c r="O278" s="11"/>
+      <c r="P278" s="11"/>
+      <c r="Q278" s="11"/>
+      <c r="R278" s="11"/>
+      <c r="S278" s="11"/>
+      <c r="T278" s="11"/>
+      <c r="U278" s="11"/>
+      <c r="V278" s="11"/>
+      <c r="W278" s="11"/>
+      <c r="X278" s="12"/>
+    </row>
+    <row r="279" spans="3:24">
+      <c r="C279" s="9"/>
+      <c r="D279" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E279" s="11"/>
+      <c r="F279" s="11"/>
+      <c r="G279" s="11"/>
+      <c r="H279" s="11"/>
+      <c r="I279" s="11"/>
+      <c r="J279" s="11"/>
+      <c r="K279" s="11"/>
+      <c r="L279" s="11"/>
+      <c r="M279" s="11"/>
+      <c r="N279" s="11"/>
+      <c r="O279" s="11"/>
+      <c r="P279" s="11"/>
+      <c r="Q279" s="11"/>
+      <c r="R279" s="11"/>
+      <c r="S279" s="11"/>
+      <c r="T279" s="11"/>
+      <c r="U279" s="11"/>
+      <c r="V279" s="11"/>
+      <c r="W279" s="11"/>
+      <c r="X279" s="12"/>
+    </row>
+    <row r="280" spans="3:24">
+      <c r="C280" s="9"/>
+      <c r="D280" s="11"/>
+      <c r="E280" s="11"/>
+      <c r="F280" s="11"/>
+      <c r="G280" s="11"/>
+      <c r="H280" s="11"/>
+      <c r="I280" s="11"/>
+      <c r="J280" s="11"/>
+      <c r="K280" s="11"/>
+      <c r="L280" s="11"/>
+      <c r="M280" s="11"/>
+      <c r="N280" s="11"/>
+      <c r="O280" s="11"/>
+      <c r="P280" s="11"/>
+      <c r="Q280" s="11"/>
+      <c r="R280" s="11"/>
+      <c r="S280" s="11"/>
+      <c r="T280" s="11"/>
+      <c r="U280" s="11"/>
+      <c r="V280" s="11"/>
+      <c r="W280" s="11"/>
+      <c r="X280" s="12"/>
+    </row>
+    <row r="281" spans="3:24">
+      <c r="C281" s="9"/>
+      <c r="D281" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E281" s="11"/>
+      <c r="F281" s="11"/>
+      <c r="G281" s="11"/>
+      <c r="H281" s="11"/>
+      <c r="I281" s="11"/>
+      <c r="J281" s="11"/>
+      <c r="K281" s="11"/>
+      <c r="L281" s="11"/>
+      <c r="M281" s="11"/>
+      <c r="N281" s="11"/>
+      <c r="O281" s="11"/>
+      <c r="P281" s="11"/>
+      <c r="Q281" s="11"/>
+      <c r="R281" s="11"/>
+      <c r="S281" s="11"/>
+      <c r="T281" s="11"/>
+      <c r="U281" s="11"/>
+      <c r="V281" s="11"/>
+      <c r="W281" s="11"/>
+      <c r="X281" s="12"/>
+    </row>
+    <row r="282" spans="3:24">
+      <c r="C282" s="9"/>
+      <c r="D282" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E282" s="11"/>
+      <c r="F282" s="11"/>
+      <c r="G282" s="11"/>
+      <c r="H282" s="11"/>
+      <c r="I282" s="11"/>
+      <c r="J282" s="11"/>
+      <c r="K282" s="11"/>
+      <c r="L282" s="11"/>
+      <c r="M282" s="11"/>
+      <c r="N282" s="11"/>
+      <c r="O282" s="11"/>
+      <c r="P282" s="11"/>
+      <c r="Q282" s="11"/>
+      <c r="R282" s="11"/>
+      <c r="S282" s="11"/>
+      <c r="T282" s="11"/>
+      <c r="U282" s="11"/>
+      <c r="V282" s="11"/>
+      <c r="W282" s="11"/>
+      <c r="X282" s="12"/>
+    </row>
+    <row r="283" spans="3:24">
+      <c r="C283" s="9"/>
+      <c r="D283" s="11"/>
+      <c r="E283" s="11"/>
+      <c r="F283" s="11"/>
+      <c r="G283" s="11"/>
+      <c r="H283" s="11"/>
+      <c r="I283" s="11"/>
+      <c r="J283" s="11"/>
+      <c r="K283" s="11"/>
+      <c r="L283" s="11"/>
+      <c r="M283" s="11"/>
+      <c r="N283" s="11"/>
+      <c r="O283" s="11"/>
+      <c r="P283" s="11"/>
+      <c r="Q283" s="11"/>
+      <c r="R283" s="11"/>
+      <c r="S283" s="11"/>
+      <c r="T283" s="11"/>
+      <c r="U283" s="11"/>
+      <c r="V283" s="11"/>
+      <c r="W283" s="11"/>
+      <c r="X283" s="12"/>
+    </row>
+    <row r="284" spans="3:24">
+      <c r="C284" s="9"/>
+      <c r="D284" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E284" s="11"/>
+      <c r="F284" s="11"/>
+      <c r="G284" s="11"/>
+      <c r="H284" s="11"/>
+      <c r="I284" s="11"/>
+      <c r="J284" s="11"/>
+      <c r="K284" s="11"/>
+      <c r="L284" s="11"/>
+      <c r="M284" s="11"/>
+      <c r="N284" s="11"/>
+      <c r="O284" s="11"/>
+      <c r="P284" s="11"/>
+      <c r="Q284" s="11"/>
+      <c r="R284" s="11"/>
+      <c r="S284" s="11"/>
+      <c r="T284" s="11"/>
+      <c r="U284" s="11"/>
+      <c r="V284" s="11"/>
+      <c r="W284" s="11"/>
+      <c r="X284" s="12"/>
+    </row>
+    <row r="285" spans="3:24">
+      <c r="C285" s="9"/>
+      <c r="D285" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E285" s="11"/>
+      <c r="F285" s="11"/>
+      <c r="G285" s="11"/>
+      <c r="H285" s="11"/>
+      <c r="I285" s="11"/>
+      <c r="J285" s="11"/>
+      <c r="K285" s="11"/>
+      <c r="L285" s="11"/>
+      <c r="M285" s="11"/>
+      <c r="N285" s="11"/>
+      <c r="O285" s="11"/>
+      <c r="P285" s="11"/>
+      <c r="Q285" s="11"/>
+      <c r="R285" s="11"/>
+      <c r="S285" s="11"/>
+      <c r="T285" s="11"/>
+      <c r="U285" s="11"/>
+      <c r="V285" s="11"/>
+      <c r="W285" s="11"/>
+      <c r="X285" s="12"/>
+    </row>
+    <row r="286" spans="3:24">
+      <c r="C286" s="9"/>
+      <c r="D286" s="11"/>
+      <c r="E286" s="11"/>
+      <c r="F286" s="11"/>
+      <c r="G286" s="11"/>
+      <c r="H286" s="11"/>
+      <c r="I286" s="11"/>
+      <c r="J286" s="11"/>
+      <c r="K286" s="11"/>
+      <c r="L286" s="11"/>
+      <c r="M286" s="11"/>
+      <c r="N286" s="11"/>
+      <c r="O286" s="11"/>
+      <c r="P286" s="11"/>
+      <c r="Q286" s="11"/>
+      <c r="R286" s="11"/>
+      <c r="S286" s="11"/>
+      <c r="T286" s="11"/>
+      <c r="U286" s="11"/>
+      <c r="V286" s="11"/>
+      <c r="W286" s="11"/>
+      <c r="X286" s="12"/>
+    </row>
+    <row r="287" spans="3:24">
+      <c r="C287" s="9"/>
+      <c r="D287" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E287" s="11"/>
+      <c r="F287" s="11"/>
+      <c r="G287" s="11"/>
+      <c r="H287" s="11"/>
+      <c r="I287" s="11"/>
+      <c r="J287" s="11"/>
+      <c r="K287" s="11"/>
+      <c r="L287" s="11"/>
+      <c r="M287" s="11"/>
+      <c r="N287" s="11"/>
+      <c r="O287" s="11"/>
+      <c r="P287" s="11"/>
+      <c r="Q287" s="11"/>
+      <c r="R287" s="11"/>
+      <c r="S287" s="11"/>
+      <c r="T287" s="11"/>
+      <c r="U287" s="11"/>
+      <c r="V287" s="11"/>
+      <c r="W287" s="11"/>
+      <c r="X287" s="12"/>
+    </row>
+    <row r="288" spans="3:24">
+      <c r="C288" s="9"/>
+      <c r="D288" s="11"/>
+      <c r="E288" s="11"/>
+      <c r="F288" s="11"/>
+      <c r="G288" s="11"/>
+      <c r="H288" s="11"/>
+      <c r="I288" s="11"/>
+      <c r="J288" s="11"/>
+      <c r="K288" s="11"/>
+      <c r="L288" s="11"/>
+      <c r="M288" s="11"/>
+      <c r="N288" s="11"/>
+      <c r="O288" s="11"/>
+      <c r="P288" s="11"/>
+      <c r="Q288" s="11"/>
+      <c r="R288" s="11"/>
+      <c r="S288" s="11"/>
+      <c r="T288" s="11"/>
+      <c r="U288" s="11"/>
+      <c r="V288" s="11"/>
+      <c r="W288" s="11"/>
+      <c r="X288" s="12"/>
+    </row>
+    <row r="289" spans="3:24">
+      <c r="C289" s="9"/>
+      <c r="D289" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E289" s="11"/>
+      <c r="F289" s="11"/>
+      <c r="G289" s="11"/>
+      <c r="H289" s="11"/>
+      <c r="I289" s="11"/>
+      <c r="J289" s="11"/>
+      <c r="K289" s="11"/>
+      <c r="L289" s="11"/>
+      <c r="M289" s="11"/>
+      <c r="N289" s="11"/>
+      <c r="O289" s="11"/>
+      <c r="P289" s="11"/>
+      <c r="Q289" s="11"/>
+      <c r="R289" s="11"/>
+      <c r="S289" s="11"/>
+      <c r="T289" s="11"/>
+      <c r="U289" s="11"/>
+      <c r="V289" s="11"/>
+      <c r="W289" s="11"/>
+      <c r="X289" s="12"/>
+    </row>
+    <row r="290" spans="3:24">
+      <c r="C290" s="9"/>
+      <c r="D290" s="11"/>
+      <c r="E290" s="11"/>
+      <c r="F290" s="11"/>
+      <c r="G290" s="11"/>
+      <c r="H290" s="11"/>
+      <c r="I290" s="11"/>
+      <c r="J290" s="11"/>
+      <c r="K290" s="11"/>
+      <c r="L290" s="11"/>
+      <c r="M290" s="11"/>
+      <c r="N290" s="11"/>
+      <c r="O290" s="11"/>
+      <c r="P290" s="11"/>
+      <c r="Q290" s="11"/>
+      <c r="R290" s="11"/>
+      <c r="S290" s="11"/>
+      <c r="T290" s="11"/>
+      <c r="U290" s="11"/>
+      <c r="V290" s="11"/>
+      <c r="W290" s="11"/>
+      <c r="X290" s="12"/>
+    </row>
+    <row r="291" spans="3:24">
+      <c r="C291" s="9"/>
+      <c r="D291" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E291" s="11"/>
+      <c r="F291" s="11"/>
+      <c r="G291" s="11"/>
+      <c r="H291" s="11"/>
+      <c r="I291" s="11"/>
+      <c r="J291" s="11"/>
+      <c r="K291" s="11"/>
+      <c r="L291" s="11"/>
+      <c r="M291" s="11"/>
+      <c r="N291" s="11"/>
+      <c r="O291" s="11"/>
+      <c r="P291" s="11"/>
+      <c r="Q291" s="11"/>
+      <c r="R291" s="11"/>
+      <c r="S291" s="11"/>
+      <c r="T291" s="11"/>
+      <c r="U291" s="11"/>
+      <c r="V291" s="11"/>
+      <c r="W291" s="11"/>
+      <c r="X291" s="12"/>
+    </row>
+    <row r="292" spans="3:24">
+      <c r="C292" s="9"/>
+      <c r="D292" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E292" s="11"/>
+      <c r="F292" s="11"/>
+      <c r="G292" s="11"/>
+      <c r="H292" s="11"/>
+      <c r="I292" s="11"/>
+      <c r="J292" s="11"/>
+      <c r="K292" s="11"/>
+      <c r="L292" s="11"/>
+      <c r="M292" s="11"/>
+      <c r="N292" s="11"/>
+      <c r="O292" s="11"/>
+      <c r="P292" s="11"/>
+      <c r="Q292" s="11"/>
+      <c r="R292" s="11"/>
+      <c r="S292" s="11"/>
+      <c r="T292" s="11"/>
+      <c r="U292" s="11"/>
+      <c r="V292" s="11"/>
+      <c r="W292" s="11"/>
+      <c r="X292" s="12"/>
+    </row>
+    <row r="293" spans="3:24">
+      <c r="C293" s="9"/>
+      <c r="D293" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E293" s="11"/>
+      <c r="F293" s="11"/>
+      <c r="G293" s="11"/>
+      <c r="H293" s="11"/>
+      <c r="I293" s="11"/>
+      <c r="J293" s="11"/>
+      <c r="K293" s="11"/>
+      <c r="L293" s="11"/>
+      <c r="M293" s="11"/>
+      <c r="N293" s="11"/>
+      <c r="O293" s="11"/>
+      <c r="P293" s="11"/>
+      <c r="Q293" s="11"/>
+      <c r="R293" s="11"/>
+      <c r="S293" s="11"/>
+      <c r="T293" s="11"/>
+      <c r="U293" s="11"/>
+      <c r="V293" s="11"/>
+      <c r="W293" s="11"/>
+      <c r="X293" s="12"/>
+    </row>
+    <row r="294" spans="3:24">
+      <c r="C294" s="9"/>
+      <c r="D294" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E294" s="11"/>
+      <c r="F294" s="11"/>
+      <c r="G294" s="11"/>
+      <c r="H294" s="11"/>
+      <c r="I294" s="11"/>
+      <c r="J294" s="11"/>
+      <c r="K294" s="11"/>
+      <c r="L294" s="11"/>
+      <c r="M294" s="11"/>
+      <c r="N294" s="11"/>
+      <c r="O294" s="11"/>
+      <c r="P294" s="11"/>
+      <c r="Q294" s="11"/>
+      <c r="R294" s="11"/>
+      <c r="S294" s="11"/>
+      <c r="T294" s="11"/>
+      <c r="U294" s="11"/>
+      <c r="V294" s="11"/>
+      <c r="W294" s="11"/>
+      <c r="X294" s="12"/>
+    </row>
+    <row r="295" spans="3:24">
+      <c r="C295" s="9"/>
+      <c r="D295" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E295" s="11"/>
+      <c r="F295" s="11"/>
+      <c r="G295" s="11"/>
+      <c r="H295" s="11"/>
+      <c r="I295" s="11"/>
+      <c r="J295" s="11"/>
+      <c r="K295" s="11"/>
+      <c r="L295" s="11"/>
+      <c r="M295" s="11"/>
+      <c r="N295" s="11"/>
+      <c r="O295" s="11"/>
+      <c r="P295" s="11"/>
+      <c r="Q295" s="11"/>
+      <c r="R295" s="11"/>
+      <c r="S295" s="11"/>
+      <c r="T295" s="11"/>
+      <c r="U295" s="11"/>
+      <c r="V295" s="11"/>
+      <c r="W295" s="11"/>
+      <c r="X295" s="12"/>
+    </row>
+    <row r="296" spans="3:24">
+      <c r="C296" s="9"/>
+      <c r="D296" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E296" s="11"/>
+      <c r="F296" s="11"/>
+      <c r="G296" s="11"/>
+      <c r="H296" s="11"/>
+      <c r="I296" s="11"/>
+      <c r="J296" s="11"/>
+      <c r="K296" s="11"/>
+      <c r="L296" s="11"/>
+      <c r="M296" s="11"/>
+      <c r="N296" s="11"/>
+      <c r="O296" s="11"/>
+      <c r="P296" s="11"/>
+      <c r="Q296" s="11"/>
+      <c r="R296" s="11"/>
+      <c r="S296" s="11"/>
+      <c r="T296" s="11"/>
+      <c r="U296" s="11"/>
+      <c r="V296" s="11"/>
+      <c r="W296" s="11"/>
+      <c r="X296" s="12"/>
+    </row>
+    <row r="297" spans="3:24">
+      <c r="C297" s="9"/>
+      <c r="D297" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E297" s="11"/>
+      <c r="F297" s="11"/>
+      <c r="G297" s="11"/>
+      <c r="H297" s="11"/>
+      <c r="I297" s="11"/>
+      <c r="J297" s="11"/>
+      <c r="K297" s="11"/>
+      <c r="L297" s="11"/>
+      <c r="M297" s="11"/>
+      <c r="N297" s="11"/>
+      <c r="O297" s="11"/>
+      <c r="P297" s="11"/>
+      <c r="Q297" s="11"/>
+      <c r="R297" s="11"/>
+      <c r="S297" s="11"/>
+      <c r="T297" s="11"/>
+      <c r="U297" s="11"/>
+      <c r="V297" s="11"/>
+      <c r="W297" s="11"/>
+      <c r="X297" s="12"/>
+    </row>
+    <row r="298" spans="3:24">
+      <c r="C298" s="9"/>
+      <c r="D298" s="11"/>
+      <c r="E298" s="11"/>
+      <c r="F298" s="11"/>
+      <c r="G298" s="11"/>
+      <c r="H298" s="11"/>
+      <c r="I298" s="11"/>
+      <c r="J298" s="11"/>
+      <c r="K298" s="11"/>
+      <c r="L298" s="11"/>
+      <c r="M298" s="11"/>
+      <c r="N298" s="11"/>
+      <c r="O298" s="11"/>
+      <c r="P298" s="11"/>
+      <c r="Q298" s="11"/>
+      <c r="R298" s="11"/>
+      <c r="S298" s="11"/>
+      <c r="T298" s="11"/>
+      <c r="U298" s="11"/>
+      <c r="V298" s="11"/>
+      <c r="W298" s="11"/>
+      <c r="X298" s="12"/>
+    </row>
+    <row r="299" spans="3:24">
+      <c r="C299" s="9"/>
+      <c r="D299" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E299" s="21"/>
+      <c r="F299" s="21"/>
+      <c r="G299" s="21"/>
+      <c r="H299" s="21"/>
+      <c r="I299" s="21"/>
+      <c r="J299" s="11"/>
+      <c r="K299" s="11"/>
+      <c r="L299" s="11"/>
+      <c r="M299" s="11"/>
+      <c r="N299" s="11"/>
+      <c r="O299" s="11"/>
+      <c r="P299" s="11"/>
+      <c r="Q299" s="11"/>
+      <c r="R299" s="11"/>
+      <c r="S299" s="11"/>
+      <c r="T299" s="11"/>
+      <c r="U299" s="11"/>
+      <c r="V299" s="11"/>
+      <c r="W299" s="11"/>
+      <c r="X299" s="12"/>
+    </row>
+    <row r="300" spans="3:24">
+      <c r="C300" s="9"/>
+      <c r="D300" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E300" s="21"/>
+      <c r="F300" s="21"/>
+      <c r="G300" s="21"/>
+      <c r="H300" s="21"/>
+      <c r="I300" s="21"/>
+      <c r="J300" s="11"/>
+      <c r="K300" s="11"/>
+      <c r="L300" s="11"/>
+      <c r="M300" s="11"/>
+      <c r="N300" s="11"/>
+      <c r="O300" s="11"/>
+      <c r="P300" s="11"/>
+      <c r="Q300" s="11"/>
+      <c r="R300" s="11"/>
+      <c r="S300" s="11"/>
+      <c r="T300" s="11"/>
+      <c r="U300" s="11"/>
+      <c r="V300" s="11"/>
+      <c r="W300" s="11"/>
+      <c r="X300" s="12"/>
+    </row>
+    <row r="301" spans="3:24">
+      <c r="C301" s="9"/>
+      <c r="D301" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E301" s="21"/>
+      <c r="F301" s="21"/>
+      <c r="G301" s="21"/>
+      <c r="H301" s="21"/>
+      <c r="I301" s="21"/>
+      <c r="J301" s="11"/>
+      <c r="K301" s="11"/>
+      <c r="L301" s="11"/>
+      <c r="M301" s="11"/>
+      <c r="N301" s="11"/>
+      <c r="O301" s="11"/>
+      <c r="P301" s="11"/>
+      <c r="Q301" s="11"/>
+      <c r="R301" s="11"/>
+      <c r="S301" s="11"/>
+      <c r="T301" s="11"/>
+      <c r="U301" s="11"/>
+      <c r="V301" s="11"/>
+      <c r="W301" s="11"/>
+      <c r="X301" s="12"/>
+    </row>
+    <row r="302" spans="3:24">
+      <c r="C302" s="9"/>
+      <c r="D302" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E302" s="21"/>
+      <c r="F302" s="21"/>
+      <c r="G302" s="21"/>
+      <c r="H302" s="21"/>
+      <c r="I302" s="21"/>
+      <c r="J302" s="11"/>
+      <c r="K302" s="11"/>
+      <c r="L302" s="11"/>
+      <c r="M302" s="11"/>
+      <c r="N302" s="11"/>
+      <c r="O302" s="11"/>
+      <c r="P302" s="11"/>
+      <c r="Q302" s="11"/>
+      <c r="R302" s="11"/>
+      <c r="S302" s="11"/>
+      <c r="T302" s="11"/>
+      <c r="U302" s="11"/>
+      <c r="V302" s="11"/>
+      <c r="W302" s="11"/>
+      <c r="X302" s="12"/>
+    </row>
+    <row r="303" spans="3:24">
+      <c r="C303" s="9"/>
+      <c r="D303" s="11"/>
+      <c r="E303" s="11"/>
+      <c r="F303" s="11"/>
+      <c r="G303" s="11"/>
+      <c r="H303" s="11"/>
+      <c r="I303" s="11"/>
+      <c r="J303" s="11"/>
+      <c r="K303" s="11"/>
+      <c r="L303" s="11"/>
+      <c r="M303" s="11"/>
+      <c r="N303" s="11"/>
+      <c r="O303" s="11"/>
+      <c r="P303" s="11"/>
+      <c r="Q303" s="11"/>
+      <c r="R303" s="11"/>
+      <c r="S303" s="11"/>
+      <c r="T303" s="11"/>
+      <c r="U303" s="11"/>
+      <c r="V303" s="11"/>
+      <c r="W303" s="11"/>
+      <c r="X303" s="12"/>
+    </row>
+    <row r="304" spans="3:24">
+      <c r="C304" s="9"/>
+      <c r="D304" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E304" s="11"/>
+      <c r="F304" s="11"/>
+      <c r="G304" s="11"/>
+      <c r="H304" s="11"/>
+      <c r="I304" s="11"/>
+      <c r="J304" s="11"/>
+      <c r="K304" s="11"/>
+      <c r="L304" s="11"/>
+      <c r="M304" s="11"/>
+      <c r="N304" s="11"/>
+      <c r="O304" s="11"/>
+      <c r="P304" s="11"/>
+      <c r="Q304" s="11"/>
+      <c r="R304" s="11"/>
+      <c r="S304" s="11"/>
+      <c r="T304" s="11"/>
+      <c r="U304" s="11"/>
+      <c r="V304" s="11"/>
+      <c r="W304" s="11"/>
+      <c r="X304" s="12"/>
+    </row>
+    <row r="305" spans="3:24">
+      <c r="C305" s="9"/>
+      <c r="D305" s="11"/>
+      <c r="E305" s="11"/>
+      <c r="F305" s="11"/>
+      <c r="G305" s="11"/>
+      <c r="H305" s="11"/>
+      <c r="I305" s="11"/>
+      <c r="J305" s="11"/>
+      <c r="K305" s="11"/>
+      <c r="L305" s="11"/>
+      <c r="M305" s="11"/>
+      <c r="N305" s="11"/>
+      <c r="O305" s="11"/>
+      <c r="P305" s="11"/>
+      <c r="Q305" s="11"/>
+      <c r="R305" s="11"/>
+      <c r="S305" s="11"/>
+      <c r="T305" s="11"/>
+      <c r="U305" s="11"/>
+      <c r="V305" s="11"/>
+      <c r="W305" s="11"/>
+      <c r="X305" s="12"/>
+    </row>
+    <row r="306" spans="3:24">
+      <c r="C306" s="9"/>
+      <c r="D306" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E306" s="11"/>
+      <c r="F306" s="11"/>
+      <c r="G306" s="11"/>
+      <c r="H306" s="11"/>
+      <c r="I306" s="11"/>
+      <c r="J306" s="11"/>
+      <c r="K306" s="11"/>
+      <c r="L306" s="11"/>
+      <c r="M306" s="11"/>
+      <c r="N306" s="11"/>
+      <c r="O306" s="11"/>
+      <c r="P306" s="11"/>
+      <c r="Q306" s="11"/>
+      <c r="R306" s="11"/>
+      <c r="S306" s="11"/>
+      <c r="T306" s="11"/>
+      <c r="U306" s="11"/>
+      <c r="V306" s="11"/>
+      <c r="W306" s="11"/>
+      <c r="X306" s="12"/>
+    </row>
+    <row r="307" spans="3:24">
+      <c r="C307" s="9"/>
+      <c r="D307" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E307" s="11"/>
+      <c r="F307" s="11"/>
+      <c r="G307" s="11"/>
+      <c r="H307" s="11"/>
+      <c r="I307" s="11"/>
+      <c r="J307" s="11"/>
+      <c r="K307" s="11"/>
+      <c r="L307" s="11"/>
+      <c r="M307" s="11"/>
+      <c r="N307" s="11"/>
+      <c r="O307" s="11"/>
+      <c r="P307" s="11"/>
+      <c r="Q307" s="11"/>
+      <c r="R307" s="11"/>
+      <c r="S307" s="11"/>
+      <c r="T307" s="11"/>
+      <c r="U307" s="11"/>
+      <c r="V307" s="11"/>
+      <c r="W307" s="11"/>
+      <c r="X307" s="12"/>
+    </row>
+    <row r="308" spans="3:24">
+      <c r="C308" s="9"/>
+      <c r="D308" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E308" s="11"/>
+      <c r="F308" s="11"/>
+      <c r="G308" s="11"/>
+      <c r="H308" s="11"/>
+      <c r="I308" s="11"/>
+      <c r="J308" s="11"/>
+      <c r="K308" s="11"/>
+      <c r="L308" s="11"/>
+      <c r="M308" s="11"/>
+      <c r="N308" s="11"/>
+      <c r="O308" s="11"/>
+      <c r="P308" s="11"/>
+      <c r="Q308" s="11"/>
+      <c r="R308" s="11"/>
+      <c r="S308" s="11"/>
+      <c r="T308" s="11"/>
+      <c r="U308" s="11"/>
+      <c r="V308" s="11"/>
+      <c r="W308" s="11"/>
+      <c r="X308" s="12"/>
+    </row>
+    <row r="309" spans="3:24">
+      <c r="C309" s="9"/>
+      <c r="D309" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E309" s="11"/>
+      <c r="F309" s="11"/>
+      <c r="G309" s="11"/>
+      <c r="H309" s="11"/>
+      <c r="I309" s="11"/>
+      <c r="J309" s="11"/>
+      <c r="K309" s="11"/>
+      <c r="L309" s="11"/>
+      <c r="M309" s="11"/>
+      <c r="N309" s="11"/>
+      <c r="O309" s="11"/>
+      <c r="P309" s="11"/>
+      <c r="Q309" s="11"/>
+      <c r="R309" s="11"/>
+      <c r="S309" s="11"/>
+      <c r="T309" s="11"/>
+      <c r="U309" s="11"/>
+      <c r="V309" s="11"/>
+      <c r="W309" s="11"/>
+      <c r="X309" s="12"/>
+    </row>
+    <row r="310" spans="3:24">
+      <c r="C310" s="9"/>
+      <c r="D310" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E310" s="11"/>
+      <c r="F310" s="11"/>
+      <c r="G310" s="11"/>
+      <c r="H310" s="11"/>
+      <c r="I310" s="11"/>
+      <c r="J310" s="11"/>
+      <c r="K310" s="11"/>
+      <c r="L310" s="11"/>
+      <c r="M310" s="11"/>
+      <c r="N310" s="11"/>
+      <c r="O310" s="11"/>
+      <c r="P310" s="11"/>
+      <c r="Q310" s="11"/>
+      <c r="R310" s="11"/>
+      <c r="S310" s="11"/>
+      <c r="T310" s="11"/>
+      <c r="U310" s="11"/>
+      <c r="V310" s="11"/>
+      <c r="W310" s="11"/>
+      <c r="X310" s="12"/>
+    </row>
+    <row r="311" spans="3:24">
+      <c r="C311" s="9"/>
+      <c r="D311" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E311" s="11"/>
+      <c r="F311" s="11"/>
+      <c r="G311" s="11"/>
+      <c r="H311" s="11"/>
+      <c r="I311" s="11"/>
+      <c r="J311" s="11"/>
+      <c r="K311" s="11"/>
+      <c r="L311" s="11"/>
+      <c r="M311" s="11"/>
+      <c r="N311" s="11"/>
+      <c r="O311" s="11"/>
+      <c r="P311" s="11"/>
+      <c r="Q311" s="11"/>
+      <c r="R311" s="11"/>
+      <c r="S311" s="11"/>
+      <c r="T311" s="11"/>
+      <c r="U311" s="11"/>
+      <c r="V311" s="11"/>
+      <c r="W311" s="11"/>
+      <c r="X311" s="12"/>
+    </row>
+    <row r="312" spans="3:24">
+      <c r="C312" s="9"/>
+      <c r="D312" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E312" s="11"/>
+      <c r="F312" s="11"/>
+      <c r="G312" s="11"/>
+      <c r="H312" s="11"/>
+      <c r="I312" s="11"/>
+      <c r="J312" s="11"/>
+      <c r="K312" s="11"/>
+      <c r="L312" s="11"/>
+      <c r="M312" s="11"/>
+      <c r="N312" s="11"/>
+      <c r="O312" s="11"/>
+      <c r="P312" s="11"/>
+      <c r="Q312" s="11"/>
+      <c r="R312" s="11"/>
+      <c r="S312" s="11"/>
+      <c r="T312" s="11"/>
+      <c r="U312" s="11"/>
+      <c r="V312" s="11"/>
+      <c r="W312" s="11"/>
+      <c r="X312" s="12"/>
+    </row>
+    <row r="313" spans="3:24">
+      <c r="C313" s="9"/>
+      <c r="D313" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E313" s="11"/>
+      <c r="F313" s="11"/>
+      <c r="G313" s="11"/>
+      <c r="H313" s="11"/>
+      <c r="I313" s="11"/>
+      <c r="J313" s="11"/>
+      <c r="K313" s="11"/>
+      <c r="L313" s="11"/>
+      <c r="M313" s="11"/>
+      <c r="N313" s="11"/>
+      <c r="O313" s="11"/>
+      <c r="P313" s="11"/>
+      <c r="Q313" s="11"/>
+      <c r="R313" s="11"/>
+      <c r="S313" s="11"/>
+      <c r="T313" s="11"/>
+      <c r="U313" s="11"/>
+      <c r="V313" s="11"/>
+      <c r="W313" s="11"/>
+      <c r="X313" s="12"/>
+    </row>
+    <row r="314" spans="3:24">
+      <c r="C314" s="9"/>
+      <c r="D314" s="11"/>
+      <c r="E314" s="11"/>
+      <c r="F314" s="11"/>
+      <c r="G314" s="11"/>
+      <c r="H314" s="11"/>
+      <c r="I314" s="11"/>
+      <c r="J314" s="11"/>
+      <c r="K314" s="11"/>
+      <c r="L314" s="11"/>
+      <c r="M314" s="11"/>
+      <c r="N314" s="11"/>
+      <c r="O314" s="11"/>
+      <c r="P314" s="11"/>
+      <c r="Q314" s="11"/>
+      <c r="R314" s="11"/>
+      <c r="S314" s="11"/>
+      <c r="T314" s="11"/>
+      <c r="U314" s="11"/>
+      <c r="V314" s="11"/>
+      <c r="W314" s="11"/>
+      <c r="X314" s="12"/>
+    </row>
+    <row r="315" spans="3:24">
+      <c r="C315" s="9"/>
+      <c r="D315" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E315" s="21"/>
+      <c r="F315" s="21"/>
+      <c r="G315" s="21"/>
+      <c r="H315" s="21"/>
+      <c r="I315" s="21"/>
+      <c r="J315" s="21"/>
+      <c r="K315" s="21"/>
+      <c r="L315" s="11"/>
+      <c r="M315" s="11"/>
+      <c r="N315" s="11"/>
+      <c r="O315" s="11"/>
+      <c r="P315" s="11"/>
+      <c r="Q315" s="11"/>
+      <c r="R315" s="11"/>
+      <c r="S315" s="11"/>
+      <c r="T315" s="11"/>
+      <c r="U315" s="11"/>
+      <c r="V315" s="11"/>
+      <c r="W315" s="11"/>
+      <c r="X315" s="12"/>
+    </row>
+    <row r="316" spans="3:24">
+      <c r="C316" s="9"/>
+      <c r="D316" s="11"/>
+      <c r="E316" s="11"/>
+      <c r="F316" s="11"/>
+      <c r="G316" s="11"/>
+      <c r="H316" s="11"/>
+      <c r="I316" s="11"/>
+      <c r="J316" s="11"/>
+      <c r="K316" s="11"/>
+      <c r="L316" s="11"/>
+      <c r="M316" s="11"/>
+      <c r="N316" s="11"/>
+      <c r="O316" s="11"/>
+      <c r="P316" s="11"/>
+      <c r="Q316" s="11"/>
+      <c r="R316" s="11"/>
+      <c r="S316" s="11"/>
+      <c r="T316" s="11"/>
+      <c r="U316" s="11"/>
+      <c r="V316" s="11"/>
+      <c r="W316" s="11"/>
+      <c r="X316" s="12"/>
+    </row>
+    <row r="317" spans="3:24">
+      <c r="C317" s="9"/>
+      <c r="D317" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E317" s="11"/>
+      <c r="F317" s="11"/>
+      <c r="G317" s="11"/>
+      <c r="H317" s="11"/>
+      <c r="I317" s="11"/>
+      <c r="J317" s="11"/>
+      <c r="K317" s="11"/>
+      <c r="L317" s="11"/>
+      <c r="M317" s="11"/>
+      <c r="N317" s="11"/>
+      <c r="O317" s="11"/>
+      <c r="P317" s="11"/>
+      <c r="Q317" s="11"/>
+      <c r="R317" s="11"/>
+      <c r="S317" s="11"/>
+      <c r="T317" s="11"/>
+      <c r="U317" s="11"/>
+      <c r="V317" s="11"/>
+      <c r="W317" s="11"/>
+      <c r="X317" s="12"/>
+    </row>
+    <row r="318" spans="3:24">
+      <c r="C318" s="9"/>
+      <c r="D318" s="11"/>
+      <c r="E318" s="11"/>
+      <c r="F318" s="11"/>
+      <c r="G318" s="11"/>
+      <c r="H318" s="11"/>
+      <c r="I318" s="11"/>
+      <c r="J318" s="11"/>
+      <c r="K318" s="11"/>
+      <c r="L318" s="11"/>
+      <c r="M318" s="11"/>
+      <c r="N318" s="11"/>
+      <c r="O318" s="11"/>
+      <c r="P318" s="11"/>
+      <c r="Q318" s="11"/>
+      <c r="R318" s="11"/>
+      <c r="S318" s="11"/>
+      <c r="T318" s="11"/>
+      <c r="U318" s="11"/>
+      <c r="V318" s="11"/>
+      <c r="W318" s="11"/>
+      <c r="X318" s="12"/>
+    </row>
+    <row r="319" spans="3:24">
+      <c r="C319" s="9"/>
+      <c r="D319" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E319" s="21"/>
+      <c r="F319" s="21"/>
+      <c r="G319" s="21"/>
+      <c r="H319" s="21"/>
+      <c r="I319" s="21"/>
+      <c r="J319" s="11"/>
+      <c r="K319" s="11"/>
+      <c r="L319" s="11"/>
+      <c r="M319" s="11"/>
+      <c r="N319" s="11"/>
+      <c r="O319" s="11"/>
+      <c r="P319" s="11"/>
+      <c r="Q319" s="11"/>
+      <c r="R319" s="11"/>
+      <c r="S319" s="11"/>
+      <c r="T319" s="11"/>
+      <c r="U319" s="11"/>
+      <c r="V319" s="11"/>
+      <c r="W319" s="11"/>
+      <c r="X319" s="12"/>
+    </row>
+    <row r="320" spans="3:24">
+      <c r="C320" s="9"/>
+      <c r="D320" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E320" s="21"/>
+      <c r="F320" s="21"/>
+      <c r="G320" s="21"/>
+      <c r="H320" s="21"/>
+      <c r="I320" s="21"/>
+      <c r="J320" s="11"/>
+      <c r="K320" s="11"/>
+      <c r="L320" s="11"/>
+      <c r="M320" s="11"/>
+      <c r="N320" s="11"/>
+      <c r="O320" s="11"/>
+      <c r="P320" s="11"/>
+      <c r="Q320" s="11"/>
+      <c r="R320" s="11"/>
+      <c r="S320" s="11"/>
+      <c r="T320" s="11"/>
+      <c r="U320" s="11"/>
+      <c r="V320" s="11"/>
+      <c r="W320" s="11"/>
+      <c r="X320" s="12"/>
+    </row>
+    <row r="321" spans="3:24">
+      <c r="C321" s="9"/>
+      <c r="D321" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E321" s="21"/>
+      <c r="F321" s="21"/>
+      <c r="G321" s="21"/>
+      <c r="H321" s="21"/>
+      <c r="I321" s="21"/>
+      <c r="J321" s="11"/>
+      <c r="K321" s="11"/>
+      <c r="L321" s="11"/>
+      <c r="M321" s="11"/>
+      <c r="N321" s="11"/>
+      <c r="O321" s="11"/>
+      <c r="P321" s="11"/>
+      <c r="Q321" s="11"/>
+      <c r="R321" s="11"/>
+      <c r="S321" s="11"/>
+      <c r="T321" s="11"/>
+      <c r="U321" s="11"/>
+      <c r="V321" s="11"/>
+      <c r="W321" s="11"/>
+      <c r="X321" s="12"/>
+    </row>
+    <row r="322" spans="3:24">
+      <c r="C322" s="9"/>
+      <c r="D322" s="11"/>
+      <c r="E322" s="11"/>
+      <c r="F322" s="11"/>
+      <c r="G322" s="11"/>
+      <c r="H322" s="11"/>
+      <c r="I322" s="11"/>
+      <c r="J322" s="11"/>
+      <c r="K322" s="11"/>
+      <c r="L322" s="11"/>
+      <c r="M322" s="11"/>
+      <c r="N322" s="11"/>
+      <c r="O322" s="11"/>
+      <c r="P322" s="11"/>
+      <c r="Q322" s="11"/>
+      <c r="R322" s="11"/>
+      <c r="S322" s="11"/>
+      <c r="T322" s="11"/>
+      <c r="U322" s="11"/>
+      <c r="V322" s="11"/>
+      <c r="W322" s="11"/>
+      <c r="X322" s="12"/>
+    </row>
+    <row r="323" spans="3:24">
+      <c r="C323" s="9"/>
+      <c r="D323" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E323" s="11"/>
+      <c r="F323" s="11"/>
+      <c r="G323" s="11"/>
+      <c r="H323" s="11"/>
+      <c r="I323" s="11"/>
+      <c r="J323" s="11"/>
+      <c r="K323" s="11"/>
+      <c r="L323" s="11"/>
+      <c r="M323" s="11"/>
+      <c r="N323" s="11"/>
+      <c r="O323" s="11"/>
+      <c r="P323" s="11"/>
+      <c r="Q323" s="11"/>
+      <c r="R323" s="11"/>
+      <c r="S323" s="11"/>
+      <c r="T323" s="11"/>
+      <c r="U323" s="11"/>
+      <c r="V323" s="11"/>
+      <c r="W323" s="11"/>
+      <c r="X323" s="12"/>
+    </row>
+    <row r="324" spans="3:24">
+      <c r="C324" s="9"/>
+      <c r="D324" s="11"/>
+      <c r="E324" s="11"/>
+      <c r="F324" s="11"/>
+      <c r="G324" s="11"/>
+      <c r="H324" s="11"/>
+      <c r="I324" s="11"/>
+      <c r="J324" s="11"/>
+      <c r="K324" s="11"/>
+      <c r="L324" s="11"/>
+      <c r="M324" s="11"/>
+      <c r="N324" s="11"/>
+      <c r="O324" s="11"/>
+      <c r="P324" s="11"/>
+      <c r="Q324" s="11"/>
+      <c r="R324" s="11"/>
+      <c r="S324" s="11"/>
+      <c r="T324" s="11"/>
+      <c r="U324" s="11"/>
+      <c r="V324" s="11"/>
+      <c r="W324" s="11"/>
+      <c r="X324" s="12"/>
+    </row>
+    <row r="325" spans="3:24">
+      <c r="C325" s="9"/>
+      <c r="D325" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E325" s="11"/>
+      <c r="F325" s="11"/>
+      <c r="G325" s="11"/>
+      <c r="H325" s="11"/>
+      <c r="I325" s="11"/>
+      <c r="J325" s="11"/>
+      <c r="K325" s="11"/>
+      <c r="L325" s="11"/>
+      <c r="M325" s="11"/>
+      <c r="N325" s="11"/>
+      <c r="O325" s="11"/>
+      <c r="P325" s="11"/>
+      <c r="Q325" s="11"/>
+      <c r="R325" s="11"/>
+      <c r="S325" s="11"/>
+      <c r="T325" s="11"/>
+      <c r="U325" s="11"/>
+      <c r="V325" s="11"/>
+      <c r="W325" s="11"/>
+      <c r="X325" s="12"/>
+    </row>
+    <row r="326" spans="3:24">
+      <c r="C326" s="9"/>
+      <c r="D326" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E326" s="11"/>
+      <c r="F326" s="11"/>
+      <c r="G326" s="11"/>
+      <c r="H326" s="11"/>
+      <c r="I326" s="11"/>
+      <c r="J326" s="11"/>
+      <c r="K326" s="11"/>
+      <c r="L326" s="11"/>
+      <c r="M326" s="11"/>
+      <c r="N326" s="11"/>
+      <c r="O326" s="11"/>
+      <c r="P326" s="11"/>
+      <c r="Q326" s="11"/>
+      <c r="R326" s="11"/>
+      <c r="S326" s="11"/>
+      <c r="T326" s="11"/>
+      <c r="U326" s="11"/>
+      <c r="V326" s="11"/>
+      <c r="W326" s="11"/>
+      <c r="X326" s="12"/>
+    </row>
+    <row r="327" spans="3:24">
+      <c r="C327" s="9"/>
+      <c r="D327" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E327" s="11"/>
+      <c r="F327" s="11"/>
+      <c r="G327" s="11"/>
+      <c r="H327" s="11"/>
+      <c r="I327" s="11"/>
+      <c r="J327" s="11"/>
+      <c r="K327" s="11"/>
+      <c r="L327" s="11"/>
+      <c r="M327" s="11"/>
+      <c r="N327" s="11"/>
+      <c r="O327" s="11"/>
+      <c r="P327" s="11"/>
+      <c r="Q327" s="11"/>
+      <c r="R327" s="11"/>
+      <c r="S327" s="11"/>
+      <c r="T327" s="11"/>
+      <c r="U327" s="11"/>
+      <c r="V327" s="11"/>
+      <c r="W327" s="11"/>
+      <c r="X327" s="12"/>
+    </row>
+    <row r="328" spans="3:24">
+      <c r="C328" s="9"/>
+      <c r="D328" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E328" s="11"/>
+      <c r="F328" s="11"/>
+      <c r="G328" s="11"/>
+      <c r="H328" s="11"/>
+      <c r="I328" s="11"/>
+      <c r="J328" s="11"/>
+      <c r="K328" s="11"/>
+      <c r="L328" s="11"/>
+      <c r="M328" s="11"/>
+      <c r="N328" s="11"/>
+      <c r="O328" s="11"/>
+      <c r="P328" s="11"/>
+      <c r="Q328" s="11"/>
+      <c r="R328" s="11"/>
+      <c r="S328" s="11"/>
+      <c r="T328" s="11"/>
+      <c r="U328" s="11"/>
+      <c r="V328" s="11"/>
+      <c r="W328" s="11"/>
+      <c r="X328" s="12"/>
+    </row>
+    <row r="329" spans="3:24">
+      <c r="C329" s="9"/>
+      <c r="D329" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E329" s="11"/>
+      <c r="F329" s="11"/>
+      <c r="G329" s="11"/>
+      <c r="H329" s="11"/>
+      <c r="I329" s="11"/>
+      <c r="J329" s="11"/>
+      <c r="K329" s="11"/>
+      <c r="L329" s="11"/>
+      <c r="M329" s="11"/>
+      <c r="N329" s="11"/>
+      <c r="O329" s="11"/>
+      <c r="P329" s="11"/>
+      <c r="Q329" s="11"/>
+      <c r="R329" s="11"/>
+      <c r="S329" s="11"/>
+      <c r="T329" s="11"/>
+      <c r="U329" s="11"/>
+      <c r="V329" s="11"/>
+      <c r="W329" s="11"/>
+      <c r="X329" s="12"/>
+    </row>
+    <row r="330" spans="3:24">
+      <c r="C330" s="9"/>
+      <c r="D330" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E330" s="11"/>
+      <c r="F330" s="11"/>
+      <c r="G330" s="11"/>
+      <c r="H330" s="11"/>
+      <c r="I330" s="11"/>
+      <c r="J330" s="11"/>
+      <c r="K330" s="11"/>
+      <c r="L330" s="11"/>
+      <c r="M330" s="11"/>
+      <c r="N330" s="11"/>
+      <c r="O330" s="11"/>
+      <c r="P330" s="11"/>
+      <c r="Q330" s="11"/>
+      <c r="R330" s="11"/>
+      <c r="S330" s="11"/>
+      <c r="T330" s="11"/>
+      <c r="U330" s="11"/>
+      <c r="V330" s="11"/>
+      <c r="W330" s="11"/>
+      <c r="X330" s="12"/>
+    </row>
+    <row r="331" spans="3:24">
+      <c r="C331" s="9"/>
+      <c r="D331" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E331" s="11"/>
+      <c r="F331" s="11"/>
+      <c r="G331" s="11"/>
+      <c r="H331" s="11"/>
+      <c r="I331" s="11"/>
+      <c r="J331" s="11"/>
+      <c r="K331" s="11"/>
+      <c r="L331" s="11"/>
+      <c r="M331" s="11"/>
+      <c r="N331" s="11"/>
+      <c r="O331" s="11"/>
+      <c r="P331" s="11"/>
+      <c r="Q331" s="11"/>
+      <c r="R331" s="11"/>
+      <c r="S331" s="11"/>
+      <c r="T331" s="11"/>
+      <c r="U331" s="11"/>
+      <c r="V331" s="11"/>
+      <c r="W331" s="11"/>
+      <c r="X331" s="12"/>
+    </row>
+    <row r="332" spans="3:24">
+      <c r="C332" s="9"/>
+      <c r="D332" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E332" s="11"/>
+      <c r="F332" s="11"/>
+      <c r="G332" s="11"/>
+      <c r="H332" s="11"/>
+      <c r="I332" s="11"/>
+      <c r="J332" s="11"/>
+      <c r="K332" s="11"/>
+      <c r="L332" s="11"/>
+      <c r="M332" s="11"/>
+      <c r="N332" s="11"/>
+      <c r="O332" s="11"/>
+      <c r="P332" s="11"/>
+      <c r="Q332" s="11"/>
+      <c r="R332" s="11"/>
+      <c r="S332" s="11"/>
+      <c r="T332" s="11"/>
+      <c r="U332" s="11"/>
+      <c r="V332" s="11"/>
+      <c r="W332" s="11"/>
+      <c r="X332" s="12"/>
+    </row>
+    <row r="333" spans="3:24">
+      <c r="C333" s="9"/>
+      <c r="D333" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E333" s="11"/>
+      <c r="F333" s="11"/>
+      <c r="G333" s="11"/>
+      <c r="H333" s="11"/>
+      <c r="I333" s="11"/>
+      <c r="J333" s="11"/>
+      <c r="K333" s="11"/>
+      <c r="L333" s="11"/>
+      <c r="M333" s="11"/>
+      <c r="N333" s="11"/>
+      <c r="O333" s="11"/>
+      <c r="P333" s="11"/>
+      <c r="Q333" s="11"/>
+      <c r="R333" s="11"/>
+      <c r="S333" s="11"/>
+      <c r="T333" s="11"/>
+      <c r="U333" s="11"/>
+      <c r="V333" s="11"/>
+      <c r="W333" s="11"/>
+      <c r="X333" s="12"/>
+    </row>
+    <row r="334" spans="3:24">
+      <c r="C334" s="9"/>
+      <c r="D334" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E334" s="11"/>
+      <c r="F334" s="11"/>
+      <c r="G334" s="11"/>
+      <c r="H334" s="11"/>
+      <c r="I334" s="11"/>
+      <c r="J334" s="11"/>
+      <c r="K334" s="11"/>
+      <c r="L334" s="11"/>
+      <c r="M334" s="11"/>
+      <c r="N334" s="11"/>
+      <c r="O334" s="11"/>
+      <c r="P334" s="11"/>
+      <c r="Q334" s="11"/>
+      <c r="R334" s="11"/>
+      <c r="S334" s="11"/>
+      <c r="T334" s="11"/>
+      <c r="U334" s="11"/>
+      <c r="V334" s="11"/>
+      <c r="W334" s="11"/>
+      <c r="X334" s="12"/>
+    </row>
+    <row r="335" spans="3:24">
+      <c r="C335" s="9"/>
+      <c r="D335" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E335" s="11"/>
+      <c r="F335" s="11"/>
+      <c r="G335" s="11"/>
+      <c r="H335" s="11"/>
+      <c r="I335" s="11"/>
+      <c r="J335" s="11"/>
+      <c r="K335" s="11"/>
+      <c r="L335" s="11"/>
+      <c r="M335" s="11"/>
+      <c r="N335" s="11"/>
+      <c r="O335" s="11"/>
+      <c r="P335" s="11"/>
+      <c r="Q335" s="11"/>
+      <c r="R335" s="11"/>
+      <c r="S335" s="11"/>
+      <c r="T335" s="11"/>
+      <c r="U335" s="11"/>
+      <c r="V335" s="11"/>
+      <c r="W335" s="11"/>
+      <c r="X335" s="12"/>
+    </row>
+    <row r="336" spans="3:24">
+      <c r="C336" s="9"/>
+      <c r="D336" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E336" s="11"/>
+      <c r="F336" s="11"/>
+      <c r="G336" s="11"/>
+      <c r="H336" s="11"/>
+      <c r="I336" s="11"/>
+      <c r="J336" s="11"/>
+      <c r="K336" s="11"/>
+      <c r="L336" s="11"/>
+      <c r="M336" s="11"/>
+      <c r="N336" s="11"/>
+      <c r="O336" s="11"/>
+      <c r="P336" s="11"/>
+      <c r="Q336" s="11"/>
+      <c r="R336" s="11"/>
+      <c r="S336" s="11"/>
+      <c r="T336" s="11"/>
+      <c r="U336" s="11"/>
+      <c r="V336" s="11"/>
+      <c r="W336" s="11"/>
+      <c r="X336" s="12"/>
+    </row>
+    <row r="337" spans="3:24">
+      <c r="C337" s="9"/>
+      <c r="D337" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E337" s="11"/>
+      <c r="F337" s="11"/>
+      <c r="G337" s="11"/>
+      <c r="H337" s="11"/>
+      <c r="I337" s="11"/>
+      <c r="J337" s="11"/>
+      <c r="K337" s="11"/>
+      <c r="L337" s="11"/>
+      <c r="M337" s="11"/>
+      <c r="N337" s="11"/>
+      <c r="O337" s="11"/>
+      <c r="P337" s="11"/>
+      <c r="Q337" s="11"/>
+      <c r="R337" s="11"/>
+      <c r="S337" s="11"/>
+      <c r="T337" s="11"/>
+      <c r="U337" s="11"/>
+      <c r="V337" s="11"/>
+      <c r="W337" s="11"/>
+      <c r="X337" s="12"/>
+    </row>
+    <row r="338" spans="3:24">
+      <c r="C338" s="9"/>
+      <c r="D338" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E338" s="11"/>
+      <c r="F338" s="11"/>
+      <c r="G338" s="11"/>
+      <c r="H338" s="11"/>
+      <c r="I338" s="11"/>
+      <c r="J338" s="11"/>
+      <c r="K338" s="11"/>
+      <c r="L338" s="11"/>
+      <c r="M338" s="11"/>
+      <c r="N338" s="11"/>
+      <c r="O338" s="11"/>
+      <c r="P338" s="11"/>
+      <c r="Q338" s="11"/>
+      <c r="R338" s="11"/>
+      <c r="S338" s="11"/>
+      <c r="T338" s="11"/>
+      <c r="U338" s="11"/>
+      <c r="V338" s="11"/>
+      <c r="W338" s="11"/>
+      <c r="X338" s="12"/>
+    </row>
+    <row r="339" spans="3:24">
+      <c r="C339" s="9"/>
+      <c r="D339" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E339" s="11"/>
+      <c r="F339" s="11"/>
+      <c r="G339" s="11"/>
+      <c r="H339" s="11"/>
+      <c r="I339" s="11"/>
+      <c r="J339" s="11"/>
+      <c r="K339" s="11"/>
+      <c r="L339" s="11"/>
+      <c r="M339" s="11"/>
+      <c r="N339" s="11"/>
+      <c r="O339" s="11"/>
+      <c r="P339" s="11"/>
+      <c r="Q339" s="11"/>
+      <c r="R339" s="11"/>
+      <c r="S339" s="11"/>
+      <c r="T339" s="11"/>
+      <c r="U339" s="11"/>
+      <c r="V339" s="11"/>
+      <c r="W339" s="11"/>
+      <c r="X339" s="12"/>
+    </row>
+    <row r="340" spans="3:24">
+      <c r="C340" s="9"/>
+      <c r="D340" s="11"/>
+      <c r="E340" s="11"/>
+      <c r="F340" s="11"/>
+      <c r="G340" s="11"/>
+      <c r="H340" s="11"/>
+      <c r="I340" s="11"/>
+      <c r="J340" s="11"/>
+      <c r="K340" s="11"/>
+      <c r="L340" s="11"/>
+      <c r="M340" s="11"/>
+      <c r="N340" s="11"/>
+      <c r="O340" s="11"/>
+      <c r="P340" s="11"/>
+      <c r="Q340" s="11"/>
+      <c r="R340" s="11"/>
+      <c r="S340" s="11"/>
+      <c r="T340" s="11"/>
+      <c r="U340" s="11"/>
+      <c r="V340" s="11"/>
+      <c r="W340" s="11"/>
+      <c r="X340" s="12"/>
+    </row>
+    <row r="341" spans="3:24">
+      <c r="C341" s="9"/>
+      <c r="D341" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E341" s="11"/>
+      <c r="F341" s="11"/>
+      <c r="G341" s="11"/>
+      <c r="H341" s="11"/>
+      <c r="I341" s="11"/>
+      <c r="J341" s="11"/>
+      <c r="K341" s="11"/>
+      <c r="L341" s="11"/>
+      <c r="M341" s="11"/>
+      <c r="N341" s="11"/>
+      <c r="O341" s="11"/>
+      <c r="P341" s="11"/>
+      <c r="Q341" s="11"/>
+      <c r="R341" s="11"/>
+      <c r="S341" s="11"/>
+      <c r="T341" s="11"/>
+      <c r="U341" s="11"/>
+      <c r="V341" s="11"/>
+      <c r="W341" s="11"/>
+      <c r="X341" s="12"/>
+    </row>
+    <row r="342" spans="3:24">
+      <c r="C342" s="9"/>
+      <c r="D342" s="11"/>
+      <c r="E342" s="11"/>
+      <c r="F342" s="11"/>
+      <c r="G342" s="11"/>
+      <c r="H342" s="11"/>
+      <c r="I342" s="11"/>
+      <c r="J342" s="11"/>
+      <c r="K342" s="11"/>
+      <c r="L342" s="11"/>
+      <c r="M342" s="11"/>
+      <c r="N342" s="11"/>
+      <c r="O342" s="11"/>
+      <c r="P342" s="11"/>
+      <c r="Q342" s="11"/>
+      <c r="R342" s="11"/>
+      <c r="S342" s="11"/>
+      <c r="T342" s="11"/>
+      <c r="U342" s="11"/>
+      <c r="V342" s="11"/>
+      <c r="W342" s="11"/>
+      <c r="X342" s="12"/>
+    </row>
+    <row r="343" spans="3:24">
+      <c r="C343" s="9"/>
+      <c r="D343" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E343" s="21"/>
+      <c r="F343" s="21"/>
+      <c r="G343" s="21"/>
+      <c r="H343" s="21"/>
+      <c r="I343" s="21"/>
+      <c r="J343" s="21"/>
+      <c r="K343" s="21"/>
+      <c r="L343" s="21"/>
+      <c r="M343" s="21"/>
+      <c r="N343" s="21"/>
+      <c r="O343" s="11"/>
+      <c r="P343" s="11"/>
+      <c r="Q343" s="11"/>
+      <c r="R343" s="11"/>
+      <c r="S343" s="11"/>
+      <c r="T343" s="11"/>
+      <c r="U343" s="11"/>
+      <c r="V343" s="11"/>
+      <c r="W343" s="11"/>
+      <c r="X343" s="12"/>
+    </row>
+    <row r="344" spans="3:24">
+      <c r="C344" s="9"/>
+      <c r="D344" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E344" s="21"/>
+      <c r="F344" s="21"/>
+      <c r="G344" s="21"/>
+      <c r="H344" s="21"/>
+      <c r="I344" s="21"/>
+      <c r="J344" s="21"/>
+      <c r="K344" s="21"/>
+      <c r="L344" s="21"/>
+      <c r="M344" s="21"/>
+      <c r="N344" s="21"/>
+      <c r="O344" s="11"/>
+      <c r="P344" s="11"/>
+      <c r="Q344" s="11"/>
+      <c r="R344" s="11"/>
+      <c r="S344" s="11"/>
+      <c r="T344" s="11"/>
+      <c r="U344" s="11"/>
+      <c r="V344" s="11"/>
+      <c r="W344" s="11"/>
+      <c r="X344" s="12"/>
+    </row>
+    <row r="345" spans="3:24">
+      <c r="C345" s="9"/>
+      <c r="D345" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E345" s="21"/>
+      <c r="F345" s="21"/>
+      <c r="G345" s="21"/>
+      <c r="H345" s="21"/>
+      <c r="I345" s="21"/>
+      <c r="J345" s="21"/>
+      <c r="K345" s="21"/>
+      <c r="L345" s="21"/>
+      <c r="M345" s="21"/>
+      <c r="N345" s="21"/>
+      <c r="O345" s="11"/>
+      <c r="P345" s="11"/>
+      <c r="Q345" s="11"/>
+      <c r="R345" s="11"/>
+      <c r="S345" s="11"/>
+      <c r="T345" s="11"/>
+      <c r="U345" s="11"/>
+      <c r="V345" s="11"/>
+      <c r="W345" s="11"/>
+      <c r="X345" s="12"/>
+    </row>
+    <row r="346" spans="3:24">
+      <c r="C346" s="9"/>
+      <c r="D346" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E346" s="21"/>
+      <c r="F346" s="21"/>
+      <c r="G346" s="21"/>
+      <c r="H346" s="21"/>
+      <c r="I346" s="21"/>
+      <c r="J346" s="21"/>
+      <c r="K346" s="21"/>
+      <c r="L346" s="21"/>
+      <c r="M346" s="21"/>
+      <c r="N346" s="21"/>
+      <c r="O346" s="11"/>
+      <c r="P346" s="11"/>
+      <c r="Q346" s="11"/>
+      <c r="R346" s="11"/>
+      <c r="S346" s="11"/>
+      <c r="T346" s="11"/>
+      <c r="U346" s="11"/>
+      <c r="V346" s="11"/>
+      <c r="W346" s="11"/>
+      <c r="X346" s="12"/>
+    </row>
+    <row r="347" spans="3:24">
+      <c r="C347" s="9"/>
+      <c r="D347" s="21"/>
+      <c r="E347" s="21"/>
+      <c r="F347" s="21"/>
+      <c r="G347" s="21"/>
+      <c r="H347" s="21"/>
+      <c r="I347" s="21"/>
+      <c r="J347" s="21"/>
+      <c r="K347" s="21"/>
+      <c r="L347" s="21"/>
+      <c r="M347" s="21"/>
+      <c r="N347" s="21"/>
+      <c r="O347" s="11"/>
+      <c r="P347" s="11"/>
+      <c r="Q347" s="11"/>
+      <c r="R347" s="11"/>
+      <c r="S347" s="11"/>
+      <c r="T347" s="11"/>
+      <c r="U347" s="11"/>
+      <c r="V347" s="11"/>
+      <c r="W347" s="11"/>
+      <c r="X347" s="12"/>
+    </row>
+    <row r="348" spans="3:24">
+      <c r="C348" s="9"/>
+      <c r="D348" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E348" s="21"/>
+      <c r="F348" s="21"/>
+      <c r="G348" s="21"/>
+      <c r="H348" s="21"/>
+      <c r="I348" s="21"/>
+      <c r="J348" s="21"/>
+      <c r="K348" s="21"/>
+      <c r="L348" s="21"/>
+      <c r="M348" s="21"/>
+      <c r="N348" s="21"/>
+      <c r="O348" s="11"/>
+      <c r="P348" s="11"/>
+      <c r="Q348" s="11"/>
+      <c r="R348" s="11"/>
+      <c r="S348" s="11"/>
+      <c r="T348" s="11"/>
+      <c r="U348" s="11"/>
+      <c r="V348" s="11"/>
+      <c r="W348" s="11"/>
+      <c r="X348" s="12"/>
+    </row>
+    <row r="349" spans="3:24">
+      <c r="C349" s="9"/>
+      <c r="D349" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E349" s="21"/>
+      <c r="F349" s="21"/>
+      <c r="G349" s="21"/>
+      <c r="H349" s="21"/>
+      <c r="I349" s="21"/>
+      <c r="J349" s="21"/>
+      <c r="K349" s="21"/>
+      <c r="L349" s="21"/>
+      <c r="M349" s="21"/>
+      <c r="N349" s="21"/>
+      <c r="O349" s="11"/>
+      <c r="P349" s="11"/>
+      <c r="Q349" s="11"/>
+      <c r="R349" s="11"/>
+      <c r="S349" s="11"/>
+      <c r="T349" s="11"/>
+      <c r="U349" s="11"/>
+      <c r="V349" s="11"/>
+      <c r="W349" s="11"/>
+      <c r="X349" s="12"/>
+    </row>
+    <row r="350" spans="3:24">
+      <c r="C350" s="9"/>
+      <c r="D350" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E350" s="21"/>
+      <c r="F350" s="21"/>
+      <c r="G350" s="21"/>
+      <c r="H350" s="21"/>
+      <c r="I350" s="21"/>
+      <c r="J350" s="21"/>
+      <c r="K350" s="21"/>
+      <c r="L350" s="21"/>
+      <c r="M350" s="21"/>
+      <c r="N350" s="21"/>
+      <c r="O350" s="11"/>
+      <c r="P350" s="11"/>
+      <c r="Q350" s="11"/>
+      <c r="R350" s="11"/>
+      <c r="S350" s="11"/>
+      <c r="T350" s="11"/>
+      <c r="U350" s="11"/>
+      <c r="V350" s="11"/>
+      <c r="W350" s="11"/>
+      <c r="X350" s="12"/>
+    </row>
+    <row r="351" spans="3:24">
+      <c r="C351" s="9"/>
+      <c r="D351" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E351" s="21"/>
+      <c r="F351" s="21"/>
+      <c r="G351" s="21"/>
+      <c r="H351" s="21"/>
+      <c r="I351" s="21"/>
+      <c r="J351" s="21"/>
+      <c r="K351" s="21"/>
+      <c r="L351" s="21"/>
+      <c r="M351" s="21"/>
+      <c r="N351" s="21"/>
+      <c r="O351" s="11"/>
+      <c r="P351" s="11"/>
+      <c r="Q351" s="11"/>
+      <c r="R351" s="11"/>
+      <c r="S351" s="11"/>
+      <c r="T351" s="11"/>
+      <c r="U351" s="11"/>
+      <c r="V351" s="11"/>
+      <c r="W351" s="11"/>
+      <c r="X351" s="12"/>
+    </row>
+    <row r="352" spans="3:24">
+      <c r="C352" s="9"/>
+      <c r="D352" s="11"/>
+      <c r="E352" s="11"/>
+      <c r="F352" s="11"/>
+      <c r="G352" s="11"/>
+      <c r="H352" s="11"/>
+      <c r="I352" s="11"/>
+      <c r="J352" s="11"/>
+      <c r="K352" s="11"/>
+      <c r="L352" s="11"/>
+      <c r="M352" s="11"/>
+      <c r="N352" s="11"/>
+      <c r="O352" s="11"/>
+      <c r="P352" s="11"/>
+      <c r="Q352" s="11"/>
+      <c r="R352" s="11"/>
+      <c r="S352" s="11"/>
+      <c r="T352" s="11"/>
+      <c r="U352" s="11"/>
+      <c r="V352" s="11"/>
+      <c r="W352" s="11"/>
+      <c r="X352" s="12"/>
+    </row>
+    <row r="353" spans="3:24">
+      <c r="C353" s="9"/>
+      <c r="D353" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E353" s="21"/>
+      <c r="F353" s="21"/>
+      <c r="G353" s="21"/>
+      <c r="H353" s="21"/>
+      <c r="I353" s="21"/>
+      <c r="J353" s="21"/>
+      <c r="K353" s="21"/>
+      <c r="L353" s="21"/>
+      <c r="M353" s="11"/>
+      <c r="N353" s="11"/>
+      <c r="O353" s="11"/>
+      <c r="P353" s="11"/>
+      <c r="Q353" s="11"/>
+      <c r="R353" s="11"/>
+      <c r="S353" s="11"/>
+      <c r="T353" s="11"/>
+      <c r="U353" s="11"/>
+      <c r="V353" s="11"/>
+      <c r="W353" s="11"/>
+      <c r="X353" s="12"/>
+    </row>
+    <row r="354" spans="3:24">
+      <c r="C354" s="9"/>
+      <c r="D354" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E354" s="21"/>
+      <c r="F354" s="21"/>
+      <c r="G354" s="21"/>
+      <c r="H354" s="21"/>
+      <c r="I354" s="21"/>
+      <c r="J354" s="21"/>
+      <c r="K354" s="21"/>
+      <c r="L354" s="21"/>
+      <c r="M354" s="11"/>
+      <c r="N354" s="11"/>
+      <c r="O354" s="11"/>
+      <c r="P354" s="11"/>
+      <c r="Q354" s="11"/>
+      <c r="R354" s="11"/>
+      <c r="S354" s="11"/>
+      <c r="T354" s="11"/>
+      <c r="U354" s="11"/>
+      <c r="V354" s="11"/>
+      <c r="W354" s="11"/>
+      <c r="X354" s="12"/>
+    </row>
+    <row r="355" spans="3:24">
+      <c r="C355" s="9"/>
+      <c r="D355" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E355" s="21"/>
+      <c r="F355" s="21"/>
+      <c r="G355" s="21"/>
+      <c r="H355" s="21"/>
+      <c r="I355" s="21"/>
+      <c r="J355" s="21"/>
+      <c r="K355" s="21"/>
+      <c r="L355" s="21"/>
+      <c r="M355" s="11"/>
+      <c r="N355" s="11"/>
+      <c r="O355" s="11"/>
+      <c r="P355" s="11"/>
+      <c r="Q355" s="11"/>
+      <c r="R355" s="11"/>
+      <c r="S355" s="11"/>
+      <c r="T355" s="11"/>
+      <c r="U355" s="11"/>
+      <c r="V355" s="11"/>
+      <c r="W355" s="11"/>
+      <c r="X355" s="12"/>
+    </row>
+    <row r="356" spans="3:24">
+      <c r="C356" s="9"/>
+      <c r="D356" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E356" s="21"/>
+      <c r="F356" s="21"/>
+      <c r="G356" s="21"/>
+      <c r="H356" s="21"/>
+      <c r="I356" s="21"/>
+      <c r="J356" s="21"/>
+      <c r="K356" s="21"/>
+      <c r="L356" s="21"/>
+      <c r="M356" s="11"/>
+      <c r="N356" s="11"/>
+      <c r="O356" s="11"/>
+      <c r="P356" s="11"/>
+      <c r="Q356" s="11"/>
+      <c r="R356" s="11"/>
+      <c r="S356" s="11"/>
+      <c r="T356" s="11"/>
+      <c r="U356" s="11"/>
+      <c r="V356" s="11"/>
+      <c r="W356" s="11"/>
+      <c r="X356" s="12"/>
+    </row>
+    <row r="357" spans="3:24">
+      <c r="C357" s="9"/>
+      <c r="D357" s="11"/>
+      <c r="E357" s="11"/>
+      <c r="F357" s="11"/>
+      <c r="G357" s="11"/>
+      <c r="H357" s="11"/>
+      <c r="I357" s="11"/>
+      <c r="J357" s="11"/>
+      <c r="K357" s="11"/>
+      <c r="L357" s="11"/>
+      <c r="M357" s="11"/>
+      <c r="N357" s="11"/>
+      <c r="O357" s="11"/>
+      <c r="P357" s="11"/>
+      <c r="Q357" s="11"/>
+      <c r="R357" s="11"/>
+      <c r="S357" s="11"/>
+      <c r="T357" s="11"/>
+      <c r="U357" s="11"/>
+      <c r="V357" s="11"/>
+      <c r="W357" s="11"/>
+      <c r="X357" s="12"/>
+    </row>
+    <row r="358" spans="3:24">
+      <c r="C358" s="9"/>
+      <c r="D358" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E358" s="11"/>
+      <c r="F358" s="11"/>
+      <c r="G358" s="11"/>
+      <c r="H358" s="11"/>
+      <c r="I358" s="11"/>
+      <c r="J358" s="11"/>
+      <c r="K358" s="11"/>
+      <c r="L358" s="11"/>
+      <c r="M358" s="11"/>
+      <c r="N358" s="11"/>
+      <c r="O358" s="11"/>
+      <c r="P358" s="11"/>
+      <c r="Q358" s="11"/>
+      <c r="R358" s="11"/>
+      <c r="S358" s="11"/>
+      <c r="T358" s="11"/>
+      <c r="U358" s="11"/>
+      <c r="V358" s="11"/>
+      <c r="W358" s="11"/>
+      <c r="X358" s="12"/>
+    </row>
+    <row r="359" spans="3:24">
+      <c r="C359" s="9"/>
+      <c r="D359" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E359" s="11"/>
+      <c r="F359" s="11"/>
+      <c r="G359" s="11"/>
+      <c r="H359" s="11"/>
+      <c r="I359" s="11"/>
+      <c r="J359" s="11"/>
+      <c r="K359" s="11"/>
+      <c r="L359" s="11"/>
+      <c r="M359" s="11"/>
+      <c r="N359" s="11"/>
+      <c r="O359" s="11"/>
+      <c r="P359" s="11"/>
+      <c r="Q359" s="11"/>
+      <c r="R359" s="11"/>
+      <c r="S359" s="11"/>
+      <c r="T359" s="11"/>
+      <c r="U359" s="11"/>
+      <c r="V359" s="11"/>
+      <c r="W359" s="11"/>
+      <c r="X359" s="12"/>
+    </row>
+    <row r="360" spans="3:24">
+      <c r="C360" s="9"/>
+      <c r="D360" s="11"/>
+      <c r="E360" s="11"/>
+      <c r="F360" s="11"/>
+      <c r="G360" s="11"/>
+      <c r="H360" s="11"/>
+      <c r="I360" s="11"/>
+      <c r="J360" s="11"/>
+      <c r="K360" s="11"/>
+      <c r="L360" s="11"/>
+      <c r="M360" s="11"/>
+      <c r="N360" s="11"/>
+      <c r="O360" s="11"/>
+      <c r="P360" s="11"/>
+      <c r="Q360" s="11"/>
+      <c r="R360" s="11"/>
+      <c r="S360" s="11"/>
+      <c r="T360" s="11"/>
+      <c r="U360" s="11"/>
+      <c r="V360" s="11"/>
+      <c r="W360" s="11"/>
+      <c r="X360" s="12"/>
+    </row>
+    <row r="361" spans="3:24">
+      <c r="C361" s="9"/>
+      <c r="D361" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E361" s="11"/>
+      <c r="F361" s="11"/>
+      <c r="G361" s="11"/>
+      <c r="H361" s="11"/>
+      <c r="I361" s="11"/>
+      <c r="J361" s="11"/>
+      <c r="K361" s="11"/>
+      <c r="L361" s="11"/>
+      <c r="M361" s="11"/>
+      <c r="N361" s="11"/>
+      <c r="O361" s="11"/>
+      <c r="P361" s="11"/>
+      <c r="Q361" s="11"/>
+      <c r="R361" s="11"/>
+      <c r="S361" s="11"/>
+      <c r="T361" s="11"/>
+      <c r="U361" s="11"/>
+      <c r="V361" s="11"/>
+      <c r="W361" s="11"/>
+      <c r="X361" s="12"/>
+    </row>
+    <row r="362" spans="3:24">
+      <c r="C362" s="9"/>
+      <c r="D362" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E362" s="11"/>
+      <c r="F362" s="11"/>
+      <c r="G362" s="11"/>
+      <c r="H362" s="11"/>
+      <c r="I362" s="11"/>
+      <c r="J362" s="11"/>
+      <c r="K362" s="11"/>
+      <c r="L362" s="11"/>
+      <c r="M362" s="11"/>
+      <c r="N362" s="11"/>
+      <c r="O362" s="11"/>
+      <c r="P362" s="11"/>
+      <c r="Q362" s="11"/>
+      <c r="R362" s="11"/>
+      <c r="S362" s="11"/>
+      <c r="T362" s="11"/>
+      <c r="U362" s="11"/>
+      <c r="V362" s="11"/>
+      <c r="W362" s="11"/>
+      <c r="X362" s="12"/>
+    </row>
+    <row r="363" spans="3:24">
+      <c r="C363" s="9"/>
+      <c r="D363" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E363" s="11"/>
+      <c r="F363" s="11"/>
+      <c r="G363" s="11"/>
+      <c r="H363" s="11"/>
+      <c r="I363" s="11"/>
+      <c r="J363" s="11"/>
+      <c r="K363" s="11"/>
+      <c r="L363" s="11"/>
+      <c r="M363" s="11"/>
+      <c r="N363" s="11"/>
+      <c r="O363" s="11"/>
+      <c r="P363" s="11"/>
+      <c r="Q363" s="11"/>
+      <c r="R363" s="11"/>
+      <c r="S363" s="11"/>
+      <c r="T363" s="11"/>
+      <c r="U363" s="11"/>
+      <c r="V363" s="11"/>
+      <c r="W363" s="11"/>
+      <c r="X363" s="12"/>
+    </row>
+    <row r="364" spans="3:24">
+      <c r="C364" s="9"/>
+      <c r="D364" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E364" s="11"/>
+      <c r="F364" s="11"/>
+      <c r="G364" s="11"/>
+      <c r="H364" s="11"/>
+      <c r="I364" s="11"/>
+      <c r="J364" s="11"/>
+      <c r="K364" s="11"/>
+      <c r="L364" s="11"/>
+      <c r="M364" s="11"/>
+      <c r="N364" s="11"/>
+      <c r="O364" s="11"/>
+      <c r="P364" s="11"/>
+      <c r="Q364" s="11"/>
+      <c r="R364" s="11"/>
+      <c r="S364" s="11"/>
+      <c r="T364" s="11"/>
+      <c r="U364" s="11"/>
+      <c r="V364" s="11"/>
+      <c r="W364" s="11"/>
+      <c r="X364" s="12"/>
+    </row>
+    <row r="365" spans="3:24">
+      <c r="C365" s="9"/>
+      <c r="D365" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E365" s="11"/>
+      <c r="F365" s="11"/>
+      <c r="G365" s="11"/>
+      <c r="H365" s="11"/>
+      <c r="I365" s="11"/>
+      <c r="J365" s="11"/>
+      <c r="K365" s="11"/>
+      <c r="L365" s="11"/>
+      <c r="M365" s="11"/>
+      <c r="N365" s="11"/>
+      <c r="O365" s="11"/>
+      <c r="P365" s="11"/>
+      <c r="Q365" s="11"/>
+      <c r="R365" s="11"/>
+      <c r="S365" s="11"/>
+      <c r="T365" s="11"/>
+      <c r="U365" s="11"/>
+      <c r="V365" s="11"/>
+      <c r="W365" s="11"/>
+      <c r="X365" s="12"/>
+    </row>
+    <row r="366" spans="3:24">
+      <c r="C366" s="9"/>
+      <c r="D366" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E366" s="11"/>
+      <c r="F366" s="11"/>
+      <c r="G366" s="11"/>
+      <c r="H366" s="11"/>
+      <c r="I366" s="11"/>
+      <c r="J366" s="11"/>
+      <c r="K366" s="11"/>
+      <c r="L366" s="11"/>
+      <c r="M366" s="11"/>
+      <c r="N366" s="11"/>
+      <c r="O366" s="11"/>
+      <c r="P366" s="11"/>
+      <c r="Q366" s="11"/>
+      <c r="R366" s="11"/>
+      <c r="S366" s="11"/>
+      <c r="T366" s="11"/>
+      <c r="U366" s="11"/>
+      <c r="V366" s="11"/>
+      <c r="W366" s="11"/>
+      <c r="X366" s="12"/>
+    </row>
+    <row r="367" spans="3:24">
+      <c r="C367" s="9"/>
+      <c r="D367" s="11"/>
+      <c r="E367" s="11"/>
+      <c r="F367" s="11"/>
+      <c r="G367" s="11"/>
+      <c r="H367" s="11"/>
+      <c r="I367" s="11"/>
+      <c r="J367" s="11"/>
+      <c r="K367" s="11"/>
+      <c r="L367" s="11"/>
+      <c r="M367" s="11"/>
+      <c r="N367" s="11"/>
+      <c r="O367" s="11"/>
+      <c r="P367" s="11"/>
+      <c r="Q367" s="11"/>
+      <c r="R367" s="11"/>
+      <c r="S367" s="11"/>
+      <c r="T367" s="11"/>
+      <c r="U367" s="11"/>
+      <c r="V367" s="11"/>
+      <c r="W367" s="11"/>
+      <c r="X367" s="12"/>
+    </row>
+    <row r="368" spans="3:24">
+      <c r="C368" s="9"/>
+      <c r="D368" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E368" s="11"/>
+      <c r="F368" s="11"/>
+      <c r="G368" s="11"/>
+      <c r="H368" s="11"/>
+      <c r="I368" s="11"/>
+      <c r="J368" s="11"/>
+      <c r="K368" s="11"/>
+      <c r="L368" s="11"/>
+      <c r="M368" s="11"/>
+      <c r="N368" s="11"/>
+      <c r="O368" s="11"/>
+      <c r="P368" s="11"/>
+      <c r="Q368" s="11"/>
+      <c r="R368" s="11"/>
+      <c r="S368" s="11"/>
+      <c r="T368" s="11"/>
+      <c r="U368" s="11"/>
+      <c r="V368" s="11"/>
+      <c r="W368" s="11"/>
+      <c r="X368" s="12"/>
+    </row>
+    <row r="369" spans="3:24">
+      <c r="C369" s="9"/>
+      <c r="D369" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E369" s="11"/>
+      <c r="F369" s="11"/>
+      <c r="G369" s="11"/>
+      <c r="H369" s="11"/>
+      <c r="I369" s="11"/>
+      <c r="J369" s="11"/>
+      <c r="K369" s="11"/>
+      <c r="L369" s="11"/>
+      <c r="M369" s="11"/>
+      <c r="N369" s="11"/>
+      <c r="O369" s="11"/>
+      <c r="P369" s="11"/>
+      <c r="Q369" s="11"/>
+      <c r="R369" s="11"/>
+      <c r="S369" s="11"/>
+      <c r="T369" s="11"/>
+      <c r="U369" s="11"/>
+      <c r="V369" s="11"/>
+      <c r="W369" s="11"/>
+      <c r="X369" s="12"/>
+    </row>
+    <row r="370" spans="3:24">
+      <c r="C370" s="9"/>
+      <c r="D370" s="11"/>
+      <c r="E370" s="11"/>
+      <c r="F370" s="11"/>
+      <c r="G370" s="11"/>
+      <c r="H370" s="11"/>
+      <c r="I370" s="11"/>
+      <c r="J370" s="11"/>
+      <c r="K370" s="11"/>
+      <c r="L370" s="11"/>
+      <c r="M370" s="11"/>
+      <c r="N370" s="11"/>
+      <c r="O370" s="11"/>
+      <c r="P370" s="11"/>
+      <c r="Q370" s="11"/>
+      <c r="R370" s="11"/>
+      <c r="S370" s="11"/>
+      <c r="T370" s="11"/>
+      <c r="U370" s="11"/>
+      <c r="V370" s="11"/>
+      <c r="W370" s="11"/>
+      <c r="X370" s="12"/>
+    </row>
+    <row r="371" spans="3:24">
+      <c r="C371" s="9"/>
+      <c r="D371" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E371" s="11"/>
+      <c r="F371" s="11"/>
+      <c r="G371" s="11"/>
+      <c r="H371" s="11"/>
+      <c r="I371" s="11"/>
+      <c r="J371" s="11"/>
+      <c r="K371" s="11"/>
+      <c r="L371" s="11"/>
+      <c r="M371" s="11"/>
+      <c r="N371" s="11"/>
+      <c r="O371" s="11"/>
+      <c r="P371" s="11"/>
+      <c r="Q371" s="11"/>
+      <c r="R371" s="11"/>
+      <c r="S371" s="11"/>
+      <c r="T371" s="11"/>
+      <c r="U371" s="11"/>
+      <c r="V371" s="11"/>
+      <c r="W371" s="11"/>
+      <c r="X371" s="12"/>
+    </row>
+    <row r="372" spans="3:24">
+      <c r="C372" s="9"/>
+      <c r="D372" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E372" s="11"/>
+      <c r="F372" s="11"/>
+      <c r="G372" s="11"/>
+      <c r="H372" s="11"/>
+      <c r="I372" s="11"/>
+      <c r="J372" s="11"/>
+      <c r="K372" s="11"/>
+      <c r="L372" s="11"/>
+      <c r="M372" s="11"/>
+      <c r="N372" s="11"/>
+      <c r="O372" s="11"/>
+      <c r="P372" s="11"/>
+      <c r="Q372" s="11"/>
+      <c r="R372" s="11"/>
+      <c r="S372" s="11"/>
+      <c r="T372" s="11"/>
+      <c r="U372" s="11"/>
+      <c r="V372" s="11"/>
+      <c r="W372" s="11"/>
+      <c r="X372" s="12"/>
+    </row>
+    <row r="373" spans="3:24">
+      <c r="C373" s="9"/>
+      <c r="D373" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E373" s="11"/>
+      <c r="F373" s="11"/>
+      <c r="G373" s="11"/>
+      <c r="H373" s="11"/>
+      <c r="I373" s="11"/>
+      <c r="J373" s="11"/>
+      <c r="K373" s="11"/>
+      <c r="L373" s="11"/>
+      <c r="M373" s="11"/>
+      <c r="N373" s="11"/>
+      <c r="O373" s="11"/>
+      <c r="P373" s="11"/>
+      <c r="Q373" s="11"/>
+      <c r="R373" s="11"/>
+      <c r="S373" s="11"/>
+      <c r="T373" s="11"/>
+      <c r="U373" s="11"/>
+      <c r="V373" s="11"/>
+      <c r="W373" s="11"/>
+      <c r="X373" s="12"/>
+    </row>
+    <row r="374" spans="3:24">
+      <c r="C374" s="9"/>
+      <c r="D374" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E374" s="11"/>
+      <c r="F374" s="11"/>
+      <c r="G374" s="11"/>
+      <c r="H374" s="11"/>
+      <c r="I374" s="11"/>
+      <c r="J374" s="11"/>
+      <c r="K374" s="11"/>
+      <c r="L374" s="11"/>
+      <c r="M374" s="11"/>
+      <c r="N374" s="11"/>
+      <c r="O374" s="11"/>
+      <c r="P374" s="11"/>
+      <c r="Q374" s="11"/>
+      <c r="R374" s="11"/>
+      <c r="S374" s="11"/>
+      <c r="T374" s="11"/>
+      <c r="U374" s="11"/>
+      <c r="V374" s="11"/>
+      <c r="W374" s="11"/>
+      <c r="X374" s="12"/>
+    </row>
+    <row r="375" spans="3:24">
+      <c r="C375" s="9"/>
+      <c r="D375" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E375" s="11"/>
+      <c r="F375" s="11"/>
+      <c r="G375" s="11"/>
+      <c r="H375" s="11"/>
+      <c r="I375" s="11"/>
+      <c r="J375" s="11"/>
+      <c r="K375" s="11"/>
+      <c r="L375" s="11"/>
+      <c r="M375" s="11"/>
+      <c r="N375" s="11"/>
+      <c r="O375" s="11"/>
+      <c r="P375" s="11"/>
+      <c r="Q375" s="11"/>
+      <c r="R375" s="11"/>
+      <c r="S375" s="11"/>
+      <c r="T375" s="11"/>
+      <c r="U375" s="11"/>
+      <c r="V375" s="11"/>
+      <c r="W375" s="11"/>
+      <c r="X375" s="12"/>
+    </row>
+    <row r="376" spans="3:24">
+      <c r="C376" s="9"/>
+      <c r="D376" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E376" s="11"/>
+      <c r="F376" s="11"/>
+      <c r="G376" s="11"/>
+      <c r="H376" s="11"/>
+      <c r="I376" s="11"/>
+      <c r="J376" s="11"/>
+      <c r="K376" s="11"/>
+      <c r="L376" s="11"/>
+      <c r="M376" s="11"/>
+      <c r="N376" s="11"/>
+      <c r="O376" s="11"/>
+      <c r="P376" s="11"/>
+      <c r="Q376" s="11"/>
+      <c r="R376" s="11"/>
+      <c r="S376" s="11"/>
+      <c r="T376" s="11"/>
+      <c r="U376" s="11"/>
+      <c r="V376" s="11"/>
+      <c r="W376" s="11"/>
+      <c r="X376" s="12"/>
+    </row>
+    <row r="377" spans="3:24">
+      <c r="C377" s="9"/>
+      <c r="D377" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E377" s="11"/>
+      <c r="F377" s="11"/>
+      <c r="G377" s="11"/>
+      <c r="H377" s="11"/>
+      <c r="I377" s="11"/>
+      <c r="J377" s="11"/>
+      <c r="K377" s="11"/>
+      <c r="L377" s="11"/>
+      <c r="M377" s="11"/>
+      <c r="N377" s="11"/>
+      <c r="O377" s="11"/>
+      <c r="P377" s="11"/>
+      <c r="Q377" s="11"/>
+      <c r="R377" s="11"/>
+      <c r="S377" s="11"/>
+      <c r="T377" s="11"/>
+      <c r="U377" s="11"/>
+      <c r="V377" s="11"/>
+      <c r="W377" s="11"/>
+      <c r="X377" s="12"/>
+    </row>
+    <row r="378" spans="3:24">
+      <c r="C378" s="9"/>
+      <c r="D378" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E378" s="11"/>
+      <c r="F378" s="11"/>
+      <c r="G378" s="11"/>
+      <c r="H378" s="11"/>
+      <c r="I378" s="11"/>
+      <c r="J378" s="11"/>
+      <c r="K378" s="11"/>
+      <c r="L378" s="11"/>
+      <c r="M378" s="11"/>
+      <c r="N378" s="11"/>
+      <c r="O378" s="11"/>
+      <c r="P378" s="11"/>
+      <c r="Q378" s="11"/>
+      <c r="R378" s="11"/>
+      <c r="S378" s="11"/>
+      <c r="T378" s="11"/>
+      <c r="U378" s="11"/>
+      <c r="V378" s="11"/>
+      <c r="W378" s="11"/>
+      <c r="X378" s="12"/>
+    </row>
+    <row r="379" spans="3:24">
+      <c r="C379" s="9"/>
+      <c r="D379" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E379" s="11"/>
+      <c r="F379" s="11"/>
+      <c r="G379" s="11"/>
+      <c r="H379" s="11"/>
+      <c r="I379" s="11"/>
+      <c r="J379" s="11"/>
+      <c r="K379" s="11"/>
+      <c r="L379" s="11"/>
+      <c r="M379" s="11"/>
+      <c r="N379" s="11"/>
+      <c r="O379" s="11"/>
+      <c r="P379" s="11"/>
+      <c r="Q379" s="11"/>
+      <c r="R379" s="11"/>
+      <c r="S379" s="11"/>
+      <c r="T379" s="11"/>
+      <c r="U379" s="11"/>
+      <c r="V379" s="11"/>
+      <c r="W379" s="11"/>
+      <c r="X379" s="12"/>
+    </row>
+    <row r="380" spans="3:24">
+      <c r="C380" s="9"/>
+      <c r="D380" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E380" s="11"/>
+      <c r="F380" s="11"/>
+      <c r="G380" s="11"/>
+      <c r="H380" s="11"/>
+      <c r="I380" s="11"/>
+      <c r="J380" s="11"/>
+      <c r="K380" s="11"/>
+      <c r="L380" s="11"/>
+      <c r="M380" s="11"/>
+      <c r="N380" s="11"/>
+      <c r="O380" s="11"/>
+      <c r="P380" s="11"/>
+      <c r="Q380" s="11"/>
+      <c r="R380" s="11"/>
+      <c r="S380" s="11"/>
+      <c r="T380" s="11"/>
+      <c r="U380" s="11"/>
+      <c r="V380" s="11"/>
+      <c r="W380" s="11"/>
+      <c r="X380" s="12"/>
+    </row>
+    <row r="381" spans="3:24">
+      <c r="C381" s="9"/>
+      <c r="D381" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E381" s="11"/>
+      <c r="F381" s="11"/>
+      <c r="G381" s="11"/>
+      <c r="H381" s="11"/>
+      <c r="I381" s="11"/>
+      <c r="J381" s="11"/>
+      <c r="K381" s="11"/>
+      <c r="L381" s="11"/>
+      <c r="M381" s="11"/>
+      <c r="N381" s="11"/>
+      <c r="O381" s="11"/>
+      <c r="P381" s="11"/>
+      <c r="Q381" s="11"/>
+      <c r="R381" s="11"/>
+      <c r="S381" s="11"/>
+      <c r="T381" s="11"/>
+      <c r="U381" s="11"/>
+      <c r="V381" s="11"/>
+      <c r="W381" s="11"/>
+      <c r="X381" s="12"/>
+    </row>
+    <row r="382" spans="3:24">
+      <c r="C382" s="9"/>
+      <c r="D382" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E382" s="11"/>
+      <c r="F382" s="11"/>
+      <c r="G382" s="11"/>
+      <c r="H382" s="11"/>
+      <c r="I382" s="11"/>
+      <c r="J382" s="11"/>
+      <c r="K382" s="11"/>
+      <c r="L382" s="11"/>
+      <c r="M382" s="11"/>
+      <c r="N382" s="11"/>
+      <c r="O382" s="11"/>
+      <c r="P382" s="11"/>
+      <c r="Q382" s="11"/>
+      <c r="R382" s="11"/>
+      <c r="S382" s="11"/>
+      <c r="T382" s="11"/>
+      <c r="U382" s="11"/>
+      <c r="V382" s="11"/>
+      <c r="W382" s="11"/>
+      <c r="X382" s="12"/>
+    </row>
+    <row r="383" spans="3:24">
+      <c r="C383" s="9"/>
+      <c r="D383" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E383" s="11"/>
+      <c r="F383" s="11"/>
+      <c r="G383" s="11"/>
+      <c r="H383" s="11"/>
+      <c r="I383" s="11"/>
+      <c r="J383" s="11"/>
+      <c r="K383" s="11"/>
+      <c r="L383" s="11"/>
+      <c r="M383" s="11"/>
+      <c r="N383" s="11"/>
+      <c r="O383" s="11"/>
+      <c r="P383" s="11"/>
+      <c r="Q383" s="11"/>
+      <c r="R383" s="11"/>
+      <c r="S383" s="11"/>
+      <c r="T383" s="11"/>
+      <c r="U383" s="11"/>
+      <c r="V383" s="11"/>
+      <c r="W383" s="11"/>
+      <c r="X383" s="12"/>
+    </row>
+    <row r="384" spans="3:24">
+      <c r="C384" s="9"/>
+      <c r="D384" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E384" s="11"/>
+      <c r="F384" s="11"/>
+      <c r="G384" s="11"/>
+      <c r="H384" s="11"/>
+      <c r="I384" s="11"/>
+      <c r="J384" s="11"/>
+      <c r="K384" s="11"/>
+      <c r="L384" s="11"/>
+      <c r="M384" s="11"/>
+      <c r="N384" s="11"/>
+      <c r="O384" s="11"/>
+      <c r="P384" s="11"/>
+      <c r="Q384" s="11"/>
+      <c r="R384" s="11"/>
+      <c r="S384" s="11"/>
+      <c r="T384" s="11"/>
+      <c r="U384" s="11"/>
+      <c r="V384" s="11"/>
+      <c r="W384" s="11"/>
+      <c r="X384" s="12"/>
+    </row>
+    <row r="385" spans="3:24">
+      <c r="C385" s="9"/>
+      <c r="D385" s="11"/>
+      <c r="E385" s="11"/>
+      <c r="F385" s="11"/>
+      <c r="G385" s="11"/>
+      <c r="H385" s="11"/>
+      <c r="I385" s="11"/>
+      <c r="J385" s="11"/>
+      <c r="K385" s="11"/>
+      <c r="L385" s="11"/>
+      <c r="M385" s="11"/>
+      <c r="N385" s="11"/>
+      <c r="O385" s="11"/>
+      <c r="P385" s="11"/>
+      <c r="Q385" s="11"/>
+      <c r="R385" s="11"/>
+      <c r="S385" s="11"/>
+      <c r="T385" s="11"/>
+      <c r="U385" s="11"/>
+      <c r="V385" s="11"/>
+      <c r="W385" s="11"/>
+      <c r="X385" s="12"/>
+    </row>
+    <row r="386" spans="3:24">
+      <c r="C386" s="9"/>
+      <c r="D386" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E386" s="11"/>
+      <c r="F386" s="11"/>
+      <c r="G386" s="11"/>
+      <c r="H386" s="11"/>
+      <c r="I386" s="11"/>
+      <c r="J386" s="11"/>
+      <c r="K386" s="11"/>
+      <c r="L386" s="11"/>
+      <c r="M386" s="11"/>
+      <c r="N386" s="11"/>
+      <c r="O386" s="11"/>
+      <c r="P386" s="11"/>
+      <c r="Q386" s="11"/>
+      <c r="R386" s="11"/>
+      <c r="S386" s="11"/>
+      <c r="T386" s="11"/>
+      <c r="U386" s="11"/>
+      <c r="V386" s="11"/>
+      <c r="W386" s="11"/>
+      <c r="X386" s="12"/>
+    </row>
+    <row r="387" spans="3:24">
+      <c r="C387" s="9"/>
+      <c r="D387" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E387" s="11"/>
+      <c r="F387" s="11"/>
+      <c r="G387" s="11"/>
+      <c r="H387" s="11"/>
+      <c r="I387" s="11"/>
+      <c r="J387" s="11"/>
+      <c r="K387" s="11"/>
+      <c r="L387" s="11"/>
+      <c r="M387" s="11"/>
+      <c r="N387" s="11"/>
+      <c r="O387" s="11"/>
+      <c r="P387" s="11"/>
+      <c r="Q387" s="11"/>
+      <c r="R387" s="11"/>
+      <c r="S387" s="11"/>
+      <c r="T387" s="11"/>
+      <c r="U387" s="11"/>
+      <c r="V387" s="11"/>
+      <c r="W387" s="11"/>
+      <c r="X387" s="12"/>
+    </row>
+    <row r="388" spans="3:24">
+      <c r="C388" s="9"/>
+      <c r="D388" s="11"/>
+      <c r="E388" s="11"/>
+      <c r="F388" s="11"/>
+      <c r="G388" s="11"/>
+      <c r="H388" s="11"/>
+      <c r="I388" s="11"/>
+      <c r="J388" s="11"/>
+      <c r="K388" s="11"/>
+      <c r="L388" s="11"/>
+      <c r="M388" s="11"/>
+      <c r="N388" s="11"/>
+      <c r="O388" s="11"/>
+      <c r="P388" s="11"/>
+      <c r="Q388" s="11"/>
+      <c r="R388" s="11"/>
+      <c r="S388" s="11"/>
+      <c r="T388" s="11"/>
+      <c r="U388" s="11"/>
+      <c r="V388" s="11"/>
+      <c r="W388" s="11"/>
+      <c r="X388" s="12"/>
+    </row>
+    <row r="389" spans="3:24">
+      <c r="C389" s="9"/>
+      <c r="D389" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E389" s="11"/>
+      <c r="F389" s="11"/>
+      <c r="G389" s="11"/>
+      <c r="H389" s="11"/>
+      <c r="I389" s="11"/>
+      <c r="J389" s="11"/>
+      <c r="K389" s="11"/>
+      <c r="L389" s="11"/>
+      <c r="M389" s="11"/>
+      <c r="N389" s="11"/>
+      <c r="O389" s="11"/>
+      <c r="P389" s="11"/>
+      <c r="Q389" s="11"/>
+      <c r="R389" s="11"/>
+      <c r="S389" s="11"/>
+      <c r="T389" s="11"/>
+      <c r="U389" s="11"/>
+      <c r="V389" s="11"/>
+      <c r="W389" s="11"/>
+      <c r="X389" s="12"/>
+    </row>
+    <row r="390" spans="3:24">
+      <c r="C390" s="9"/>
+      <c r="D390" s="11"/>
+      <c r="E390" s="11"/>
+      <c r="F390" s="11"/>
+      <c r="G390" s="11"/>
+      <c r="H390" s="11"/>
+      <c r="I390" s="11"/>
+      <c r="J390" s="11"/>
+      <c r="K390" s="11"/>
+      <c r="L390" s="11"/>
+      <c r="M390" s="11"/>
+      <c r="N390" s="11"/>
+      <c r="O390" s="11"/>
+      <c r="P390" s="11"/>
+      <c r="Q390" s="11"/>
+      <c r="R390" s="11"/>
+      <c r="S390" s="11"/>
+      <c r="T390" s="11"/>
+      <c r="U390" s="11"/>
+      <c r="V390" s="11"/>
+      <c r="W390" s="11"/>
+      <c r="X390" s="12"/>
+    </row>
+    <row r="391" spans="3:24">
+      <c r="C391" s="19"/>
+      <c r="D391" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E391" s="21"/>
+      <c r="F391" s="21"/>
+      <c r="G391" s="21"/>
+      <c r="H391" s="21"/>
+      <c r="I391" s="21"/>
+      <c r="J391" s="11"/>
+      <c r="K391" s="11"/>
+      <c r="L391" s="11"/>
+      <c r="M391" s="11"/>
+      <c r="N391" s="11"/>
+      <c r="O391" s="11"/>
+      <c r="P391" s="11"/>
+      <c r="Q391" s="11"/>
+      <c r="R391" s="11"/>
+      <c r="S391" s="11"/>
+      <c r="T391" s="11"/>
+      <c r="U391" s="11"/>
+      <c r="V391" s="11"/>
+      <c r="W391" s="11"/>
+      <c r="X391" s="12"/>
+    </row>
+    <row r="392" spans="3:24">
+      <c r="C392" s="19"/>
+      <c r="D392" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E392" s="21"/>
+      <c r="F392" s="21"/>
+      <c r="G392" s="21"/>
+      <c r="H392" s="21"/>
+      <c r="I392" s="21"/>
+      <c r="J392" s="11"/>
+      <c r="K392" s="11"/>
+      <c r="L392" s="11"/>
+      <c r="M392" s="11"/>
+      <c r="N392" s="11"/>
+      <c r="O392" s="11"/>
+      <c r="P392" s="11"/>
+      <c r="Q392" s="11"/>
+      <c r="R392" s="11"/>
+      <c r="S392" s="11"/>
+      <c r="T392" s="11"/>
+      <c r="U392" s="11"/>
+      <c r="V392" s="11"/>
+      <c r="W392" s="11"/>
+      <c r="X392" s="12"/>
+    </row>
+    <row r="393" spans="3:24">
+      <c r="C393" s="9"/>
+      <c r="D393" s="11"/>
+      <c r="E393" s="11"/>
+      <c r="F393" s="11"/>
+      <c r="G393" s="11"/>
+      <c r="H393" s="11"/>
+      <c r="I393" s="11"/>
+      <c r="J393" s="11"/>
+      <c r="K393" s="11"/>
+      <c r="L393" s="11"/>
+      <c r="M393" s="11"/>
+      <c r="N393" s="11"/>
+      <c r="O393" s="11"/>
+      <c r="P393" s="11"/>
+      <c r="Q393" s="11"/>
+      <c r="R393" s="11"/>
+      <c r="S393" s="11"/>
+      <c r="T393" s="11"/>
+      <c r="U393" s="11"/>
+      <c r="V393" s="11"/>
+      <c r="W393" s="11"/>
+      <c r="X393" s="12"/>
+    </row>
+    <row r="394" spans="3:24">
+      <c r="C394" s="9"/>
+      <c r="D394" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E394" s="11"/>
+      <c r="F394" s="11"/>
+      <c r="G394" s="11"/>
+      <c r="H394" s="11"/>
+      <c r="I394" s="11"/>
+      <c r="J394" s="11"/>
+      <c r="K394" s="11"/>
+      <c r="L394" s="11"/>
+      <c r="M394" s="11"/>
+      <c r="N394" s="11"/>
+      <c r="O394" s="11"/>
+      <c r="P394" s="11"/>
+      <c r="Q394" s="11"/>
+      <c r="R394" s="11"/>
+      <c r="S394" s="11"/>
+      <c r="T394" s="11"/>
+      <c r="U394" s="11"/>
+      <c r="V394" s="11"/>
+      <c r="W394" s="11"/>
+      <c r="X394" s="12"/>
+    </row>
+    <row r="395" spans="3:24">
+      <c r="C395" s="9"/>
+      <c r="D395" s="11"/>
+      <c r="E395" s="11"/>
+      <c r="F395" s="11"/>
+      <c r="G395" s="11"/>
+      <c r="H395" s="11"/>
+      <c r="I395" s="11"/>
+      <c r="J395" s="11"/>
+      <c r="K395" s="11"/>
+      <c r="L395" s="11"/>
+      <c r="M395" s="11"/>
+      <c r="N395" s="11"/>
+      <c r="O395" s="11"/>
+      <c r="P395" s="11"/>
+      <c r="Q395" s="11"/>
+      <c r="R395" s="11"/>
+      <c r="S395" s="11"/>
+      <c r="T395" s="11"/>
+      <c r="U395" s="11"/>
+      <c r="V395" s="11"/>
+      <c r="W395" s="11"/>
+      <c r="X395" s="12"/>
+    </row>
+    <row r="396" spans="3:24">
+      <c r="C396" s="9"/>
+      <c r="D396" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E396" s="11"/>
+      <c r="F396" s="11"/>
+      <c r="G396" s="11"/>
+      <c r="H396" s="11"/>
+      <c r="I396" s="11"/>
+      <c r="J396" s="11"/>
+      <c r="K396" s="11"/>
+      <c r="L396" s="11"/>
+      <c r="M396" s="11"/>
+      <c r="N396" s="11"/>
+      <c r="O396" s="11"/>
+      <c r="P396" s="11"/>
+      <c r="Q396" s="11"/>
+      <c r="R396" s="11"/>
+      <c r="S396" s="11"/>
+      <c r="T396" s="11"/>
+      <c r="U396" s="11"/>
+      <c r="V396" s="11"/>
+      <c r="W396" s="11"/>
+      <c r="X396" s="12"/>
+    </row>
+    <row r="397" spans="3:24">
+      <c r="C397" s="9"/>
+      <c r="D397" s="11"/>
+      <c r="E397" s="11"/>
+      <c r="F397" s="11"/>
+      <c r="G397" s="11"/>
+      <c r="H397" s="11"/>
+      <c r="I397" s="11"/>
+      <c r="J397" s="11"/>
+      <c r="K397" s="11"/>
+      <c r="L397" s="11"/>
+      <c r="M397" s="11"/>
+      <c r="N397" s="11"/>
+      <c r="O397" s="11"/>
+      <c r="P397" s="11"/>
+      <c r="Q397" s="11"/>
+      <c r="R397" s="11"/>
+      <c r="S397" s="11"/>
+      <c r="T397" s="11"/>
+      <c r="U397" s="11"/>
+      <c r="V397" s="11"/>
+      <c r="W397" s="11"/>
+      <c r="X397" s="12"/>
+    </row>
+    <row r="398" spans="3:24">
+      <c r="C398" s="19"/>
+      <c r="D398" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E398" s="21"/>
+      <c r="F398" s="21"/>
+      <c r="G398" s="21"/>
+      <c r="H398" s="21"/>
+      <c r="I398" s="21"/>
+      <c r="J398" s="21"/>
+      <c r="K398" s="11"/>
+      <c r="L398" s="11"/>
+      <c r="M398" s="11"/>
+      <c r="N398" s="11"/>
+      <c r="O398" s="11"/>
+      <c r="P398" s="11"/>
+      <c r="Q398" s="11"/>
+      <c r="R398" s="11"/>
+      <c r="S398" s="11"/>
+      <c r="T398" s="11"/>
+      <c r="U398" s="11"/>
+      <c r="V398" s="11"/>
+      <c r="W398" s="11"/>
+      <c r="X398" s="12"/>
+    </row>
+    <row r="399" spans="3:24">
+      <c r="C399" s="9"/>
+      <c r="D399" s="11"/>
+      <c r="E399" s="11"/>
+      <c r="F399" s="11"/>
+      <c r="G399" s="11"/>
+      <c r="H399" s="11"/>
+      <c r="I399" s="11"/>
+      <c r="J399" s="11"/>
+      <c r="K399" s="11"/>
+      <c r="L399" s="11"/>
+      <c r="M399" s="11"/>
+      <c r="N399" s="11"/>
+      <c r="O399" s="11"/>
+      <c r="P399" s="11"/>
+      <c r="Q399" s="11"/>
+      <c r="R399" s="11"/>
+      <c r="S399" s="11"/>
+      <c r="T399" s="11"/>
+      <c r="U399" s="11"/>
+      <c r="V399" s="11"/>
+      <c r="W399" s="11"/>
+      <c r="X399" s="12"/>
+    </row>
+    <row r="400" spans="3:24">
+      <c r="C400" s="9"/>
+      <c r="D400" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E400" s="11"/>
+      <c r="F400" s="11"/>
+      <c r="G400" s="11"/>
+      <c r="H400" s="11"/>
+      <c r="I400" s="11"/>
+      <c r="J400" s="11"/>
+      <c r="K400" s="11"/>
+      <c r="L400" s="11"/>
+      <c r="M400" s="11"/>
+      <c r="N400" s="11"/>
+      <c r="O400" s="11"/>
+      <c r="P400" s="11"/>
+      <c r="Q400" s="11"/>
+      <c r="R400" s="11"/>
+      <c r="S400" s="11"/>
+      <c r="T400" s="11"/>
+      <c r="U400" s="11"/>
+      <c r="V400" s="11"/>
+      <c r="W400" s="11"/>
+      <c r="X400" s="12"/>
+    </row>
+    <row r="401" spans="3:24">
+      <c r="C401" s="9"/>
+      <c r="D401" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E401" s="11"/>
+      <c r="F401" s="11"/>
+      <c r="G401" s="11"/>
+      <c r="H401" s="11"/>
+      <c r="I401" s="11"/>
+      <c r="J401" s="11"/>
+      <c r="K401" s="11"/>
+      <c r="L401" s="11"/>
+      <c r="M401" s="11"/>
+      <c r="N401" s="11"/>
+      <c r="O401" s="11"/>
+      <c r="P401" s="11"/>
+      <c r="Q401" s="11"/>
+      <c r="R401" s="11"/>
+      <c r="S401" s="11"/>
+      <c r="T401" s="11"/>
+      <c r="U401" s="11"/>
+      <c r="V401" s="11"/>
+      <c r="W401" s="11"/>
+      <c r="X401" s="12"/>
+    </row>
+    <row r="402" spans="3:24">
+      <c r="C402" s="9"/>
+      <c r="D402" s="11"/>
+      <c r="E402" s="11"/>
+      <c r="F402" s="11"/>
+      <c r="G402" s="11"/>
+      <c r="H402" s="11"/>
+      <c r="I402" s="11"/>
+      <c r="J402" s="11"/>
+      <c r="K402" s="11"/>
+      <c r="L402" s="11"/>
+      <c r="M402" s="11"/>
+      <c r="N402" s="11"/>
+      <c r="O402" s="11"/>
+      <c r="P402" s="11"/>
+      <c r="Q402" s="11"/>
+      <c r="R402" s="11"/>
+      <c r="S402" s="11"/>
+      <c r="T402" s="11"/>
+      <c r="U402" s="11"/>
+      <c r="V402" s="11"/>
+      <c r="W402" s="11"/>
+      <c r="X402" s="12"/>
+    </row>
+    <row r="403" spans="3:24">
+      <c r="C403" s="9"/>
+      <c r="D403" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E403" s="11"/>
+      <c r="F403" s="11"/>
+      <c r="G403" s="11"/>
+      <c r="H403" s="11"/>
+      <c r="I403" s="11"/>
+      <c r="J403" s="11"/>
+      <c r="K403" s="11"/>
+      <c r="L403" s="11"/>
+      <c r="M403" s="11"/>
+      <c r="N403" s="11"/>
+      <c r="O403" s="11"/>
+      <c r="P403" s="11"/>
+      <c r="Q403" s="11"/>
+      <c r="R403" s="11"/>
+      <c r="S403" s="11"/>
+      <c r="T403" s="11"/>
+      <c r="U403" s="11"/>
+      <c r="V403" s="11"/>
+      <c r="W403" s="11"/>
+      <c r="X403" s="12"/>
+    </row>
+    <row r="404" spans="3:24">
+      <c r="C404" s="9"/>
+      <c r="D404" s="11"/>
+      <c r="E404" s="11"/>
+      <c r="F404" s="11"/>
+      <c r="G404" s="11"/>
+      <c r="H404" s="11"/>
+      <c r="I404" s="11"/>
+      <c r="J404" s="11"/>
+      <c r="K404" s="11"/>
+      <c r="L404" s="11"/>
+      <c r="M404" s="11"/>
+      <c r="N404" s="11"/>
+      <c r="O404" s="11"/>
+      <c r="P404" s="11"/>
+      <c r="Q404" s="11"/>
+      <c r="R404" s="11"/>
+      <c r="S404" s="11"/>
+      <c r="T404" s="11"/>
+      <c r="U404" s="11"/>
+      <c r="V404" s="11"/>
+      <c r="W404" s="11"/>
+      <c r="X404" s="12"/>
+    </row>
+    <row r="405" spans="3:24">
+      <c r="C405" s="19"/>
+      <c r="D405" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E405" s="21"/>
+      <c r="F405" s="21"/>
+      <c r="G405" s="21"/>
+      <c r="H405" s="21"/>
+      <c r="I405" s="21"/>
+      <c r="J405" s="21"/>
+      <c r="K405" s="21"/>
+      <c r="L405" s="21"/>
+      <c r="M405" s="21"/>
+      <c r="N405" s="11"/>
+      <c r="O405" s="11"/>
+      <c r="P405" s="11"/>
+      <c r="Q405" s="11"/>
+      <c r="R405" s="11"/>
+      <c r="S405" s="11"/>
+      <c r="T405" s="11"/>
+      <c r="U405" s="11"/>
+      <c r="V405" s="11"/>
+      <c r="W405" s="11"/>
+      <c r="X405" s="12"/>
+    </row>
+    <row r="406" spans="3:24">
+      <c r="C406" s="19"/>
+      <c r="D406" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="E406" s="21"/>
+      <c r="F406" s="21"/>
+      <c r="G406" s="21"/>
+      <c r="H406" s="21"/>
+      <c r="I406" s="21"/>
+      <c r="J406" s="21"/>
+      <c r="K406" s="21"/>
+      <c r="L406" s="21"/>
+      <c r="M406" s="21"/>
+      <c r="N406" s="11"/>
+      <c r="O406" s="11"/>
+      <c r="P406" s="11"/>
+      <c r="Q406" s="11"/>
+      <c r="R406" s="11"/>
+      <c r="S406" s="11"/>
+      <c r="T406" s="11"/>
+      <c r="U406" s="11"/>
+      <c r="V406" s="11"/>
+      <c r="W406" s="11"/>
+      <c r="X406" s="12"/>
+    </row>
+    <row r="407" spans="3:24">
+      <c r="C407" s="9"/>
+      <c r="D407" s="11"/>
+      <c r="E407" s="11"/>
+      <c r="F407" s="11"/>
+      <c r="G407" s="11"/>
+      <c r="H407" s="11"/>
+      <c r="I407" s="11"/>
+      <c r="J407" s="11"/>
+      <c r="K407" s="11"/>
+      <c r="L407" s="11"/>
+      <c r="M407" s="11"/>
+      <c r="N407" s="11"/>
+      <c r="O407" s="11"/>
+      <c r="P407" s="11"/>
+      <c r="Q407" s="11"/>
+      <c r="R407" s="11"/>
+      <c r="S407" s="11"/>
+      <c r="T407" s="11"/>
+      <c r="U407" s="11"/>
+      <c r="V407" s="11"/>
+      <c r="W407" s="11"/>
+      <c r="X407" s="12"/>
+    </row>
+    <row r="408" spans="3:24">
+      <c r="C408" s="9"/>
+      <c r="D408" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E408" s="11"/>
+      <c r="F408" s="11"/>
+      <c r="G408" s="11"/>
+      <c r="H408" s="11"/>
+      <c r="I408" s="11"/>
+      <c r="J408" s="11"/>
+      <c r="K408" s="11"/>
+      <c r="L408" s="11"/>
+      <c r="M408" s="11"/>
+      <c r="N408" s="11"/>
+      <c r="O408" s="11"/>
+      <c r="P408" s="11"/>
+      <c r="Q408" s="11"/>
+      <c r="R408" s="11"/>
+      <c r="S408" s="11"/>
+      <c r="T408" s="11"/>
+      <c r="U408" s="11"/>
+      <c r="V408" s="11"/>
+      <c r="W408" s="11"/>
+      <c r="X408" s="12"/>
+    </row>
+    <row r="409" spans="3:24">
+      <c r="C409" s="9"/>
+      <c r="D409" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E409" s="11"/>
+      <c r="F409" s="11"/>
+      <c r="G409" s="11"/>
+      <c r="H409" s="11"/>
+      <c r="I409" s="11"/>
+      <c r="J409" s="11"/>
+      <c r="K409" s="11"/>
+      <c r="L409" s="11"/>
+      <c r="M409" s="11"/>
+      <c r="N409" s="11"/>
+      <c r="O409" s="11"/>
+      <c r="P409" s="11"/>
+      <c r="Q409" s="11"/>
+      <c r="R409" s="11"/>
+      <c r="S409" s="11"/>
+      <c r="T409" s="11"/>
+      <c r="U409" s="11"/>
+      <c r="V409" s="11"/>
+      <c r="W409" s="11"/>
+      <c r="X409" s="12"/>
+    </row>
+    <row r="410" spans="3:24">
+      <c r="C410" s="9"/>
+      <c r="D410" s="11"/>
+      <c r="E410" s="11"/>
+      <c r="F410" s="11"/>
+      <c r="G410" s="11"/>
+      <c r="H410" s="11"/>
+      <c r="I410" s="11"/>
+      <c r="J410" s="11"/>
+      <c r="K410" s="11"/>
+      <c r="L410" s="11"/>
+      <c r="M410" s="11"/>
+      <c r="N410" s="11"/>
+      <c r="O410" s="11"/>
+      <c r="P410" s="11"/>
+      <c r="Q410" s="11"/>
+      <c r="R410" s="11"/>
+      <c r="S410" s="11"/>
+      <c r="T410" s="11"/>
+      <c r="U410" s="11"/>
+      <c r="V410" s="11"/>
+      <c r="W410" s="11"/>
+      <c r="X410" s="12"/>
+    </row>
+    <row r="411" spans="3:24">
+      <c r="C411" s="9"/>
+      <c r="D411" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E411" s="11"/>
+      <c r="F411" s="11"/>
+      <c r="G411" s="11"/>
+      <c r="H411" s="11"/>
+      <c r="I411" s="11"/>
+      <c r="J411" s="11"/>
+      <c r="K411" s="11"/>
+      <c r="L411" s="11"/>
+      <c r="M411" s="11"/>
+      <c r="N411" s="11"/>
+      <c r="O411" s="11"/>
+      <c r="P411" s="11"/>
+      <c r="Q411" s="11"/>
+      <c r="R411" s="11"/>
+      <c r="S411" s="11"/>
+      <c r="T411" s="11"/>
+      <c r="U411" s="11"/>
+      <c r="V411" s="11"/>
+      <c r="W411" s="11"/>
+      <c r="X411" s="12"/>
+    </row>
+    <row r="412" spans="3:24" ht="21" thickBot="1">
+      <c r="C412" s="14"/>
+      <c r="D412" s="15"/>
+      <c r="E412" s="15"/>
+      <c r="F412" s="15"/>
+      <c r="G412" s="15"/>
+      <c r="H412" s="15"/>
+      <c r="I412" s="15"/>
+      <c r="J412" s="15"/>
+      <c r="K412" s="15"/>
+      <c r="L412" s="15"/>
+      <c r="M412" s="15"/>
+      <c r="N412" s="15"/>
+      <c r="O412" s="15"/>
+      <c r="P412" s="15"/>
+      <c r="Q412" s="15"/>
+      <c r="R412" s="15"/>
+      <c r="S412" s="15"/>
+      <c r="T412" s="15"/>
+      <c r="U412" s="15"/>
+      <c r="V412" s="15"/>
+      <c r="W412" s="15"/>
+      <c r="X412" s="16"/>
+    </row>
+    <row r="415" spans="3:24" s="3" customFormat="1"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:D30">
     <sortCondition ref="A18:A30"/>
